--- a/doc/SoftwareManagement/Projektplan.xlsx
+++ b/doc/SoftwareManagement/Projektplan.xlsx
@@ -188,9 +188,6 @@
     <t>Prof. Dr. Josef Joller / HSR</t>
   </si>
   <si>
-    <t>Abgabe SA (01.06.12)</t>
-  </si>
-  <si>
     <t>Unit-Tests (TDD)</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>Domain Modell: Testframework</t>
   </si>
   <si>
-    <t>Dokumenation fertig</t>
-  </si>
-  <si>
     <t>Kickoff Meeting</t>
   </si>
   <si>
@@ -276,6 +270,12 @@
   </si>
   <si>
     <t>Abschluss</t>
+  </si>
+  <si>
+    <t>Dokumenation Konzept fertig</t>
+  </si>
+  <si>
+    <t>Dokumentation fertig &amp; Abgabe der Studienarbeit (01.06.12)</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,12 +506,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,15 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -730,6 +715,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -737,7 +731,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -827,7 +821,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -860,7 +854,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -880,21 +874,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -912,7 +906,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -940,58 +934,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1033,18 +978,15 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="25" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1052,73 +994,13 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1129,47 +1011,22 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1177,27 +1034,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="26" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1205,6 +1043,166 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1599,12 +1597,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.4">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
@@ -1617,20 +1615,20 @@
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
     </row>
     <row r="7" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1641,10 +1639,10 @@
       <c r="C9" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="128"/>
     </row>
     <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B10" s="58" t="s">
@@ -1653,10 +1651,10 @@
       <c r="C10" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="129">
         <v>40959</v>
       </c>
-      <c r="F10" s="84"/>
+      <c r="F10" s="129"/>
     </row>
     <row r="11" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B11" s="60" t="s">
@@ -1763,11 +1761,11 @@
       <c r="D22" s="71">
         <v>41052</v>
       </c>
-      <c r="E22" s="168" t="s">
+      <c r="E22" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="169" t="s">
-        <v>86</v>
+      <c r="F22" s="121" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1796,8 +1794,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CC48" sqref="CC48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT43" sqref="AT43:AY43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1839,7 +1838,7 @@
     </row>
     <row r="3" spans="1:119" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="157"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="14"/>
@@ -1862,11 +1861,11 @@
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
-      <c r="AQ3" s="119"/>
-      <c r="AR3" s="119"/>
-      <c r="AS3" s="119"/>
-      <c r="AT3" s="119"/>
-      <c r="AU3" s="119"/>
+      <c r="AQ3" s="102"/>
+      <c r="AR3" s="102"/>
+      <c r="AS3" s="102"/>
+      <c r="AT3" s="102"/>
+      <c r="AU3" s="102"/>
       <c r="BK3" s="18"/>
       <c r="BL3" s="18"/>
       <c r="BM3" s="18"/>
@@ -1876,7 +1875,7 @@
     </row>
     <row r="4" spans="1:119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="158"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
       <c r="CO4" s="70"/>
@@ -1887,7 +1886,7 @@
       <c r="CT4" s="70"/>
     </row>
     <row r="5" spans="1:119" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="159"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="65"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -1947,114 +1946,114 @@
     <row r="6" spans="1:119" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="154" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
-      <c r="O6" s="154"/>
-      <c r="P6" s="154"/>
-      <c r="Q6" s="154"/>
-      <c r="R6" s="154"/>
-      <c r="S6" s="154"/>
-      <c r="T6" s="154"/>
-      <c r="U6" s="154"/>
-      <c r="V6" s="154"/>
-      <c r="W6" s="156" t="s">
-        <v>80</v>
-      </c>
-      <c r="X6" s="156"/>
-      <c r="Y6" s="156"/>
-      <c r="Z6" s="156"/>
-      <c r="AA6" s="156"/>
-      <c r="AB6" s="156"/>
-      <c r="AC6" s="156"/>
-      <c r="AD6" s="156"/>
-      <c r="AE6" s="156"/>
-      <c r="AF6" s="156"/>
-      <c r="AG6" s="156"/>
-      <c r="AH6" s="156"/>
-      <c r="AI6" s="155" t="s">
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="AJ6" s="155"/>
-      <c r="AK6" s="155"/>
-      <c r="AL6" s="155"/>
-      <c r="AM6" s="155"/>
-      <c r="AN6" s="155"/>
-      <c r="AO6" s="155"/>
-      <c r="AP6" s="155"/>
-      <c r="AQ6" s="155"/>
-      <c r="AR6" s="155"/>
-      <c r="AS6" s="155"/>
-      <c r="AT6" s="155"/>
-      <c r="AU6" s="155"/>
-      <c r="AV6" s="155"/>
-      <c r="AW6" s="155"/>
-      <c r="AX6" s="155"/>
-      <c r="AY6" s="155"/>
-      <c r="AZ6" s="155"/>
-      <c r="BA6" s="155"/>
-      <c r="BB6" s="155"/>
-      <c r="BC6" s="155"/>
-      <c r="BD6" s="155"/>
-      <c r="BE6" s="155"/>
-      <c r="BF6" s="155"/>
-      <c r="BG6" s="155"/>
-      <c r="BH6" s="155"/>
-      <c r="BI6" s="155"/>
-      <c r="BJ6" s="155"/>
-      <c r="BK6" s="155"/>
-      <c r="BL6" s="155"/>
-      <c r="BM6" s="155"/>
-      <c r="BN6" s="155"/>
-      <c r="BO6" s="155"/>
-      <c r="BP6" s="155"/>
-      <c r="BQ6" s="156" t="s">
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="157"/>
+      <c r="U6" s="157"/>
+      <c r="V6" s="157"/>
+      <c r="W6" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="BR6" s="156"/>
-      <c r="BS6" s="156"/>
-      <c r="BT6" s="156"/>
-      <c r="BU6" s="156"/>
-      <c r="BV6" s="156"/>
-      <c r="BW6" s="156"/>
-      <c r="BX6" s="156"/>
-      <c r="BY6" s="156"/>
-      <c r="BZ6" s="156"/>
-      <c r="CA6" s="156"/>
-      <c r="CB6" s="156"/>
-      <c r="CC6" s="156"/>
-      <c r="CD6" s="156"/>
-      <c r="CE6" s="156"/>
-      <c r="CF6" s="156"/>
-      <c r="CG6" s="156"/>
-      <c r="CH6" s="156"/>
-      <c r="CI6" s="155" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ6" s="155"/>
-      <c r="CK6" s="155"/>
-      <c r="CL6" s="155"/>
-      <c r="CM6" s="155"/>
-      <c r="CN6" s="155"/>
-      <c r="CO6" s="155"/>
-      <c r="CP6" s="155"/>
-      <c r="CQ6" s="155"/>
-      <c r="CR6" s="155"/>
-      <c r="CS6" s="155"/>
-      <c r="CT6" s="155"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="140" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ6" s="140"/>
+      <c r="AK6" s="140"/>
+      <c r="AL6" s="140"/>
+      <c r="AM6" s="140"/>
+      <c r="AN6" s="140"/>
+      <c r="AO6" s="140"/>
+      <c r="AP6" s="140"/>
+      <c r="AQ6" s="140"/>
+      <c r="AR6" s="140"/>
+      <c r="AS6" s="140"/>
+      <c r="AT6" s="140"/>
+      <c r="AU6" s="140"/>
+      <c r="AV6" s="140"/>
+      <c r="AW6" s="140"/>
+      <c r="AX6" s="140"/>
+      <c r="AY6" s="140"/>
+      <c r="AZ6" s="140"/>
+      <c r="BA6" s="140"/>
+      <c r="BB6" s="140"/>
+      <c r="BC6" s="140"/>
+      <c r="BD6" s="140"/>
+      <c r="BE6" s="140"/>
+      <c r="BF6" s="140"/>
+      <c r="BG6" s="140"/>
+      <c r="BH6" s="140"/>
+      <c r="BI6" s="140"/>
+      <c r="BJ6" s="140"/>
+      <c r="BK6" s="140"/>
+      <c r="BL6" s="140"/>
+      <c r="BM6" s="140"/>
+      <c r="BN6" s="140"/>
+      <c r="BO6" s="140"/>
+      <c r="BP6" s="140"/>
+      <c r="BQ6" s="158" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR6" s="158"/>
+      <c r="BS6" s="158"/>
+      <c r="BT6" s="158"/>
+      <c r="BU6" s="158"/>
+      <c r="BV6" s="158"/>
+      <c r="BW6" s="158"/>
+      <c r="BX6" s="158"/>
+      <c r="BY6" s="158"/>
+      <c r="BZ6" s="158"/>
+      <c r="CA6" s="158"/>
+      <c r="CB6" s="158"/>
+      <c r="CC6" s="158"/>
+      <c r="CD6" s="158"/>
+      <c r="CE6" s="158"/>
+      <c r="CF6" s="158"/>
+      <c r="CG6" s="158"/>
+      <c r="CH6" s="158"/>
+      <c r="CI6" s="140" t="s">
+        <v>83</v>
+      </c>
+      <c r="CJ6" s="140"/>
+      <c r="CK6" s="140"/>
+      <c r="CL6" s="140"/>
+      <c r="CM6" s="140"/>
+      <c r="CN6" s="140"/>
+      <c r="CO6" s="140"/>
+      <c r="CP6" s="140"/>
+      <c r="CQ6" s="140"/>
+      <c r="CR6" s="140"/>
+      <c r="CS6" s="140"/>
+      <c r="CT6" s="140"/>
       <c r="CU6" s="64"/>
       <c r="CV6" s="64"/>
       <c r="CW6" s="64"/>
@@ -2078,7 +2077,7 @@
       <c r="DO6" s="64"/>
     </row>
     <row r="7" spans="1:119" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="159"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="65"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -2103,8 +2102,8 @@
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
       <c r="X7" s="27"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
       <c r="AC7" s="27"/>
@@ -2127,7 +2126,7 @@
       <c r="BH7" s="67"/>
     </row>
     <row r="8" spans="1:119" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="159"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="65"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -2227,7 +2226,7 @@
       <c r="DH8" s="27"/>
     </row>
     <row r="9" spans="1:119" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="159"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="65"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2326,7 +2325,7 @@
       <c r="DH9" s="27"/>
     </row>
     <row r="10" spans="1:119" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="159"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="65"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -2345,7 +2344,7 @@
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
       <c r="S10" s="67"/>
-      <c r="T10" s="99"/>
+      <c r="T10" s="82"/>
       <c r="U10" s="67"/>
       <c r="V10" s="67"/>
       <c r="X10" s="27"/>
@@ -2370,12 +2369,12 @@
       <c r="AT10" s="27"/>
       <c r="AU10" s="27"/>
       <c r="AV10" s="27"/>
-      <c r="AW10" s="120" t="s">
+      <c r="AW10" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="AX10" s="120"/>
-      <c r="AY10" s="120"/>
-      <c r="AZ10" s="120"/>
+      <c r="AX10" s="166"/>
+      <c r="AY10" s="166"/>
+      <c r="AZ10" s="166"/>
       <c r="BA10" s="27"/>
       <c r="BB10" s="27"/>
       <c r="BD10" s="27"/>
@@ -2424,8 +2423,8 @@
       <c r="DH10" s="27"/>
     </row>
     <row r="11" spans="1:119" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="159" t="s">
-        <v>82</v>
+      <c r="A11" s="118" t="s">
+        <v>80</v>
       </c>
       <c r="B11" s="65"/>
       <c r="C11" s="25"/>
@@ -2445,14 +2444,14 @@
       <c r="Q11" s="26"/>
       <c r="T11" s="66"/>
       <c r="V11" s="27"/>
-      <c r="AA11" s="166" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB11" s="167"/>
-      <c r="AC11" s="167"/>
-      <c r="AD11" s="167"/>
-      <c r="AE11" s="167"/>
-      <c r="AF11" s="167"/>
+      <c r="AA11" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="139"/>
+      <c r="AF11" s="139"/>
       <c r="AH11" s="27"/>
       <c r="AI11" s="66"/>
       <c r="AJ11" s="66"/>
@@ -2465,16 +2464,16 @@
       <c r="AT11" s="27"/>
       <c r="AU11" s="66"/>
       <c r="AV11" s="66"/>
-      <c r="AW11" s="160" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX11" s="161"/>
-      <c r="AY11" s="161"/>
-      <c r="AZ11" s="161"/>
-      <c r="BA11" s="161"/>
-      <c r="BB11" s="161"/>
-      <c r="BC11" s="161"/>
-      <c r="BD11" s="161"/>
+      <c r="AW11" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX11" s="137"/>
+      <c r="AY11" s="137"/>
+      <c r="AZ11" s="137"/>
+      <c r="BA11" s="137"/>
+      <c r="BB11" s="137"/>
+      <c r="BC11" s="137"/>
+      <c r="BD11" s="137"/>
       <c r="BF11" s="27"/>
       <c r="BG11" s="27"/>
       <c r="BH11" s="27"/>
@@ -2497,34 +2496,34 @@
       <c r="CA11" s="27"/>
       <c r="CB11" s="27"/>
       <c r="CD11" s="27"/>
-      <c r="CE11" s="162" t="s">
-        <v>76</v>
-      </c>
-      <c r="CF11" s="163"/>
-      <c r="CG11" s="163"/>
-      <c r="CH11" s="163"/>
-      <c r="CI11" s="163"/>
-      <c r="CJ11" s="27"/>
-      <c r="CK11" s="27"/>
+      <c r="CE11" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF11" s="119"/>
+      <c r="CG11" s="119"/>
+      <c r="CH11" s="119"/>
+      <c r="CI11" s="119"/>
+      <c r="CJ11" s="119"/>
+      <c r="CK11" s="119"/>
       <c r="CL11" s="27"/>
       <c r="CP11" s="27"/>
       <c r="CQ11" s="27"/>
       <c r="CR11" s="164" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="CS11" s="165"/>
       <c r="CT11" s="165"/>
       <c r="CU11" s="165"/>
       <c r="CV11" s="165"/>
-      <c r="CW11" s="27"/>
-      <c r="CX11" s="27"/>
-      <c r="CY11" s="27"/>
-      <c r="CZ11" s="27"/>
-      <c r="DA11" s="27"/>
-      <c r="DB11" s="26"/>
-      <c r="DC11" s="27"/>
-      <c r="DD11" s="27"/>
-      <c r="DE11" s="27"/>
+      <c r="CW11" s="165"/>
+      <c r="CX11" s="165"/>
+      <c r="CY11" s="165"/>
+      <c r="CZ11" s="165"/>
+      <c r="DA11" s="165"/>
+      <c r="DB11" s="165"/>
+      <c r="DC11" s="165"/>
+      <c r="DD11" s="165"/>
+      <c r="DE11" s="165"/>
       <c r="DF11" s="27"/>
       <c r="DG11" s="27"/>
       <c r="DH11" s="27"/>
@@ -2549,8 +2548,8 @@
       <c r="R12" s="26"/>
       <c r="U12" s="27"/>
       <c r="V12" s="27"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
       <c r="AA12" s="27"/>
       <c r="AB12" s="27"/>
       <c r="AC12" s="27"/>
@@ -2560,8 +2559,8 @@
       <c r="AH12" s="27"/>
       <c r="AM12" s="27"/>
       <c r="AN12" s="27"/>
-      <c r="AO12" s="100"/>
-      <c r="AP12" s="100"/>
+      <c r="AO12" s="83"/>
+      <c r="AP12" s="83"/>
       <c r="AQ12" s="27"/>
       <c r="AR12" s="27"/>
       <c r="AT12" s="27"/>
@@ -2572,8 +2571,8 @@
       <c r="BA12" s="27"/>
       <c r="BB12" s="27"/>
       <c r="BD12" s="27"/>
-      <c r="BE12" s="100"/>
-      <c r="BF12" s="100"/>
+      <c r="BE12" s="83"/>
+      <c r="BF12" s="83"/>
       <c r="BG12" s="27"/>
       <c r="BH12" s="27"/>
       <c r="BI12" s="27"/>
@@ -2594,8 +2593,8 @@
       <c r="CB12" s="27"/>
       <c r="CD12" s="27"/>
       <c r="CE12" s="27"/>
-      <c r="CF12" s="100"/>
-      <c r="CG12" s="100"/>
+      <c r="CF12" s="83"/>
+      <c r="CG12" s="83"/>
       <c r="CH12" s="27"/>
       <c r="CI12" s="27"/>
       <c r="CJ12" s="27"/>
@@ -2603,8 +2602,8 @@
       <c r="CL12" s="27"/>
       <c r="CP12" s="27"/>
       <c r="CQ12" s="27"/>
-      <c r="CR12" s="100"/>
-      <c r="CS12" s="100"/>
+      <c r="CR12" s="83"/>
+      <c r="CS12" s="83"/>
       <c r="CT12" s="27"/>
       <c r="CU12" s="27"/>
       <c r="CV12" s="27"/>
@@ -2622,349 +2621,349 @@
       <c r="DH12" s="27"/>
     </row>
     <row r="13" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="87" t="s">
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="87" t="s">
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="87" t="s">
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="87" t="s">
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="88"/>
-      <c r="AE13" s="88"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="87" t="s">
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="134"/>
+      <c r="AD13" s="134"/>
+      <c r="AE13" s="134"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="AH13" s="88"/>
-      <c r="AI13" s="88"/>
-      <c r="AJ13" s="88"/>
-      <c r="AK13" s="88"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="87" t="s">
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="134"/>
+      <c r="AJ13" s="134"/>
+      <c r="AK13" s="134"/>
+      <c r="AL13" s="135"/>
+      <c r="AM13" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="AN13" s="88"/>
-      <c r="AO13" s="88"/>
-      <c r="AP13" s="88"/>
-      <c r="AQ13" s="88"/>
-      <c r="AR13" s="89"/>
-      <c r="AS13" s="87" t="s">
+      <c r="AN13" s="134"/>
+      <c r="AO13" s="134"/>
+      <c r="AP13" s="134"/>
+      <c r="AQ13" s="134"/>
+      <c r="AR13" s="135"/>
+      <c r="AS13" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AT13" s="88"/>
-      <c r="AU13" s="88"/>
-      <c r="AV13" s="88"/>
-      <c r="AW13" s="88"/>
-      <c r="AX13" s="89"/>
-      <c r="AY13" s="87" t="s">
+      <c r="AT13" s="134"/>
+      <c r="AU13" s="134"/>
+      <c r="AV13" s="134"/>
+      <c r="AW13" s="134"/>
+      <c r="AX13" s="135"/>
+      <c r="AY13" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="AZ13" s="88"/>
-      <c r="BA13" s="88"/>
-      <c r="BB13" s="88"/>
-      <c r="BC13" s="88"/>
-      <c r="BD13" s="89"/>
-      <c r="BE13" s="87" t="s">
+      <c r="AZ13" s="134"/>
+      <c r="BA13" s="134"/>
+      <c r="BB13" s="134"/>
+      <c r="BC13" s="134"/>
+      <c r="BD13" s="135"/>
+      <c r="BE13" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="BF13" s="88"/>
-      <c r="BG13" s="88"/>
-      <c r="BH13" s="88"/>
-      <c r="BI13" s="88"/>
-      <c r="BJ13" s="89"/>
-      <c r="BK13" s="87" t="s">
+      <c r="BF13" s="134"/>
+      <c r="BG13" s="134"/>
+      <c r="BH13" s="134"/>
+      <c r="BI13" s="134"/>
+      <c r="BJ13" s="135"/>
+      <c r="BK13" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="BL13" s="88"/>
-      <c r="BM13" s="88"/>
-      <c r="BN13" s="88"/>
-      <c r="BO13" s="88"/>
-      <c r="BP13" s="89"/>
-      <c r="BQ13" s="87" t="s">
+      <c r="BL13" s="134"/>
+      <c r="BM13" s="134"/>
+      <c r="BN13" s="134"/>
+      <c r="BO13" s="134"/>
+      <c r="BP13" s="135"/>
+      <c r="BQ13" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="BR13" s="88"/>
-      <c r="BS13" s="88"/>
-      <c r="BT13" s="88"/>
-      <c r="BU13" s="88"/>
-      <c r="BV13" s="89"/>
-      <c r="BW13" s="87" t="s">
+      <c r="BR13" s="134"/>
+      <c r="BS13" s="134"/>
+      <c r="BT13" s="134"/>
+      <c r="BU13" s="134"/>
+      <c r="BV13" s="135"/>
+      <c r="BW13" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="BX13" s="88"/>
-      <c r="BY13" s="88"/>
-      <c r="BZ13" s="88"/>
-      <c r="CA13" s="88"/>
-      <c r="CB13" s="89"/>
-      <c r="CC13" s="87" t="s">
+      <c r="BX13" s="134"/>
+      <c r="BY13" s="134"/>
+      <c r="BZ13" s="134"/>
+      <c r="CA13" s="134"/>
+      <c r="CB13" s="135"/>
+      <c r="CC13" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="CD13" s="88"/>
-      <c r="CE13" s="88"/>
-      <c r="CF13" s="88"/>
-      <c r="CG13" s="88"/>
-      <c r="CH13" s="89"/>
-      <c r="CI13" s="87" t="s">
+      <c r="CD13" s="134"/>
+      <c r="CE13" s="134"/>
+      <c r="CF13" s="134"/>
+      <c r="CG13" s="134"/>
+      <c r="CH13" s="135"/>
+      <c r="CI13" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="CJ13" s="88"/>
-      <c r="CK13" s="88"/>
-      <c r="CL13" s="88"/>
-      <c r="CM13" s="88"/>
-      <c r="CN13" s="89"/>
-      <c r="CO13" s="87" t="s">
+      <c r="CJ13" s="134"/>
+      <c r="CK13" s="134"/>
+      <c r="CL13" s="134"/>
+      <c r="CM13" s="134"/>
+      <c r="CN13" s="135"/>
+      <c r="CO13" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="CP13" s="88"/>
-      <c r="CQ13" s="88"/>
-      <c r="CR13" s="88"/>
-      <c r="CS13" s="88"/>
-      <c r="CT13" s="89"/>
-      <c r="CV13" s="104"/>
-      <c r="CW13" s="104"/>
-      <c r="CX13" s="104"/>
-      <c r="CY13" s="104"/>
-      <c r="CZ13" s="104"/>
-      <c r="DA13" s="104"/>
-      <c r="DB13" s="113"/>
-      <c r="DC13" s="104"/>
-      <c r="DD13" s="104"/>
-      <c r="DE13" s="104"/>
-      <c r="DF13" s="104"/>
-      <c r="DG13" s="104"/>
-      <c r="DH13" s="104"/>
+      <c r="CP13" s="134"/>
+      <c r="CQ13" s="134"/>
+      <c r="CR13" s="134"/>
+      <c r="CS13" s="134"/>
+      <c r="CT13" s="135"/>
+      <c r="CV13" s="87"/>
+      <c r="CW13" s="87"/>
+      <c r="CX13" s="87"/>
+      <c r="CY13" s="87"/>
+      <c r="CZ13" s="87"/>
+      <c r="DA13" s="87"/>
+      <c r="DB13" s="96"/>
+      <c r="DC13" s="87"/>
+      <c r="DD13" s="87"/>
+      <c r="DE13" s="87"/>
+      <c r="DF13" s="87"/>
+      <c r="DG13" s="87"/>
+      <c r="DH13" s="87"/>
     </row>
     <row r="14" spans="1:119" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="19"/>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
-      <c r="G14" s="96" t="s">
+      <c r="G14" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="97"/>
-      <c r="I14" s="92">
+      <c r="H14" s="147"/>
+      <c r="I14" s="148">
         <v>40959</v>
       </c>
-      <c r="J14" s="95"/>
+      <c r="J14" s="145"/>
       <c r="K14" s="75"/>
       <c r="L14" s="75"/>
-      <c r="M14" s="90">
+      <c r="M14" s="142">
         <f>SUM(I14+6)</f>
         <v>40965</v>
       </c>
-      <c r="N14" s="91"/>
-      <c r="O14" s="92">
+      <c r="N14" s="143"/>
+      <c r="O14" s="148">
         <f>SUM(M14+1)</f>
         <v>40966</v>
       </c>
-      <c r="P14" s="90"/>
+      <c r="P14" s="142"/>
       <c r="Q14" s="76"/>
       <c r="R14" s="76"/>
-      <c r="S14" s="90">
+      <c r="S14" s="142">
         <f>SUM(O14+6)</f>
         <v>40972</v>
       </c>
-      <c r="T14" s="91"/>
-      <c r="U14" s="92">
+      <c r="T14" s="143"/>
+      <c r="U14" s="148">
         <f>SUM(S14+1)</f>
         <v>40973</v>
       </c>
-      <c r="V14" s="90"/>
+      <c r="V14" s="142"/>
       <c r="W14" s="76"/>
       <c r="X14" s="76"/>
-      <c r="Y14" s="90">
+      <c r="Y14" s="142">
         <f>SUM(U14+6)</f>
         <v>40979</v>
       </c>
-      <c r="Z14" s="91"/>
-      <c r="AA14" s="92">
+      <c r="Z14" s="143"/>
+      <c r="AA14" s="148">
         <f>SUM(Y14+1)</f>
         <v>40980</v>
       </c>
-      <c r="AB14" s="90"/>
+      <c r="AB14" s="142"/>
       <c r="AC14" s="76"/>
       <c r="AD14" s="76"/>
-      <c r="AE14" s="90">
+      <c r="AE14" s="142">
         <f>SUM(AA14+6)</f>
         <v>40986</v>
       </c>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="92">
+      <c r="AF14" s="143"/>
+      <c r="AG14" s="148">
         <f>SUM(AE14+1)</f>
         <v>40987</v>
       </c>
-      <c r="AH14" s="90"/>
+      <c r="AH14" s="142"/>
       <c r="AI14" s="76"/>
       <c r="AJ14" s="76"/>
-      <c r="AK14" s="90">
+      <c r="AK14" s="142">
         <f>SUM(AG14+6)</f>
         <v>40993</v>
       </c>
-      <c r="AL14" s="91"/>
-      <c r="AM14" s="92">
+      <c r="AL14" s="143"/>
+      <c r="AM14" s="148">
         <f>SUM(AK14+1)</f>
         <v>40994</v>
       </c>
-      <c r="AN14" s="90"/>
+      <c r="AN14" s="142"/>
       <c r="AO14" s="76"/>
       <c r="AP14" s="76"/>
-      <c r="AQ14" s="90">
+      <c r="AQ14" s="142">
         <f>SUM(AM14+6)</f>
         <v>41000</v>
       </c>
-      <c r="AR14" s="91"/>
-      <c r="AS14" s="92">
+      <c r="AR14" s="143"/>
+      <c r="AS14" s="148">
         <f>SUM(AQ14+1)</f>
         <v>41001</v>
       </c>
-      <c r="AT14" s="90"/>
+      <c r="AT14" s="142"/>
       <c r="AU14" s="76"/>
       <c r="AV14" s="76"/>
-      <c r="AW14" s="90">
+      <c r="AW14" s="142">
         <f>SUM(AS14+6)</f>
         <v>41007</v>
       </c>
-      <c r="AX14" s="91"/>
-      <c r="AY14" s="92">
+      <c r="AX14" s="143"/>
+      <c r="AY14" s="148">
         <f>SUM(AW14+1)</f>
         <v>41008</v>
       </c>
-      <c r="AZ14" s="90"/>
+      <c r="AZ14" s="142"/>
       <c r="BA14" s="76"/>
       <c r="BB14" s="76"/>
-      <c r="BC14" s="90">
+      <c r="BC14" s="142">
         <f>SUM(AY14+6)</f>
         <v>41014</v>
       </c>
-      <c r="BD14" s="91"/>
-      <c r="BE14" s="92">
+      <c r="BD14" s="143"/>
+      <c r="BE14" s="148">
         <f>SUM(BC14+1)</f>
         <v>41015</v>
       </c>
-      <c r="BF14" s="90"/>
+      <c r="BF14" s="142"/>
       <c r="BG14" s="76"/>
       <c r="BH14" s="76"/>
-      <c r="BI14" s="90">
+      <c r="BI14" s="142">
         <f>SUM(BE14+6)</f>
         <v>41021</v>
       </c>
-      <c r="BJ14" s="91"/>
-      <c r="BK14" s="92">
+      <c r="BJ14" s="143"/>
+      <c r="BK14" s="148">
         <f>SUM(BI14+1)</f>
         <v>41022</v>
       </c>
-      <c r="BL14" s="90"/>
+      <c r="BL14" s="142"/>
       <c r="BM14" s="76"/>
       <c r="BN14" s="76"/>
-      <c r="BO14" s="90">
+      <c r="BO14" s="142">
         <f>SUM(BK14+6)</f>
         <v>41028</v>
       </c>
-      <c r="BP14" s="91"/>
-      <c r="BQ14" s="92">
+      <c r="BP14" s="143"/>
+      <c r="BQ14" s="148">
         <f>SUM(BO14+1)</f>
         <v>41029</v>
       </c>
-      <c r="BR14" s="90"/>
+      <c r="BR14" s="142"/>
       <c r="BS14" s="76"/>
       <c r="BT14" s="76"/>
-      <c r="BU14" s="90">
+      <c r="BU14" s="142">
         <f>SUM(BQ14+6)</f>
         <v>41035</v>
       </c>
-      <c r="BV14" s="91"/>
-      <c r="BW14" s="92">
+      <c r="BV14" s="143"/>
+      <c r="BW14" s="148">
         <f>SUM(BU14+1)</f>
         <v>41036</v>
       </c>
-      <c r="BX14" s="90"/>
+      <c r="BX14" s="142"/>
       <c r="BY14" s="76"/>
       <c r="BZ14" s="76"/>
-      <c r="CA14" s="90">
+      <c r="CA14" s="142">
         <f>SUM(BW14+6)</f>
         <v>41042</v>
       </c>
-      <c r="CB14" s="91"/>
-      <c r="CC14" s="92">
+      <c r="CB14" s="143"/>
+      <c r="CC14" s="148">
         <f>SUM(CA14+1)</f>
         <v>41043</v>
       </c>
-      <c r="CD14" s="90"/>
+      <c r="CD14" s="142"/>
       <c r="CE14" s="76"/>
       <c r="CF14" s="76"/>
-      <c r="CG14" s="90">
+      <c r="CG14" s="142">
         <f>SUM(CC14+6)</f>
         <v>41049</v>
       </c>
-      <c r="CH14" s="91"/>
-      <c r="CI14" s="92">
+      <c r="CH14" s="143"/>
+      <c r="CI14" s="148">
         <f>SUM(CG14+1)</f>
         <v>41050</v>
       </c>
-      <c r="CJ14" s="90"/>
+      <c r="CJ14" s="142"/>
       <c r="CK14" s="76"/>
       <c r="CL14" s="76"/>
-      <c r="CM14" s="90">
+      <c r="CM14" s="142">
         <f>SUM(CI14+6)</f>
         <v>41056</v>
       </c>
-      <c r="CN14" s="91"/>
-      <c r="CO14" s="92">
+      <c r="CN14" s="143"/>
+      <c r="CO14" s="148">
         <f>SUM(CM14+1)</f>
         <v>41057</v>
       </c>
-      <c r="CP14" s="90"/>
+      <c r="CP14" s="142"/>
       <c r="CQ14" s="76"/>
       <c r="CR14" s="76"/>
-      <c r="CS14" s="90">
+      <c r="CS14" s="142">
         <f>SUM(CO14+6)</f>
         <v>41063</v>
       </c>
-      <c r="CT14" s="91"/>
+      <c r="CT14" s="143"/>
       <c r="CV14" s="66"/>
       <c r="CW14" s="66"/>
       <c r="CX14" s="74"/>
       <c r="CY14" s="74"/>
       <c r="CZ14" s="66"/>
       <c r="DA14" s="66"/>
-      <c r="DB14" s="114"/>
+      <c r="DB14" s="97"/>
       <c r="DC14" s="66"/>
       <c r="DD14" s="66"/>
       <c r="DE14" s="74"/>
@@ -2975,115 +2974,115 @@
     <row r="15" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="102"/>
-      <c r="AI15" s="102"/>
-      <c r="AJ15" s="102"/>
-      <c r="AK15" s="102"/>
-      <c r="AL15" s="103"/>
-      <c r="AM15" s="101"/>
-      <c r="AN15" s="102"/>
-      <c r="AO15" s="102"/>
-      <c r="AP15" s="102"/>
-      <c r="AQ15" s="102"/>
-      <c r="AR15" s="103"/>
-      <c r="AS15" s="101"/>
-      <c r="AT15" s="102"/>
-      <c r="AU15" s="102"/>
-      <c r="AV15" s="102"/>
-      <c r="AW15" s="102"/>
-      <c r="AX15" s="103"/>
-      <c r="AY15" s="101"/>
-      <c r="AZ15" s="102"/>
-      <c r="BA15" s="102"/>
-      <c r="BB15" s="102"/>
-      <c r="BC15" s="102"/>
-      <c r="BD15" s="103"/>
-      <c r="BE15" s="101"/>
-      <c r="BF15" s="102"/>
-      <c r="BG15" s="102"/>
-      <c r="BH15" s="102"/>
-      <c r="BI15" s="102"/>
-      <c r="BJ15" s="103"/>
-      <c r="BK15" s="101"/>
-      <c r="BL15" s="102"/>
-      <c r="BM15" s="102"/>
-      <c r="BN15" s="102"/>
-      <c r="BO15" s="102"/>
-      <c r="BP15" s="103"/>
-      <c r="BQ15" s="101"/>
-      <c r="BR15" s="102"/>
-      <c r="BS15" s="102"/>
-      <c r="BT15" s="102"/>
-      <c r="BU15" s="102"/>
-      <c r="BV15" s="103"/>
-      <c r="BW15" s="101"/>
-      <c r="BX15" s="102"/>
-      <c r="BY15" s="102"/>
-      <c r="BZ15" s="102"/>
-      <c r="CA15" s="102"/>
-      <c r="CB15" s="103"/>
-      <c r="CC15" s="101"/>
-      <c r="CD15" s="102"/>
-      <c r="CE15" s="102"/>
-      <c r="CF15" s="102"/>
-      <c r="CG15" s="102"/>
-      <c r="CH15" s="103"/>
-      <c r="CI15" s="101"/>
-      <c r="CJ15" s="102"/>
-      <c r="CK15" s="102"/>
-      <c r="CL15" s="102"/>
-      <c r="CM15" s="102"/>
-      <c r="CN15" s="103"/>
-      <c r="CO15" s="101"/>
-      <c r="CP15" s="102"/>
-      <c r="CQ15" s="102"/>
-      <c r="CR15" s="102"/>
-      <c r="CS15" s="102"/>
-      <c r="CT15" s="103"/>
-      <c r="CV15" s="104"/>
-      <c r="CW15" s="104"/>
-      <c r="CX15" s="104"/>
-      <c r="CY15" s="104"/>
-      <c r="CZ15" s="104"/>
-      <c r="DA15" s="104"/>
-      <c r="DB15" s="115"/>
-      <c r="DC15" s="104"/>
-      <c r="DD15" s="104"/>
-      <c r="DE15" s="104"/>
-      <c r="DF15" s="104"/>
-      <c r="DG15" s="104"/>
-      <c r="DH15" s="104"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="85"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="85"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="85"/>
+      <c r="AL15" s="86"/>
+      <c r="AM15" s="84"/>
+      <c r="AN15" s="85"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="85"/>
+      <c r="AQ15" s="85"/>
+      <c r="AR15" s="86"/>
+      <c r="AS15" s="84"/>
+      <c r="AT15" s="85"/>
+      <c r="AU15" s="85"/>
+      <c r="AV15" s="85"/>
+      <c r="AW15" s="85"/>
+      <c r="AX15" s="86"/>
+      <c r="AY15" s="84"/>
+      <c r="AZ15" s="85"/>
+      <c r="BA15" s="85"/>
+      <c r="BB15" s="85"/>
+      <c r="BC15" s="85"/>
+      <c r="BD15" s="86"/>
+      <c r="BE15" s="84"/>
+      <c r="BF15" s="85"/>
+      <c r="BG15" s="85"/>
+      <c r="BH15" s="85"/>
+      <c r="BI15" s="85"/>
+      <c r="BJ15" s="86"/>
+      <c r="BK15" s="84"/>
+      <c r="BL15" s="85"/>
+      <c r="BM15" s="85"/>
+      <c r="BN15" s="85"/>
+      <c r="BO15" s="85"/>
+      <c r="BP15" s="86"/>
+      <c r="BQ15" s="84"/>
+      <c r="BR15" s="85"/>
+      <c r="BS15" s="85"/>
+      <c r="BT15" s="85"/>
+      <c r="BU15" s="85"/>
+      <c r="BV15" s="86"/>
+      <c r="BW15" s="84"/>
+      <c r="BX15" s="85"/>
+      <c r="BY15" s="85"/>
+      <c r="BZ15" s="85"/>
+      <c r="CA15" s="85"/>
+      <c r="CB15" s="86"/>
+      <c r="CC15" s="84"/>
+      <c r="CD15" s="85"/>
+      <c r="CE15" s="85"/>
+      <c r="CF15" s="85"/>
+      <c r="CG15" s="85"/>
+      <c r="CH15" s="86"/>
+      <c r="CI15" s="84"/>
+      <c r="CJ15" s="85"/>
+      <c r="CK15" s="85"/>
+      <c r="CL15" s="85"/>
+      <c r="CM15" s="85"/>
+      <c r="CN15" s="86"/>
+      <c r="CO15" s="84"/>
+      <c r="CP15" s="85"/>
+      <c r="CQ15" s="85"/>
+      <c r="CR15" s="85"/>
+      <c r="CS15" s="85"/>
+      <c r="CT15" s="86"/>
+      <c r="CV15" s="87"/>
+      <c r="CW15" s="87"/>
+      <c r="CX15" s="87"/>
+      <c r="CY15" s="87"/>
+      <c r="CZ15" s="87"/>
+      <c r="DA15" s="87"/>
+      <c r="DB15" s="98"/>
+      <c r="DC15" s="87"/>
+      <c r="DD15" s="87"/>
+      <c r="DE15" s="87"/>
+      <c r="DF15" s="87"/>
+      <c r="DG15" s="87"/>
+      <c r="DH15" s="87"/>
     </row>
     <row r="16" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -3184,19 +3183,19 @@
       <c r="CR16" s="77"/>
       <c r="CS16" s="77"/>
       <c r="CT16" s="78"/>
-      <c r="CV16" s="105"/>
-      <c r="CW16" s="105"/>
-      <c r="CX16" s="105"/>
-      <c r="CY16" s="105"/>
-      <c r="CZ16" s="105"/>
-      <c r="DA16" s="105"/>
-      <c r="DB16" s="115"/>
-      <c r="DC16" s="105"/>
-      <c r="DD16" s="105"/>
-      <c r="DE16" s="105"/>
-      <c r="DF16" s="105"/>
-      <c r="DG16" s="105"/>
-      <c r="DH16" s="105"/>
+      <c r="CV16" s="88"/>
+      <c r="CW16" s="88"/>
+      <c r="CX16" s="88"/>
+      <c r="CY16" s="88"/>
+      <c r="CZ16" s="88"/>
+      <c r="DA16" s="88"/>
+      <c r="DB16" s="98"/>
+      <c r="DC16" s="88"/>
+      <c r="DD16" s="88"/>
+      <c r="DE16" s="88"/>
+      <c r="DF16" s="88"/>
+      <c r="DG16" s="88"/>
+      <c r="DH16" s="88"/>
     </row>
     <row r="17" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -3299,144 +3298,144 @@
       <c r="CR17" s="23"/>
       <c r="CS17" s="77"/>
       <c r="CT17" s="24"/>
-      <c r="CV17" s="105"/>
-      <c r="CW17" s="106"/>
-      <c r="CX17" s="105"/>
-      <c r="CY17" s="106"/>
-      <c r="CZ17" s="105"/>
-      <c r="DA17" s="106"/>
-      <c r="DB17" s="115"/>
-      <c r="DC17" s="105"/>
-      <c r="DD17" s="106"/>
-      <c r="DE17" s="105"/>
-      <c r="DF17" s="106"/>
-      <c r="DG17" s="105"/>
-      <c r="DH17" s="106"/>
+      <c r="CV17" s="88"/>
+      <c r="CW17" s="89"/>
+      <c r="CX17" s="88"/>
+      <c r="CY17" s="89"/>
+      <c r="CZ17" s="88"/>
+      <c r="DA17" s="89"/>
+      <c r="DB17" s="98"/>
+      <c r="DC17" s="88"/>
+      <c r="DD17" s="89"/>
+      <c r="DE17" s="88"/>
+      <c r="DF17" s="89"/>
+      <c r="DG17" s="88"/>
+      <c r="DH17" s="89"/>
     </row>
     <row r="18" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="51"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="109"/>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="109"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="108"/>
-      <c r="AC18" s="109"/>
-      <c r="AD18" s="108"/>
-      <c r="AE18" s="109"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="109"/>
-      <c r="AJ18" s="108"/>
-      <c r="AK18" s="109"/>
-      <c r="AL18" s="110"/>
-      <c r="AM18" s="107"/>
-      <c r="AN18" s="108"/>
-      <c r="AO18" s="109"/>
-      <c r="AP18" s="108"/>
-      <c r="AQ18" s="109"/>
-      <c r="AR18" s="110"/>
-      <c r="AS18" s="107"/>
-      <c r="AT18" s="108"/>
-      <c r="AU18" s="109"/>
-      <c r="AV18" s="108"/>
-      <c r="AW18" s="109"/>
-      <c r="AX18" s="110"/>
-      <c r="AY18" s="107"/>
-      <c r="AZ18" s="108"/>
-      <c r="BA18" s="109"/>
-      <c r="BB18" s="108"/>
-      <c r="BC18" s="109"/>
-      <c r="BD18" s="110"/>
-      <c r="BE18" s="107"/>
-      <c r="BF18" s="108"/>
-      <c r="BG18" s="109"/>
-      <c r="BH18" s="108"/>
-      <c r="BI18" s="109"/>
-      <c r="BJ18" s="110"/>
-      <c r="BK18" s="107"/>
-      <c r="BL18" s="108"/>
-      <c r="BM18" s="109"/>
-      <c r="BN18" s="108"/>
-      <c r="BO18" s="109"/>
-      <c r="BP18" s="110"/>
-      <c r="BQ18" s="107"/>
-      <c r="BR18" s="108"/>
-      <c r="BS18" s="109"/>
-      <c r="BT18" s="108"/>
-      <c r="BU18" s="109"/>
-      <c r="BV18" s="110"/>
-      <c r="BW18" s="107"/>
-      <c r="BX18" s="108"/>
-      <c r="BY18" s="109"/>
-      <c r="BZ18" s="108"/>
-      <c r="CA18" s="109"/>
-      <c r="CB18" s="110"/>
-      <c r="CC18" s="107"/>
-      <c r="CD18" s="108"/>
-      <c r="CE18" s="109"/>
-      <c r="CF18" s="108"/>
-      <c r="CG18" s="109"/>
-      <c r="CH18" s="110"/>
-      <c r="CI18" s="107"/>
-      <c r="CJ18" s="108"/>
-      <c r="CK18" s="109"/>
-      <c r="CL18" s="108"/>
-      <c r="CM18" s="109"/>
-      <c r="CN18" s="110"/>
-      <c r="CO18" s="107"/>
-      <c r="CP18" s="108"/>
-      <c r="CQ18" s="109"/>
-      <c r="CR18" s="108"/>
-      <c r="CS18" s="109"/>
-      <c r="CT18" s="110"/>
-      <c r="CV18" s="109"/>
-      <c r="CW18" s="108"/>
-      <c r="CX18" s="109"/>
-      <c r="CY18" s="108"/>
-      <c r="CZ18" s="109"/>
-      <c r="DA18" s="108"/>
-      <c r="DB18" s="113"/>
-      <c r="DC18" s="109"/>
-      <c r="DD18" s="108"/>
-      <c r="DE18" s="109"/>
-      <c r="DF18" s="108"/>
-      <c r="DG18" s="109"/>
-      <c r="DH18" s="108"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="91"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="91"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="91"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="90"/>
+      <c r="AN18" s="91"/>
+      <c r="AO18" s="92"/>
+      <c r="AP18" s="91"/>
+      <c r="AQ18" s="92"/>
+      <c r="AR18" s="93"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="91"/>
+      <c r="AU18" s="92"/>
+      <c r="AV18" s="91"/>
+      <c r="AW18" s="92"/>
+      <c r="AX18" s="93"/>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="91"/>
+      <c r="BA18" s="92"/>
+      <c r="BB18" s="91"/>
+      <c r="BC18" s="92"/>
+      <c r="BD18" s="93"/>
+      <c r="BE18" s="90"/>
+      <c r="BF18" s="91"/>
+      <c r="BG18" s="92"/>
+      <c r="BH18" s="91"/>
+      <c r="BI18" s="92"/>
+      <c r="BJ18" s="93"/>
+      <c r="BK18" s="90"/>
+      <c r="BL18" s="91"/>
+      <c r="BM18" s="92"/>
+      <c r="BN18" s="91"/>
+      <c r="BO18" s="92"/>
+      <c r="BP18" s="93"/>
+      <c r="BQ18" s="90"/>
+      <c r="BR18" s="91"/>
+      <c r="BS18" s="92"/>
+      <c r="BT18" s="91"/>
+      <c r="BU18" s="92"/>
+      <c r="BV18" s="93"/>
+      <c r="BW18" s="90"/>
+      <c r="BX18" s="91"/>
+      <c r="BY18" s="92"/>
+      <c r="BZ18" s="91"/>
+      <c r="CA18" s="92"/>
+      <c r="CB18" s="93"/>
+      <c r="CC18" s="90"/>
+      <c r="CD18" s="91"/>
+      <c r="CE18" s="92"/>
+      <c r="CF18" s="91"/>
+      <c r="CG18" s="92"/>
+      <c r="CH18" s="93"/>
+      <c r="CI18" s="90"/>
+      <c r="CJ18" s="91"/>
+      <c r="CK18" s="92"/>
+      <c r="CL18" s="91"/>
+      <c r="CM18" s="92"/>
+      <c r="CN18" s="93"/>
+      <c r="CO18" s="90"/>
+      <c r="CP18" s="91"/>
+      <c r="CQ18" s="92"/>
+      <c r="CR18" s="91"/>
+      <c r="CS18" s="92"/>
+      <c r="CT18" s="93"/>
+      <c r="CV18" s="92"/>
+      <c r="CW18" s="91"/>
+      <c r="CX18" s="92"/>
+      <c r="CY18" s="91"/>
+      <c r="CZ18" s="92"/>
+      <c r="DA18" s="91"/>
+      <c r="DB18" s="96"/>
+      <c r="DC18" s="92"/>
+      <c r="DD18" s="91"/>
+      <c r="DE18" s="92"/>
+      <c r="DF18" s="91"/>
+      <c r="DG18" s="92"/>
+      <c r="DH18" s="91"/>
     </row>
     <row r="19" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="52"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="128"/>
+      <c r="F19" s="107"/>
       <c r="G19" s="30"/>
       <c r="H19" s="31"/>
       <c r="I19" s="28"/>
@@ -3530,39 +3529,39 @@
       <c r="CS19" s="30"/>
       <c r="CT19" s="31"/>
       <c r="CU19" s="32"/>
-      <c r="CV19" s="112"/>
-      <c r="CW19" s="111"/>
-      <c r="CX19" s="112"/>
-      <c r="CY19" s="111"/>
-      <c r="CZ19" s="112"/>
-      <c r="DA19" s="111"/>
-      <c r="DB19" s="116"/>
-      <c r="DC19" s="112"/>
-      <c r="DD19" s="111"/>
-      <c r="DE19" s="112"/>
-      <c r="DF19" s="111"/>
-      <c r="DG19" s="112"/>
-      <c r="DH19" s="111"/>
+      <c r="CV19" s="95"/>
+      <c r="CW19" s="94"/>
+      <c r="CX19" s="95"/>
+      <c r="CY19" s="94"/>
+      <c r="CZ19" s="95"/>
+      <c r="DA19" s="94"/>
+      <c r="DB19" s="99"/>
+      <c r="DC19" s="95"/>
+      <c r="DD19" s="94"/>
+      <c r="DE19" s="95"/>
+      <c r="DF19" s="94"/>
+      <c r="DG19" s="95"/>
+      <c r="DH19" s="94"/>
     </row>
     <row r="20" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
       <c r="Q20" s="29"/>
       <c r="R20" s="29"/>
       <c r="S20" s="30"/>
@@ -3646,19 +3645,19 @@
       <c r="CS20" s="30"/>
       <c r="CT20" s="31"/>
       <c r="CU20" s="32"/>
-      <c r="CV20" s="112"/>
-      <c r="CW20" s="111"/>
-      <c r="CX20" s="112"/>
-      <c r="CY20" s="111"/>
-      <c r="CZ20" s="112"/>
-      <c r="DA20" s="111"/>
-      <c r="DB20" s="116"/>
-      <c r="DC20" s="112"/>
-      <c r="DD20" s="111"/>
-      <c r="DE20" s="112"/>
-      <c r="DF20" s="111"/>
-      <c r="DG20" s="112"/>
-      <c r="DH20" s="111"/>
+      <c r="CV20" s="95"/>
+      <c r="CW20" s="94"/>
+      <c r="CX20" s="95"/>
+      <c r="CY20" s="94"/>
+      <c r="CZ20" s="95"/>
+      <c r="DA20" s="94"/>
+      <c r="DB20" s="99"/>
+      <c r="DC20" s="95"/>
+      <c r="DD20" s="94"/>
+      <c r="DE20" s="95"/>
+      <c r="DF20" s="94"/>
+      <c r="DG20" s="95"/>
+      <c r="DH20" s="94"/>
     </row>
     <row r="21" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
@@ -3760,138 +3759,138 @@
       <c r="CS21" s="30"/>
       <c r="CT21" s="31"/>
       <c r="CU21" s="32"/>
-      <c r="CV21" s="112"/>
-      <c r="CW21" s="111"/>
-      <c r="CX21" s="112"/>
-      <c r="CY21" s="111"/>
-      <c r="CZ21" s="112"/>
-      <c r="DA21" s="111"/>
-      <c r="DB21" s="116"/>
-      <c r="DC21" s="112"/>
-      <c r="DD21" s="111"/>
-      <c r="DE21" s="112"/>
-      <c r="DF21" s="111"/>
-      <c r="DG21" s="112"/>
-      <c r="DH21" s="111"/>
+      <c r="CV21" s="95"/>
+      <c r="CW21" s="94"/>
+      <c r="CX21" s="95"/>
+      <c r="CY21" s="94"/>
+      <c r="CZ21" s="95"/>
+      <c r="DA21" s="94"/>
+      <c r="DB21" s="99"/>
+      <c r="DC21" s="95"/>
+      <c r="DD21" s="94"/>
+      <c r="DE21" s="95"/>
+      <c r="DF21" s="94"/>
+      <c r="DG21" s="95"/>
+      <c r="DH21" s="94"/>
     </row>
     <row r="22" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="51"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="108"/>
-      <c r="W22" s="109"/>
-      <c r="X22" s="108"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="107"/>
-      <c r="AB22" s="108"/>
-      <c r="AC22" s="109"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="109"/>
-      <c r="AF22" s="110"/>
-      <c r="AG22" s="107"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="109"/>
-      <c r="AJ22" s="108"/>
-      <c r="AK22" s="109"/>
-      <c r="AL22" s="110"/>
-      <c r="AM22" s="107"/>
-      <c r="AN22" s="108"/>
-      <c r="AO22" s="109"/>
-      <c r="AP22" s="108"/>
-      <c r="AQ22" s="109"/>
-      <c r="AR22" s="110"/>
-      <c r="AS22" s="107"/>
-      <c r="AT22" s="108"/>
-      <c r="AU22" s="109"/>
-      <c r="AV22" s="108"/>
-      <c r="AW22" s="109"/>
-      <c r="AX22" s="110"/>
-      <c r="AY22" s="107"/>
-      <c r="AZ22" s="108"/>
-      <c r="BA22" s="109"/>
-      <c r="BB22" s="108"/>
-      <c r="BC22" s="109"/>
-      <c r="BD22" s="110"/>
-      <c r="BE22" s="107"/>
-      <c r="BF22" s="108"/>
-      <c r="BG22" s="109"/>
-      <c r="BH22" s="108"/>
-      <c r="BI22" s="109"/>
-      <c r="BJ22" s="110"/>
-      <c r="BK22" s="107"/>
-      <c r="BL22" s="108"/>
-      <c r="BM22" s="109"/>
-      <c r="BN22" s="108"/>
-      <c r="BO22" s="109"/>
-      <c r="BP22" s="110"/>
-      <c r="BQ22" s="107"/>
-      <c r="BR22" s="108"/>
-      <c r="BS22" s="109"/>
-      <c r="BT22" s="108"/>
-      <c r="BU22" s="109"/>
-      <c r="BV22" s="110"/>
-      <c r="BW22" s="107"/>
-      <c r="BX22" s="108"/>
-      <c r="BY22" s="109"/>
-      <c r="BZ22" s="108"/>
-      <c r="CA22" s="109"/>
-      <c r="CB22" s="110"/>
-      <c r="CC22" s="107"/>
-      <c r="CD22" s="108"/>
-      <c r="CE22" s="109"/>
-      <c r="CF22" s="108"/>
-      <c r="CG22" s="109"/>
-      <c r="CH22" s="110"/>
-      <c r="CI22" s="107"/>
-      <c r="CJ22" s="108"/>
-      <c r="CK22" s="109"/>
-      <c r="CL22" s="108"/>
-      <c r="CM22" s="109"/>
-      <c r="CN22" s="110"/>
-      <c r="CO22" s="107"/>
-      <c r="CP22" s="108"/>
-      <c r="CQ22" s="109"/>
-      <c r="CR22" s="108"/>
-      <c r="CS22" s="109"/>
-      <c r="CT22" s="110"/>
-      <c r="CV22" s="109"/>
-      <c r="CW22" s="108"/>
-      <c r="CX22" s="109"/>
-      <c r="CY22" s="108"/>
-      <c r="CZ22" s="109"/>
-      <c r="DA22" s="108"/>
-      <c r="DB22" s="113"/>
-      <c r="DC22" s="109"/>
-      <c r="DD22" s="108"/>
-      <c r="DE22" s="109"/>
-      <c r="DF22" s="108"/>
-      <c r="DG22" s="109"/>
-      <c r="DH22" s="108"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="91"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="91"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="91"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="91"/>
+      <c r="AK22" s="92"/>
+      <c r="AL22" s="93"/>
+      <c r="AM22" s="90"/>
+      <c r="AN22" s="91"/>
+      <c r="AO22" s="92"/>
+      <c r="AP22" s="91"/>
+      <c r="AQ22" s="92"/>
+      <c r="AR22" s="93"/>
+      <c r="AS22" s="90"/>
+      <c r="AT22" s="91"/>
+      <c r="AU22" s="92"/>
+      <c r="AV22" s="91"/>
+      <c r="AW22" s="92"/>
+      <c r="AX22" s="93"/>
+      <c r="AY22" s="90"/>
+      <c r="AZ22" s="91"/>
+      <c r="BA22" s="92"/>
+      <c r="BB22" s="91"/>
+      <c r="BC22" s="92"/>
+      <c r="BD22" s="93"/>
+      <c r="BE22" s="90"/>
+      <c r="BF22" s="91"/>
+      <c r="BG22" s="92"/>
+      <c r="BH22" s="91"/>
+      <c r="BI22" s="92"/>
+      <c r="BJ22" s="93"/>
+      <c r="BK22" s="90"/>
+      <c r="BL22" s="91"/>
+      <c r="BM22" s="92"/>
+      <c r="BN22" s="91"/>
+      <c r="BO22" s="92"/>
+      <c r="BP22" s="93"/>
+      <c r="BQ22" s="90"/>
+      <c r="BR22" s="91"/>
+      <c r="BS22" s="92"/>
+      <c r="BT22" s="91"/>
+      <c r="BU22" s="92"/>
+      <c r="BV22" s="93"/>
+      <c r="BW22" s="90"/>
+      <c r="BX22" s="91"/>
+      <c r="BY22" s="92"/>
+      <c r="BZ22" s="91"/>
+      <c r="CA22" s="92"/>
+      <c r="CB22" s="93"/>
+      <c r="CC22" s="90"/>
+      <c r="CD22" s="91"/>
+      <c r="CE22" s="92"/>
+      <c r="CF22" s="91"/>
+      <c r="CG22" s="92"/>
+      <c r="CH22" s="93"/>
+      <c r="CI22" s="90"/>
+      <c r="CJ22" s="91"/>
+      <c r="CK22" s="92"/>
+      <c r="CL22" s="91"/>
+      <c r="CM22" s="92"/>
+      <c r="CN22" s="93"/>
+      <c r="CO22" s="90"/>
+      <c r="CP22" s="91"/>
+      <c r="CQ22" s="92"/>
+      <c r="CR22" s="91"/>
+      <c r="CS22" s="92"/>
+      <c r="CT22" s="93"/>
+      <c r="CV22" s="92"/>
+      <c r="CW22" s="91"/>
+      <c r="CX22" s="92"/>
+      <c r="CY22" s="91"/>
+      <c r="CZ22" s="92"/>
+      <c r="DA22" s="91"/>
+      <c r="DB22" s="96"/>
+      <c r="DC22" s="92"/>
+      <c r="DD22" s="91"/>
+      <c r="DE22" s="92"/>
+      <c r="DF22" s="91"/>
+      <c r="DG22" s="92"/>
+      <c r="DH22" s="91"/>
     </row>
     <row r="23" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="52"/>
       <c r="C23" s="28"/>
@@ -3908,15 +3907,15 @@
       <c r="N23" s="31"/>
       <c r="O23" s="28"/>
       <c r="P23" s="29"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="131"/>
-      <c r="V23" s="131"/>
-      <c r="W23" s="131"/>
-      <c r="X23" s="131"/>
-      <c r="Y23" s="131"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="150"/>
+      <c r="S23" s="150"/>
+      <c r="T23" s="150"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="150"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="150"/>
+      <c r="Y23" s="150"/>
       <c r="Z23" s="31"/>
       <c r="AA23" s="28"/>
       <c r="AB23" s="29"/>
@@ -3991,19 +3990,19 @@
       <c r="CS23" s="30"/>
       <c r="CT23" s="31"/>
       <c r="CU23" s="32"/>
-      <c r="CV23" s="112"/>
-      <c r="CW23" s="111"/>
-      <c r="CX23" s="111"/>
-      <c r="CY23" s="111"/>
-      <c r="CZ23" s="112"/>
-      <c r="DA23" s="111"/>
-      <c r="DB23" s="116"/>
-      <c r="DC23" s="112"/>
-      <c r="DD23" s="111"/>
-      <c r="DE23" s="111"/>
-      <c r="DF23" s="111"/>
-      <c r="DG23" s="112"/>
-      <c r="DH23" s="111"/>
+      <c r="CV23" s="95"/>
+      <c r="CW23" s="94"/>
+      <c r="CX23" s="94"/>
+      <c r="CY23" s="94"/>
+      <c r="CZ23" s="95"/>
+      <c r="DA23" s="94"/>
+      <c r="DB23" s="99"/>
+      <c r="DC23" s="95"/>
+      <c r="DD23" s="94"/>
+      <c r="DE23" s="94"/>
+      <c r="DF23" s="94"/>
+      <c r="DG23" s="95"/>
+      <c r="DH23" s="94"/>
     </row>
     <row r="24" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
@@ -4107,23 +4106,23 @@
       <c r="CS24" s="30"/>
       <c r="CT24" s="31"/>
       <c r="CU24" s="32"/>
-      <c r="CV24" s="112"/>
-      <c r="CW24" s="111"/>
-      <c r="CX24" s="111"/>
-      <c r="CY24" s="111"/>
-      <c r="CZ24" s="112"/>
-      <c r="DA24" s="111"/>
-      <c r="DB24" s="116"/>
-      <c r="DC24" s="112"/>
-      <c r="DD24" s="111"/>
-      <c r="DE24" s="111"/>
-      <c r="DF24" s="111"/>
-      <c r="DG24" s="112"/>
-      <c r="DH24" s="111"/>
+      <c r="CV24" s="95"/>
+      <c r="CW24" s="94"/>
+      <c r="CX24" s="94"/>
+      <c r="CY24" s="94"/>
+      <c r="CZ24" s="95"/>
+      <c r="DA24" s="94"/>
+      <c r="DB24" s="99"/>
+      <c r="DC24" s="95"/>
+      <c r="DD24" s="94"/>
+      <c r="DE24" s="94"/>
+      <c r="DF24" s="94"/>
+      <c r="DG24" s="95"/>
+      <c r="DH24" s="94"/>
     </row>
     <row r="25" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="52"/>
       <c r="C25" s="28"/>
@@ -4150,9 +4149,9 @@
       <c r="X25" s="29"/>
       <c r="Y25" s="30"/>
       <c r="Z25" s="31"/>
-      <c r="AA25" s="132"/>
-      <c r="AB25" s="131"/>
-      <c r="AC25" s="131"/>
+      <c r="AA25" s="151"/>
+      <c r="AB25" s="150"/>
+      <c r="AC25" s="150"/>
       <c r="AD25" s="29"/>
       <c r="AE25" s="30"/>
       <c r="AF25" s="31"/>
@@ -4223,19 +4222,19 @@
       <c r="CS25" s="30"/>
       <c r="CT25" s="31"/>
       <c r="CU25" s="32"/>
-      <c r="CV25" s="112"/>
-      <c r="CW25" s="111"/>
-      <c r="CX25" s="111"/>
-      <c r="CY25" s="111"/>
-      <c r="CZ25" s="112"/>
-      <c r="DA25" s="111"/>
-      <c r="DB25" s="116"/>
-      <c r="DC25" s="112"/>
-      <c r="DD25" s="111"/>
-      <c r="DE25" s="111"/>
-      <c r="DF25" s="111"/>
-      <c r="DG25" s="112"/>
-      <c r="DH25" s="111"/>
+      <c r="CV25" s="95"/>
+      <c r="CW25" s="94"/>
+      <c r="CX25" s="94"/>
+      <c r="CY25" s="94"/>
+      <c r="CZ25" s="95"/>
+      <c r="DA25" s="94"/>
+      <c r="DB25" s="99"/>
+      <c r="DC25" s="95"/>
+      <c r="DD25" s="94"/>
+      <c r="DE25" s="94"/>
+      <c r="DF25" s="94"/>
+      <c r="DG25" s="95"/>
+      <c r="DH25" s="94"/>
     </row>
     <row r="26" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
@@ -4262,7 +4261,7 @@
       <c r="V26" s="29"/>
       <c r="W26" s="30"/>
       <c r="X26" s="29"/>
-      <c r="Y26" s="133"/>
+      <c r="Y26" s="108"/>
       <c r="Z26" s="31"/>
       <c r="AA26" s="28"/>
       <c r="AB26" s="29"/>
@@ -4337,138 +4336,138 @@
       <c r="CS26" s="30"/>
       <c r="CT26" s="31"/>
       <c r="CU26" s="32"/>
-      <c r="CV26" s="112"/>
-      <c r="CW26" s="111"/>
-      <c r="CX26" s="112"/>
-      <c r="CY26" s="111"/>
-      <c r="CZ26" s="112"/>
-      <c r="DA26" s="111"/>
-      <c r="DB26" s="116"/>
-      <c r="DC26" s="112"/>
-      <c r="DD26" s="111"/>
-      <c r="DE26" s="112"/>
-      <c r="DF26" s="111"/>
-      <c r="DG26" s="112"/>
-      <c r="DH26" s="111"/>
+      <c r="CV26" s="95"/>
+      <c r="CW26" s="94"/>
+      <c r="CX26" s="95"/>
+      <c r="CY26" s="94"/>
+      <c r="CZ26" s="95"/>
+      <c r="DA26" s="94"/>
+      <c r="DB26" s="99"/>
+      <c r="DC26" s="95"/>
+      <c r="DD26" s="94"/>
+      <c r="DE26" s="95"/>
+      <c r="DF26" s="94"/>
+      <c r="DG26" s="95"/>
+      <c r="DH26" s="94"/>
     </row>
     <row r="27" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="51"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="108"/>
-      <c r="W27" s="109"/>
-      <c r="X27" s="108"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="107"/>
-      <c r="AB27" s="108"/>
-      <c r="AC27" s="109"/>
-      <c r="AD27" s="108"/>
-      <c r="AE27" s="109"/>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="107"/>
-      <c r="AH27" s="108"/>
-      <c r="AI27" s="109"/>
-      <c r="AJ27" s="108"/>
-      <c r="AK27" s="109"/>
-      <c r="AL27" s="110"/>
-      <c r="AM27" s="107"/>
-      <c r="AN27" s="108"/>
-      <c r="AO27" s="109"/>
-      <c r="AP27" s="108"/>
-      <c r="AQ27" s="109"/>
-      <c r="AR27" s="110"/>
-      <c r="AS27" s="107"/>
-      <c r="AT27" s="108"/>
-      <c r="AU27" s="109"/>
-      <c r="AV27" s="108"/>
-      <c r="AW27" s="109"/>
-      <c r="AX27" s="110"/>
-      <c r="AY27" s="107"/>
-      <c r="AZ27" s="108"/>
-      <c r="BA27" s="109"/>
-      <c r="BB27" s="108"/>
-      <c r="BC27" s="109"/>
-      <c r="BD27" s="110"/>
-      <c r="BE27" s="107"/>
-      <c r="BF27" s="108"/>
-      <c r="BG27" s="109"/>
-      <c r="BH27" s="108"/>
-      <c r="BI27" s="109"/>
-      <c r="BJ27" s="110"/>
-      <c r="BK27" s="107"/>
-      <c r="BL27" s="108"/>
-      <c r="BM27" s="109"/>
-      <c r="BN27" s="108"/>
-      <c r="BO27" s="109"/>
-      <c r="BP27" s="110"/>
-      <c r="BQ27" s="107"/>
-      <c r="BR27" s="108"/>
-      <c r="BS27" s="109"/>
-      <c r="BT27" s="108"/>
-      <c r="BU27" s="109"/>
-      <c r="BV27" s="110"/>
-      <c r="BW27" s="107"/>
-      <c r="BX27" s="108"/>
-      <c r="BY27" s="109"/>
-      <c r="BZ27" s="108"/>
-      <c r="CA27" s="109"/>
-      <c r="CB27" s="110"/>
-      <c r="CC27" s="107"/>
-      <c r="CD27" s="108"/>
-      <c r="CE27" s="109"/>
-      <c r="CF27" s="108"/>
-      <c r="CG27" s="109"/>
-      <c r="CH27" s="110"/>
-      <c r="CI27" s="107"/>
-      <c r="CJ27" s="108"/>
-      <c r="CK27" s="109"/>
-      <c r="CL27" s="108"/>
-      <c r="CM27" s="109"/>
-      <c r="CN27" s="110"/>
-      <c r="CO27" s="107"/>
-      <c r="CP27" s="108"/>
-      <c r="CQ27" s="109"/>
-      <c r="CR27" s="108"/>
-      <c r="CS27" s="109"/>
-      <c r="CT27" s="110"/>
-      <c r="CV27" s="109"/>
-      <c r="CW27" s="108"/>
-      <c r="CX27" s="109"/>
-      <c r="CY27" s="108"/>
-      <c r="CZ27" s="109"/>
-      <c r="DA27" s="108"/>
-      <c r="DB27" s="113"/>
-      <c r="DC27" s="109"/>
-      <c r="DD27" s="108"/>
-      <c r="DE27" s="109"/>
-      <c r="DF27" s="108"/>
-      <c r="DG27" s="109"/>
-      <c r="DH27" s="108"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="91"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="91"/>
+      <c r="AE27" s="92"/>
+      <c r="AF27" s="93"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="91"/>
+      <c r="AI27" s="92"/>
+      <c r="AJ27" s="91"/>
+      <c r="AK27" s="92"/>
+      <c r="AL27" s="93"/>
+      <c r="AM27" s="90"/>
+      <c r="AN27" s="91"/>
+      <c r="AO27" s="92"/>
+      <c r="AP27" s="91"/>
+      <c r="AQ27" s="92"/>
+      <c r="AR27" s="93"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="91"/>
+      <c r="AU27" s="92"/>
+      <c r="AV27" s="91"/>
+      <c r="AW27" s="92"/>
+      <c r="AX27" s="93"/>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="91"/>
+      <c r="BA27" s="92"/>
+      <c r="BB27" s="91"/>
+      <c r="BC27" s="92"/>
+      <c r="BD27" s="93"/>
+      <c r="BE27" s="90"/>
+      <c r="BF27" s="91"/>
+      <c r="BG27" s="92"/>
+      <c r="BH27" s="91"/>
+      <c r="BI27" s="92"/>
+      <c r="BJ27" s="93"/>
+      <c r="BK27" s="90"/>
+      <c r="BL27" s="91"/>
+      <c r="BM27" s="92"/>
+      <c r="BN27" s="91"/>
+      <c r="BO27" s="92"/>
+      <c r="BP27" s="93"/>
+      <c r="BQ27" s="90"/>
+      <c r="BR27" s="91"/>
+      <c r="BS27" s="92"/>
+      <c r="BT27" s="91"/>
+      <c r="BU27" s="92"/>
+      <c r="BV27" s="93"/>
+      <c r="BW27" s="90"/>
+      <c r="BX27" s="91"/>
+      <c r="BY27" s="92"/>
+      <c r="BZ27" s="91"/>
+      <c r="CA27" s="92"/>
+      <c r="CB27" s="93"/>
+      <c r="CC27" s="90"/>
+      <c r="CD27" s="91"/>
+      <c r="CE27" s="92"/>
+      <c r="CF27" s="91"/>
+      <c r="CG27" s="92"/>
+      <c r="CH27" s="93"/>
+      <c r="CI27" s="90"/>
+      <c r="CJ27" s="91"/>
+      <c r="CK27" s="92"/>
+      <c r="CL27" s="91"/>
+      <c r="CM27" s="92"/>
+      <c r="CN27" s="93"/>
+      <c r="CO27" s="90"/>
+      <c r="CP27" s="91"/>
+      <c r="CQ27" s="92"/>
+      <c r="CR27" s="91"/>
+      <c r="CS27" s="92"/>
+      <c r="CT27" s="93"/>
+      <c r="CV27" s="92"/>
+      <c r="CW27" s="91"/>
+      <c r="CX27" s="92"/>
+      <c r="CY27" s="91"/>
+      <c r="CZ27" s="92"/>
+      <c r="DA27" s="91"/>
+      <c r="DB27" s="96"/>
+      <c r="DC27" s="92"/>
+      <c r="DD27" s="91"/>
+      <c r="DE27" s="92"/>
+      <c r="DF27" s="91"/>
+      <c r="DG27" s="92"/>
+      <c r="DH27" s="91"/>
     </row>
     <row r="28" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="28"/>
@@ -4493,18 +4492,18 @@
       <c r="V28" s="29"/>
       <c r="W28" s="29"/>
       <c r="X28" s="29"/>
-      <c r="Y28" s="134"/>
-      <c r="Z28" s="134"/>
-      <c r="AA28" s="134"/>
-      <c r="AB28" s="134"/>
-      <c r="AC28" s="134"/>
-      <c r="AD28" s="134"/>
-      <c r="AE28" s="134"/>
-      <c r="AF28" s="134"/>
-      <c r="AG28" s="134"/>
-      <c r="AH28" s="134"/>
-      <c r="AI28" s="125"/>
-      <c r="AJ28" s="125"/>
+      <c r="Y28" s="152"/>
+      <c r="Z28" s="152"/>
+      <c r="AA28" s="152"/>
+      <c r="AB28" s="152"/>
+      <c r="AC28" s="152"/>
+      <c r="AD28" s="152"/>
+      <c r="AE28" s="152"/>
+      <c r="AF28" s="152"/>
+      <c r="AG28" s="152"/>
+      <c r="AH28" s="152"/>
+      <c r="AI28" s="162"/>
+      <c r="AJ28" s="162"/>
       <c r="AK28" s="30"/>
       <c r="AL28" s="31"/>
       <c r="AM28" s="28"/>
@@ -4568,23 +4567,23 @@
       <c r="CS28" s="30"/>
       <c r="CT28" s="31"/>
       <c r="CU28" s="32"/>
-      <c r="CV28" s="112"/>
-      <c r="CW28" s="111"/>
-      <c r="CX28" s="112"/>
-      <c r="CY28" s="111"/>
-      <c r="CZ28" s="112"/>
-      <c r="DA28" s="111"/>
-      <c r="DB28" s="116"/>
-      <c r="DC28" s="112"/>
-      <c r="DD28" s="111"/>
-      <c r="DE28" s="112"/>
-      <c r="DF28" s="111"/>
-      <c r="DG28" s="112"/>
-      <c r="DH28" s="111"/>
+      <c r="CV28" s="95"/>
+      <c r="CW28" s="94"/>
+      <c r="CX28" s="95"/>
+      <c r="CY28" s="94"/>
+      <c r="CZ28" s="95"/>
+      <c r="DA28" s="94"/>
+      <c r="DB28" s="99"/>
+      <c r="DC28" s="95"/>
+      <c r="DD28" s="94"/>
+      <c r="DE28" s="95"/>
+      <c r="DF28" s="94"/>
+      <c r="DG28" s="95"/>
+      <c r="DH28" s="94"/>
     </row>
     <row r="29" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="52"/>
       <c r="C29" s="28"/>
@@ -4623,12 +4622,12 @@
       <c r="AJ29" s="29"/>
       <c r="AK29" s="30"/>
       <c r="AL29" s="31"/>
-      <c r="AS29" s="135"/>
-      <c r="AT29" s="134"/>
-      <c r="AU29" s="134"/>
-      <c r="AV29" s="134"/>
-      <c r="AW29" s="134"/>
-      <c r="AX29" s="141"/>
+      <c r="AS29" s="153"/>
+      <c r="AT29" s="152"/>
+      <c r="AU29" s="152"/>
+      <c r="AV29" s="152"/>
+      <c r="AW29" s="152"/>
+      <c r="AX29" s="161"/>
       <c r="AY29" s="28"/>
       <c r="AZ29" s="29"/>
       <c r="BA29" s="30"/>
@@ -4678,23 +4677,23 @@
       <c r="CS29" s="30"/>
       <c r="CT29" s="31"/>
       <c r="CU29" s="32"/>
-      <c r="CV29" s="112"/>
-      <c r="CW29" s="111"/>
-      <c r="CX29" s="112"/>
-      <c r="CY29" s="111"/>
-      <c r="CZ29" s="112"/>
-      <c r="DA29" s="111"/>
-      <c r="DB29" s="116"/>
-      <c r="DC29" s="112"/>
-      <c r="DD29" s="111"/>
-      <c r="DE29" s="112"/>
-      <c r="DF29" s="111"/>
-      <c r="DG29" s="112"/>
-      <c r="DH29" s="111"/>
+      <c r="CV29" s="95"/>
+      <c r="CW29" s="94"/>
+      <c r="CX29" s="95"/>
+      <c r="CY29" s="94"/>
+      <c r="CZ29" s="95"/>
+      <c r="DA29" s="94"/>
+      <c r="DB29" s="99"/>
+      <c r="DC29" s="95"/>
+      <c r="DD29" s="94"/>
+      <c r="DE29" s="95"/>
+      <c r="DF29" s="94"/>
+      <c r="DG29" s="95"/>
+      <c r="DH29" s="94"/>
     </row>
     <row r="30" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="52"/>
       <c r="C30" s="28"/>
@@ -4721,14 +4720,14 @@
       <c r="X30" s="29"/>
       <c r="Y30" s="30"/>
       <c r="Z30" s="31"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="134"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="134"/>
-      <c r="AF30" s="134"/>
-      <c r="AG30" s="134"/>
-      <c r="AH30" s="134"/>
+      <c r="AA30" s="153"/>
+      <c r="AB30" s="152"/>
+      <c r="AC30" s="152"/>
+      <c r="AD30" s="152"/>
+      <c r="AE30" s="152"/>
+      <c r="AF30" s="152"/>
+      <c r="AG30" s="152"/>
+      <c r="AH30" s="152"/>
       <c r="AI30" s="30"/>
       <c r="AJ30" s="29"/>
       <c r="AK30" s="30"/>
@@ -4794,23 +4793,23 @@
       <c r="CS30" s="30"/>
       <c r="CT30" s="31"/>
       <c r="CU30" s="32"/>
-      <c r="CV30" s="112"/>
-      <c r="CW30" s="111"/>
-      <c r="CX30" s="112"/>
-      <c r="CY30" s="111"/>
-      <c r="CZ30" s="112"/>
-      <c r="DA30" s="111"/>
-      <c r="DB30" s="116"/>
-      <c r="DC30" s="112"/>
-      <c r="DD30" s="111"/>
-      <c r="DE30" s="112"/>
-      <c r="DF30" s="111"/>
-      <c r="DG30" s="112"/>
-      <c r="DH30" s="111"/>
+      <c r="CV30" s="95"/>
+      <c r="CW30" s="94"/>
+      <c r="CX30" s="95"/>
+      <c r="CY30" s="94"/>
+      <c r="CZ30" s="95"/>
+      <c r="DA30" s="94"/>
+      <c r="DB30" s="99"/>
+      <c r="DC30" s="95"/>
+      <c r="DD30" s="94"/>
+      <c r="DE30" s="95"/>
+      <c r="DF30" s="94"/>
+      <c r="DG30" s="95"/>
+      <c r="DH30" s="94"/>
     </row>
     <row r="31" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="52"/>
       <c r="C31" s="28"/>
@@ -4845,9 +4844,9 @@
       <c r="AF31" s="31"/>
       <c r="AG31" s="28"/>
       <c r="AH31" s="29"/>
-      <c r="AI31" s="134"/>
-      <c r="AJ31" s="134"/>
-      <c r="AK31" s="134"/>
+      <c r="AI31" s="152"/>
+      <c r="AJ31" s="152"/>
+      <c r="AK31" s="152"/>
       <c r="AL31" s="31"/>
       <c r="AM31" s="28"/>
       <c r="AN31" s="29"/>
@@ -4910,23 +4909,23 @@
       <c r="CS31" s="30"/>
       <c r="CT31" s="31"/>
       <c r="CU31" s="32"/>
-      <c r="CV31" s="112"/>
-      <c r="CW31" s="111"/>
-      <c r="CX31" s="112"/>
-      <c r="CY31" s="111"/>
-      <c r="CZ31" s="112"/>
-      <c r="DA31" s="111"/>
-      <c r="DB31" s="116"/>
-      <c r="DC31" s="112"/>
-      <c r="DD31" s="111"/>
-      <c r="DE31" s="112"/>
-      <c r="DF31" s="111"/>
-      <c r="DG31" s="112"/>
-      <c r="DH31" s="111"/>
+      <c r="CV31" s="95"/>
+      <c r="CW31" s="94"/>
+      <c r="CX31" s="95"/>
+      <c r="CY31" s="94"/>
+      <c r="CZ31" s="95"/>
+      <c r="DA31" s="94"/>
+      <c r="DB31" s="99"/>
+      <c r="DC31" s="95"/>
+      <c r="DD31" s="94"/>
+      <c r="DE31" s="95"/>
+      <c r="DF31" s="94"/>
+      <c r="DG31" s="95"/>
+      <c r="DH31" s="94"/>
     </row>
     <row r="32" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="52"/>
       <c r="C32" s="28"/>
@@ -4962,11 +4961,11 @@
       <c r="AG32" s="28"/>
       <c r="AH32" s="29"/>
       <c r="AI32" s="30"/>
-      <c r="AM32" s="170"/>
-      <c r="AS32" s="170"/>
-      <c r="AW32" s="142"/>
-      <c r="AX32" s="142"/>
-      <c r="AY32" s="142"/>
+      <c r="AM32" s="122"/>
+      <c r="AS32" s="122"/>
+      <c r="AW32" s="163"/>
+      <c r="AX32" s="163"/>
+      <c r="AY32" s="163"/>
       <c r="BA32" s="30"/>
       <c r="BB32" s="29"/>
       <c r="BC32" s="30"/>
@@ -5014,23 +5013,23 @@
       <c r="CS32" s="30"/>
       <c r="CT32" s="31"/>
       <c r="CU32" s="32"/>
-      <c r="CV32" s="112"/>
-      <c r="CW32" s="111"/>
-      <c r="CX32" s="112"/>
-      <c r="CY32" s="111"/>
-      <c r="CZ32" s="112"/>
-      <c r="DA32" s="111"/>
-      <c r="DB32" s="116"/>
-      <c r="DC32" s="112"/>
-      <c r="DD32" s="111"/>
-      <c r="DE32" s="112"/>
-      <c r="DF32" s="111"/>
-      <c r="DG32" s="112"/>
-      <c r="DH32" s="111"/>
+      <c r="CV32" s="95"/>
+      <c r="CW32" s="94"/>
+      <c r="CX32" s="95"/>
+      <c r="CY32" s="94"/>
+      <c r="CZ32" s="95"/>
+      <c r="DA32" s="94"/>
+      <c r="DB32" s="99"/>
+      <c r="DC32" s="95"/>
+      <c r="DD32" s="94"/>
+      <c r="DE32" s="95"/>
+      <c r="DF32" s="94"/>
+      <c r="DG32" s="95"/>
+      <c r="DH32" s="94"/>
     </row>
     <row r="33" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="52"/>
       <c r="C33" s="28"/>
@@ -5065,9 +5064,9 @@
       <c r="AF33" s="31"/>
       <c r="AG33" s="28"/>
       <c r="AH33" s="29"/>
-      <c r="AI33" s="134"/>
-      <c r="AJ33" s="134"/>
-      <c r="AK33" s="134"/>
+      <c r="AI33" s="152"/>
+      <c r="AJ33" s="152"/>
+      <c r="AK33" s="152"/>
       <c r="AL33" s="31"/>
       <c r="AM33" s="28"/>
       <c r="AN33" s="29"/>
@@ -5130,19 +5129,19 @@
       <c r="CS33" s="30"/>
       <c r="CT33" s="31"/>
       <c r="CU33" s="32"/>
-      <c r="CV33" s="112"/>
-      <c r="CW33" s="111"/>
-      <c r="CX33" s="112"/>
-      <c r="CY33" s="111"/>
-      <c r="CZ33" s="112"/>
-      <c r="DA33" s="111"/>
-      <c r="DB33" s="116"/>
-      <c r="DC33" s="112"/>
-      <c r="DD33" s="111"/>
-      <c r="DE33" s="112"/>
-      <c r="DF33" s="111"/>
-      <c r="DG33" s="112"/>
-      <c r="DH33" s="111"/>
+      <c r="CV33" s="95"/>
+      <c r="CW33" s="94"/>
+      <c r="CX33" s="95"/>
+      <c r="CY33" s="94"/>
+      <c r="CZ33" s="95"/>
+      <c r="DA33" s="94"/>
+      <c r="DB33" s="99"/>
+      <c r="DC33" s="95"/>
+      <c r="DD33" s="94"/>
+      <c r="DE33" s="95"/>
+      <c r="DF33" s="94"/>
+      <c r="DG33" s="95"/>
+      <c r="DH33" s="94"/>
     </row>
     <row r="34" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
@@ -5185,7 +5184,7 @@
       <c r="AJ34" s="29"/>
       <c r="AK34" s="30"/>
       <c r="AL34" s="31"/>
-      <c r="AM34" s="28"/>
+      <c r="AM34" s="124"/>
       <c r="AN34" s="29"/>
       <c r="AO34" s="30"/>
       <c r="AP34" s="29"/>
@@ -5198,7 +5197,7 @@
       <c r="AW34" s="30"/>
       <c r="AX34" s="31"/>
       <c r="AY34" s="28"/>
-      <c r="AZ34" s="29"/>
+      <c r="AZ34" s="169"/>
       <c r="BA34" s="30"/>
       <c r="BB34" s="29"/>
       <c r="BC34" s="30"/>
@@ -5246,19 +5245,19 @@
       <c r="CS34" s="30"/>
       <c r="CT34" s="31"/>
       <c r="CU34" s="32"/>
-      <c r="CV34" s="112"/>
-      <c r="CW34" s="111"/>
-      <c r="CX34" s="112"/>
-      <c r="CY34" s="111"/>
-      <c r="CZ34" s="112"/>
-      <c r="DA34" s="111"/>
-      <c r="DB34" s="116"/>
-      <c r="DC34" s="112"/>
-      <c r="DD34" s="111"/>
-      <c r="DE34" s="112"/>
-      <c r="DF34" s="111"/>
-      <c r="DG34" s="112"/>
-      <c r="DH34" s="111"/>
+      <c r="CV34" s="95"/>
+      <c r="CW34" s="94"/>
+      <c r="CX34" s="95"/>
+      <c r="CY34" s="94"/>
+      <c r="CZ34" s="95"/>
+      <c r="DA34" s="94"/>
+      <c r="DB34" s="99"/>
+      <c r="DC34" s="95"/>
+      <c r="DD34" s="94"/>
+      <c r="DE34" s="95"/>
+      <c r="DF34" s="94"/>
+      <c r="DG34" s="95"/>
+      <c r="DH34" s="94"/>
     </row>
     <row r="35" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -5360,126 +5359,126 @@
       <c r="CS35" s="30"/>
       <c r="CT35" s="31"/>
       <c r="CU35" s="32"/>
-      <c r="CV35" s="112"/>
-      <c r="CW35" s="111"/>
-      <c r="CX35" s="112"/>
-      <c r="CY35" s="111"/>
-      <c r="CZ35" s="112"/>
-      <c r="DA35" s="111"/>
-      <c r="DB35" s="116"/>
-      <c r="DC35" s="112"/>
-      <c r="DD35" s="111"/>
-      <c r="DE35" s="112"/>
-      <c r="DF35" s="111"/>
-      <c r="DG35" s="112"/>
-      <c r="DH35" s="111"/>
+      <c r="CV35" s="95"/>
+      <c r="CW35" s="94"/>
+      <c r="CX35" s="95"/>
+      <c r="CY35" s="94"/>
+      <c r="CZ35" s="95"/>
+      <c r="DA35" s="94"/>
+      <c r="DB35" s="99"/>
+      <c r="DC35" s="95"/>
+      <c r="DD35" s="94"/>
+      <c r="DE35" s="95"/>
+      <c r="DF35" s="94"/>
+      <c r="DG35" s="95"/>
+      <c r="DH35" s="94"/>
     </row>
     <row r="36" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="51"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="109"/>
-      <c r="N36" s="110"/>
-      <c r="O36" s="107"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="108"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="110"/>
-      <c r="U36" s="107"/>
-      <c r="V36" s="108"/>
-      <c r="W36" s="109"/>
-      <c r="X36" s="108"/>
-      <c r="Y36" s="109"/>
-      <c r="Z36" s="110"/>
-      <c r="AA36" s="107"/>
-      <c r="AB36" s="108"/>
-      <c r="AC36" s="109"/>
-      <c r="AD36" s="108"/>
-      <c r="AE36" s="109"/>
-      <c r="AF36" s="110"/>
-      <c r="AG36" s="107"/>
-      <c r="AH36" s="108"/>
-      <c r="AI36" s="109"/>
-      <c r="AM36" s="170"/>
-      <c r="AS36" s="170"/>
-      <c r="AX36" s="110"/>
-      <c r="AY36" s="107"/>
-      <c r="AZ36" s="108"/>
-      <c r="BA36" s="109"/>
-      <c r="BB36" s="108"/>
-      <c r="BC36" s="109"/>
-      <c r="BD36" s="110"/>
-      <c r="BE36" s="107"/>
-      <c r="BF36" s="108"/>
-      <c r="BG36" s="109"/>
-      <c r="BH36" s="108"/>
-      <c r="BI36" s="109"/>
-      <c r="BJ36" s="110"/>
-      <c r="BK36" s="107"/>
-      <c r="BL36" s="108"/>
-      <c r="BM36" s="109"/>
-      <c r="BN36" s="108"/>
-      <c r="BO36" s="109"/>
-      <c r="BP36" s="110"/>
-      <c r="BQ36" s="107"/>
-      <c r="BR36" s="108"/>
-      <c r="BS36" s="109"/>
-      <c r="BT36" s="108"/>
-      <c r="BU36" s="109"/>
-      <c r="BV36" s="110"/>
-      <c r="BW36" s="107"/>
-      <c r="BX36" s="108"/>
-      <c r="BY36" s="109"/>
-      <c r="BZ36" s="108"/>
-      <c r="CA36" s="109"/>
-      <c r="CB36" s="110"/>
-      <c r="CC36" s="107"/>
-      <c r="CD36" s="108"/>
-      <c r="CE36" s="109"/>
-      <c r="CF36" s="108"/>
-      <c r="CG36" s="109"/>
-      <c r="CH36" s="110"/>
-      <c r="CI36" s="107"/>
-      <c r="CJ36" s="108"/>
-      <c r="CK36" s="109"/>
-      <c r="CL36" s="108"/>
-      <c r="CM36" s="109"/>
-      <c r="CN36" s="110"/>
-      <c r="CO36" s="107"/>
-      <c r="CP36" s="108"/>
-      <c r="CQ36" s="109"/>
-      <c r="CR36" s="108"/>
-      <c r="CS36" s="109"/>
-      <c r="CT36" s="110"/>
-      <c r="CV36" s="109"/>
-      <c r="CW36" s="108"/>
-      <c r="CX36" s="109"/>
-      <c r="CY36" s="108"/>
-      <c r="CZ36" s="109"/>
-      <c r="DA36" s="108"/>
-      <c r="DB36" s="113"/>
-      <c r="DC36" s="109"/>
-      <c r="DD36" s="108"/>
-      <c r="DE36" s="109"/>
-      <c r="DF36" s="108"/>
-      <c r="DG36" s="109"/>
-      <c r="DH36" s="108"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="91"/>
+      <c r="Y36" s="92"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="90"/>
+      <c r="AB36" s="91"/>
+      <c r="AC36" s="92"/>
+      <c r="AD36" s="91"/>
+      <c r="AE36" s="92"/>
+      <c r="AF36" s="93"/>
+      <c r="AG36" s="90"/>
+      <c r="AH36" s="91"/>
+      <c r="AI36" s="92"/>
+      <c r="AM36" s="122"/>
+      <c r="AS36" s="122"/>
+      <c r="AX36" s="93"/>
+      <c r="AY36" s="90"/>
+      <c r="AZ36" s="91"/>
+      <c r="BA36" s="92"/>
+      <c r="BB36" s="91"/>
+      <c r="BC36" s="92"/>
+      <c r="BD36" s="93"/>
+      <c r="BE36" s="90"/>
+      <c r="BF36" s="91"/>
+      <c r="BG36" s="92"/>
+      <c r="BH36" s="91"/>
+      <c r="BI36" s="92"/>
+      <c r="BJ36" s="93"/>
+      <c r="BK36" s="90"/>
+      <c r="BL36" s="91"/>
+      <c r="BM36" s="92"/>
+      <c r="BN36" s="91"/>
+      <c r="BO36" s="92"/>
+      <c r="BP36" s="93"/>
+      <c r="BQ36" s="90"/>
+      <c r="BR36" s="91"/>
+      <c r="BS36" s="92"/>
+      <c r="BT36" s="91"/>
+      <c r="BU36" s="92"/>
+      <c r="BV36" s="93"/>
+      <c r="BW36" s="90"/>
+      <c r="BX36" s="91"/>
+      <c r="BY36" s="92"/>
+      <c r="BZ36" s="91"/>
+      <c r="CA36" s="92"/>
+      <c r="CB36" s="93"/>
+      <c r="CC36" s="90"/>
+      <c r="CD36" s="91"/>
+      <c r="CE36" s="92"/>
+      <c r="CF36" s="91"/>
+      <c r="CG36" s="92"/>
+      <c r="CH36" s="93"/>
+      <c r="CI36" s="90"/>
+      <c r="CJ36" s="91"/>
+      <c r="CK36" s="92"/>
+      <c r="CL36" s="91"/>
+      <c r="CM36" s="92"/>
+      <c r="CN36" s="93"/>
+      <c r="CO36" s="90"/>
+      <c r="CP36" s="91"/>
+      <c r="CQ36" s="92"/>
+      <c r="CR36" s="91"/>
+      <c r="CS36" s="92"/>
+      <c r="CT36" s="93"/>
+      <c r="CV36" s="92"/>
+      <c r="CW36" s="91"/>
+      <c r="CX36" s="92"/>
+      <c r="CY36" s="91"/>
+      <c r="CZ36" s="92"/>
+      <c r="DA36" s="91"/>
+      <c r="DB36" s="96"/>
+      <c r="DC36" s="92"/>
+      <c r="DD36" s="91"/>
+      <c r="DE36" s="92"/>
+      <c r="DF36" s="91"/>
+      <c r="DG36" s="92"/>
+      <c r="DH36" s="91"/>
     </row>
     <row r="37" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="52"/>
       <c r="C37" s="28"/>
@@ -5515,20 +5514,20 @@
       <c r="AG37" s="28"/>
       <c r="AH37" s="29"/>
       <c r="AI37" s="30"/>
-      <c r="AJ37" s="136"/>
-      <c r="AK37" s="136"/>
-      <c r="AL37" s="136"/>
-      <c r="AM37" s="136"/>
-      <c r="AN37" s="136"/>
-      <c r="AO37" s="136"/>
-      <c r="AP37" s="136"/>
-      <c r="AQ37" s="136"/>
-      <c r="AR37" s="136"/>
-      <c r="AS37" s="136"/>
-      <c r="AT37" s="136"/>
-      <c r="AU37" s="136"/>
-      <c r="AV37" s="136"/>
-      <c r="AW37" s="136"/>
+      <c r="AJ37" s="154"/>
+      <c r="AK37" s="154"/>
+      <c r="AL37" s="154"/>
+      <c r="AM37" s="154"/>
+      <c r="AN37" s="154"/>
+      <c r="AO37" s="154"/>
+      <c r="AP37" s="154"/>
+      <c r="AQ37" s="154"/>
+      <c r="AR37" s="154"/>
+      <c r="AS37" s="154"/>
+      <c r="AT37" s="154"/>
+      <c r="AU37" s="154"/>
+      <c r="AV37" s="154"/>
+      <c r="AW37" s="154"/>
       <c r="AX37" s="31"/>
       <c r="AY37" s="28"/>
       <c r="AZ37" s="29"/>
@@ -5579,23 +5578,23 @@
       <c r="CS37" s="30"/>
       <c r="CT37" s="31"/>
       <c r="CU37" s="32"/>
-      <c r="CV37" s="112"/>
-      <c r="CW37" s="111"/>
-      <c r="CX37" s="112"/>
-      <c r="CY37" s="111"/>
-      <c r="CZ37" s="112"/>
-      <c r="DA37" s="111"/>
-      <c r="DB37" s="116"/>
-      <c r="DC37" s="112"/>
-      <c r="DD37" s="111"/>
-      <c r="DE37" s="112"/>
-      <c r="DF37" s="111"/>
-      <c r="DG37" s="112"/>
-      <c r="DH37" s="111"/>
+      <c r="CV37" s="95"/>
+      <c r="CW37" s="94"/>
+      <c r="CX37" s="95"/>
+      <c r="CY37" s="94"/>
+      <c r="CZ37" s="95"/>
+      <c r="DA37" s="94"/>
+      <c r="DB37" s="99"/>
+      <c r="DC37" s="95"/>
+      <c r="DD37" s="94"/>
+      <c r="DE37" s="95"/>
+      <c r="DF37" s="94"/>
+      <c r="DG37" s="95"/>
+      <c r="DH37" s="94"/>
     </row>
     <row r="38" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="52"/>
       <c r="C38" s="28"/>
@@ -5641,29 +5640,29 @@
       <c r="AQ38" s="30"/>
       <c r="AR38" s="31"/>
       <c r="AS38" s="28"/>
-      <c r="AT38" s="145"/>
-      <c r="AU38" s="145"/>
-      <c r="AV38" s="145"/>
-      <c r="AW38" s="145"/>
-      <c r="AX38" s="145"/>
-      <c r="AY38" s="171"/>
-      <c r="AZ38" s="143"/>
-      <c r="BA38" s="143"/>
-      <c r="BB38" s="143"/>
-      <c r="BC38" s="143"/>
-      <c r="BD38" s="143"/>
-      <c r="BE38" s="143"/>
-      <c r="BF38" s="143"/>
-      <c r="BG38" s="143"/>
-      <c r="BH38" s="143"/>
-      <c r="BI38" s="143"/>
-      <c r="BJ38" s="143"/>
-      <c r="BK38" s="143"/>
-      <c r="BL38" s="143"/>
-      <c r="BM38" s="143"/>
-      <c r="BN38" s="143"/>
-      <c r="BO38" s="143"/>
-      <c r="BP38" s="144"/>
+      <c r="AT38" s="111"/>
+      <c r="AU38" s="111"/>
+      <c r="AV38" s="111"/>
+      <c r="AW38" s="111"/>
+      <c r="AX38" s="111"/>
+      <c r="AY38" s="123"/>
+      <c r="AZ38" s="109"/>
+      <c r="BA38" s="109"/>
+      <c r="BB38" s="109"/>
+      <c r="BC38" s="109"/>
+      <c r="BD38" s="109"/>
+      <c r="BE38" s="109"/>
+      <c r="BF38" s="109"/>
+      <c r="BG38" s="109"/>
+      <c r="BH38" s="109"/>
+      <c r="BI38" s="109"/>
+      <c r="BJ38" s="109"/>
+      <c r="BK38" s="109"/>
+      <c r="BL38" s="109"/>
+      <c r="BM38" s="109"/>
+      <c r="BN38" s="109"/>
+      <c r="BO38" s="109"/>
+      <c r="BP38" s="110"/>
       <c r="BQ38" s="28"/>
       <c r="BR38" s="29"/>
       <c r="BS38" s="30"/>
@@ -5695,23 +5694,23 @@
       <c r="CS38" s="30"/>
       <c r="CT38" s="31"/>
       <c r="CU38" s="32"/>
-      <c r="CV38" s="112"/>
-      <c r="CW38" s="111"/>
-      <c r="CX38" s="112"/>
-      <c r="CY38" s="111"/>
-      <c r="CZ38" s="112"/>
-      <c r="DA38" s="111"/>
-      <c r="DB38" s="116"/>
-      <c r="DC38" s="112"/>
-      <c r="DD38" s="111"/>
-      <c r="DE38" s="112"/>
-      <c r="DF38" s="111"/>
-      <c r="DG38" s="112"/>
-      <c r="DH38" s="111"/>
+      <c r="CV38" s="95"/>
+      <c r="CW38" s="94"/>
+      <c r="CX38" s="95"/>
+      <c r="CY38" s="94"/>
+      <c r="CZ38" s="95"/>
+      <c r="DA38" s="94"/>
+      <c r="DB38" s="99"/>
+      <c r="DC38" s="95"/>
+      <c r="DD38" s="94"/>
+      <c r="DE38" s="95"/>
+      <c r="DF38" s="94"/>
+      <c r="DG38" s="95"/>
+      <c r="DH38" s="94"/>
     </row>
     <row r="39" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" s="52"/>
       <c r="C39" s="28"/>
@@ -5747,23 +5746,23 @@
       <c r="AG39" s="28"/>
       <c r="AH39" s="29"/>
       <c r="AI39" s="30"/>
-      <c r="AJ39" s="129"/>
-      <c r="AK39" s="129"/>
-      <c r="AL39" s="129"/>
-      <c r="AM39" s="129"/>
-      <c r="AN39" s="129"/>
-      <c r="AO39" s="129"/>
-      <c r="AP39" s="129"/>
-      <c r="AQ39" s="129"/>
-      <c r="AR39" s="129"/>
-      <c r="AS39" s="129"/>
-      <c r="AT39" s="129"/>
-      <c r="AU39" s="129"/>
-      <c r="AV39" s="129"/>
-      <c r="AW39" s="129"/>
-      <c r="AX39" s="129"/>
-      <c r="AY39" s="129"/>
-      <c r="AZ39" s="129"/>
+      <c r="AJ39" s="149"/>
+      <c r="AK39" s="149"/>
+      <c r="AL39" s="149"/>
+      <c r="AM39" s="149"/>
+      <c r="AN39" s="149"/>
+      <c r="AO39" s="149"/>
+      <c r="AP39" s="149"/>
+      <c r="AQ39" s="149"/>
+      <c r="AR39" s="149"/>
+      <c r="AS39" s="149"/>
+      <c r="AT39" s="149"/>
+      <c r="AU39" s="149"/>
+      <c r="AV39" s="149"/>
+      <c r="AW39" s="149"/>
+      <c r="AX39" s="149"/>
+      <c r="AY39" s="149"/>
+      <c r="AZ39" s="149"/>
       <c r="BA39" s="30"/>
       <c r="BB39" s="29"/>
       <c r="BC39" s="30"/>
@@ -5811,19 +5810,19 @@
       <c r="CS39" s="30"/>
       <c r="CT39" s="31"/>
       <c r="CU39" s="32"/>
-      <c r="CV39" s="112"/>
-      <c r="CW39" s="111"/>
-      <c r="CX39" s="112"/>
-      <c r="CY39" s="111"/>
-      <c r="CZ39" s="112"/>
-      <c r="DA39" s="111"/>
-      <c r="DB39" s="116"/>
-      <c r="DC39" s="112"/>
-      <c r="DD39" s="111"/>
-      <c r="DE39" s="112"/>
-      <c r="DF39" s="111"/>
-      <c r="DG39" s="112"/>
-      <c r="DH39" s="111"/>
+      <c r="CV39" s="95"/>
+      <c r="CW39" s="94"/>
+      <c r="CX39" s="95"/>
+      <c r="CY39" s="94"/>
+      <c r="CZ39" s="95"/>
+      <c r="DA39" s="94"/>
+      <c r="DB39" s="99"/>
+      <c r="DC39" s="95"/>
+      <c r="DD39" s="94"/>
+      <c r="DE39" s="95"/>
+      <c r="DF39" s="94"/>
+      <c r="DG39" s="95"/>
+      <c r="DH39" s="94"/>
     </row>
     <row r="40" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
@@ -5925,107 +5924,107 @@
       <c r="CS40" s="30"/>
       <c r="CT40" s="31"/>
       <c r="CU40" s="32"/>
-      <c r="CV40" s="112"/>
-      <c r="CW40" s="111"/>
-      <c r="CX40" s="112"/>
-      <c r="CY40" s="111"/>
-      <c r="CZ40" s="112"/>
-      <c r="DA40" s="111"/>
-      <c r="DB40" s="116"/>
-      <c r="DC40" s="112"/>
-      <c r="DD40" s="111"/>
-      <c r="DE40" s="112"/>
-      <c r="DF40" s="111"/>
-      <c r="DG40" s="112"/>
-      <c r="DH40" s="111"/>
+      <c r="CV40" s="95"/>
+      <c r="CW40" s="94"/>
+      <c r="CX40" s="95"/>
+      <c r="CY40" s="94"/>
+      <c r="CZ40" s="95"/>
+      <c r="DA40" s="94"/>
+      <c r="DB40" s="99"/>
+      <c r="DC40" s="95"/>
+      <c r="DD40" s="94"/>
+      <c r="DE40" s="95"/>
+      <c r="DF40" s="94"/>
+      <c r="DG40" s="95"/>
+      <c r="DH40" s="94"/>
     </row>
     <row r="41" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="53"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="107"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="109"/>
-      <c r="T41" s="110"/>
-      <c r="U41" s="107"/>
-      <c r="V41" s="108"/>
-      <c r="W41" s="109"/>
-      <c r="X41" s="108"/>
-      <c r="Y41" s="109"/>
-      <c r="Z41" s="110"/>
-      <c r="AA41" s="107"/>
-      <c r="AB41" s="108"/>
-      <c r="AC41" s="109"/>
-      <c r="AD41" s="108"/>
-      <c r="AE41" s="109"/>
-      <c r="AF41" s="110"/>
-      <c r="AG41" s="107"/>
-      <c r="AH41" s="108"/>
-      <c r="AI41" s="109"/>
-      <c r="AM41" s="170"/>
-      <c r="AS41" s="170"/>
-      <c r="AY41" s="170"/>
-      <c r="BE41" s="170"/>
-      <c r="BK41" s="170"/>
-      <c r="BQ41" s="170"/>
-      <c r="BU41" s="109"/>
-      <c r="BV41" s="110"/>
-      <c r="BW41" s="107"/>
-      <c r="BX41" s="108"/>
-      <c r="BY41" s="109"/>
-      <c r="BZ41" s="108"/>
-      <c r="CA41" s="109"/>
-      <c r="CB41" s="110"/>
-      <c r="CC41" s="107"/>
-      <c r="CD41" s="108"/>
-      <c r="CE41" s="109"/>
-      <c r="CF41" s="108"/>
-      <c r="CG41" s="109"/>
-      <c r="CH41" s="110"/>
-      <c r="CI41" s="107"/>
-      <c r="CJ41" s="108"/>
-      <c r="CK41" s="109"/>
-      <c r="CL41" s="108"/>
-      <c r="CM41" s="109"/>
-      <c r="CN41" s="110"/>
-      <c r="CO41" s="107"/>
-      <c r="CP41" s="108"/>
-      <c r="CQ41" s="109"/>
-      <c r="CR41" s="108"/>
-      <c r="CS41" s="109"/>
-      <c r="CT41" s="110"/>
-      <c r="CV41" s="109"/>
-      <c r="CW41" s="108"/>
-      <c r="CX41" s="109"/>
-      <c r="CY41" s="108"/>
-      <c r="CZ41" s="109"/>
-      <c r="DA41" s="108"/>
-      <c r="DB41" s="113"/>
-      <c r="DC41" s="109"/>
-      <c r="DD41" s="108"/>
-      <c r="DE41" s="109"/>
-      <c r="DF41" s="108"/>
-      <c r="DG41" s="109"/>
-      <c r="DH41" s="108"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="91"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="90"/>
+      <c r="V41" s="91"/>
+      <c r="W41" s="92"/>
+      <c r="X41" s="91"/>
+      <c r="Y41" s="92"/>
+      <c r="Z41" s="93"/>
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="91"/>
+      <c r="AC41" s="92"/>
+      <c r="AD41" s="91"/>
+      <c r="AE41" s="92"/>
+      <c r="AF41" s="93"/>
+      <c r="AG41" s="90"/>
+      <c r="AH41" s="91"/>
+      <c r="AI41" s="92"/>
+      <c r="AM41" s="122"/>
+      <c r="AS41" s="122"/>
+      <c r="AY41" s="122"/>
+      <c r="BE41" s="122"/>
+      <c r="BK41" s="122"/>
+      <c r="BQ41" s="122"/>
+      <c r="BU41" s="92"/>
+      <c r="BV41" s="93"/>
+      <c r="BW41" s="90"/>
+      <c r="BX41" s="91"/>
+      <c r="BY41" s="92"/>
+      <c r="BZ41" s="91"/>
+      <c r="CA41" s="92"/>
+      <c r="CB41" s="93"/>
+      <c r="CC41" s="90"/>
+      <c r="CD41" s="91"/>
+      <c r="CE41" s="92"/>
+      <c r="CF41" s="91"/>
+      <c r="CG41" s="92"/>
+      <c r="CH41" s="93"/>
+      <c r="CI41" s="90"/>
+      <c r="CJ41" s="91"/>
+      <c r="CK41" s="92"/>
+      <c r="CL41" s="91"/>
+      <c r="CM41" s="92"/>
+      <c r="CN41" s="93"/>
+      <c r="CO41" s="90"/>
+      <c r="CP41" s="91"/>
+      <c r="CQ41" s="92"/>
+      <c r="CR41" s="91"/>
+      <c r="CS41" s="92"/>
+      <c r="CT41" s="93"/>
+      <c r="CV41" s="92"/>
+      <c r="CW41" s="91"/>
+      <c r="CX41" s="92"/>
+      <c r="CY41" s="91"/>
+      <c r="CZ41" s="92"/>
+      <c r="DA41" s="91"/>
+      <c r="DB41" s="96"/>
+      <c r="DC41" s="92"/>
+      <c r="DD41" s="91"/>
+      <c r="DE41" s="92"/>
+      <c r="DF41" s="91"/>
+      <c r="DG41" s="92"/>
+      <c r="DH41" s="91"/>
     </row>
     <row r="42" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="52"/>
       <c r="C42" s="28"/>
@@ -6061,43 +6060,43 @@
       <c r="AG42" s="28"/>
       <c r="AH42" s="29"/>
       <c r="AI42" s="30"/>
-      <c r="AJ42" s="137"/>
-      <c r="AK42" s="137"/>
-      <c r="AL42" s="137"/>
-      <c r="AM42" s="137"/>
-      <c r="AN42" s="137"/>
-      <c r="AO42" s="137"/>
-      <c r="AP42" s="137"/>
-      <c r="AQ42" s="137"/>
-      <c r="AR42" s="137"/>
-      <c r="AS42" s="137"/>
-      <c r="AT42" s="137"/>
-      <c r="AU42" s="137"/>
-      <c r="AV42" s="137"/>
-      <c r="AW42" s="137"/>
-      <c r="AX42" s="137"/>
-      <c r="AY42" s="137"/>
-      <c r="AZ42" s="137"/>
-      <c r="BA42" s="137"/>
-      <c r="BB42" s="137"/>
-      <c r="BC42" s="137"/>
-      <c r="BD42" s="137"/>
-      <c r="BE42" s="137"/>
-      <c r="BF42" s="137"/>
-      <c r="BG42" s="137"/>
-      <c r="BH42" s="137"/>
-      <c r="BI42" s="137"/>
-      <c r="BJ42" s="137"/>
-      <c r="BK42" s="137"/>
-      <c r="BL42" s="137"/>
-      <c r="BM42" s="137"/>
-      <c r="BN42" s="137"/>
-      <c r="BO42" s="137"/>
-      <c r="BP42" s="138"/>
-      <c r="BQ42" s="107"/>
-      <c r="BR42" s="108"/>
-      <c r="BS42" s="109"/>
-      <c r="BT42" s="108"/>
+      <c r="AJ42" s="159"/>
+      <c r="AK42" s="159"/>
+      <c r="AL42" s="159"/>
+      <c r="AM42" s="159"/>
+      <c r="AN42" s="159"/>
+      <c r="AO42" s="159"/>
+      <c r="AP42" s="159"/>
+      <c r="AQ42" s="159"/>
+      <c r="AR42" s="159"/>
+      <c r="AS42" s="159"/>
+      <c r="AT42" s="159"/>
+      <c r="AU42" s="159"/>
+      <c r="AV42" s="159"/>
+      <c r="AW42" s="159"/>
+      <c r="AX42" s="159"/>
+      <c r="AY42" s="159"/>
+      <c r="AZ42" s="159"/>
+      <c r="BA42" s="159"/>
+      <c r="BB42" s="159"/>
+      <c r="BC42" s="159"/>
+      <c r="BD42" s="159"/>
+      <c r="BE42" s="159"/>
+      <c r="BF42" s="159"/>
+      <c r="BG42" s="159"/>
+      <c r="BH42" s="159"/>
+      <c r="BI42" s="159"/>
+      <c r="BJ42" s="159"/>
+      <c r="BK42" s="159"/>
+      <c r="BL42" s="159"/>
+      <c r="BM42" s="159"/>
+      <c r="BN42" s="159"/>
+      <c r="BO42" s="159"/>
+      <c r="BP42" s="160"/>
+      <c r="BQ42" s="90"/>
+      <c r="BR42" s="91"/>
+      <c r="BS42" s="92"/>
+      <c r="BT42" s="91"/>
       <c r="BU42" s="30"/>
       <c r="BV42" s="31"/>
       <c r="BW42" s="28"/>
@@ -6125,19 +6124,19 @@
       <c r="CS42" s="30"/>
       <c r="CT42" s="31"/>
       <c r="CU42" s="32"/>
-      <c r="CV42" s="112"/>
-      <c r="CW42" s="111"/>
-      <c r="CX42" s="112"/>
-      <c r="CY42" s="111"/>
-      <c r="CZ42" s="112"/>
-      <c r="DA42" s="111"/>
-      <c r="DB42" s="116"/>
-      <c r="DC42" s="112"/>
-      <c r="DD42" s="111"/>
-      <c r="DE42" s="112"/>
-      <c r="DF42" s="111"/>
-      <c r="DG42" s="112"/>
-      <c r="DH42" s="111"/>
+      <c r="CV42" s="95"/>
+      <c r="CW42" s="94"/>
+      <c r="CX42" s="95"/>
+      <c r="CY42" s="94"/>
+      <c r="CZ42" s="95"/>
+      <c r="DA42" s="94"/>
+      <c r="DB42" s="99"/>
+      <c r="DC42" s="95"/>
+      <c r="DD42" s="94"/>
+      <c r="DE42" s="95"/>
+      <c r="DF42" s="94"/>
+      <c r="DG42" s="95"/>
+      <c r="DH42" s="94"/>
     </row>
     <row r="43" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
@@ -6187,33 +6186,33 @@
       <c r="AQ43" s="30"/>
       <c r="AR43" s="31"/>
       <c r="AS43" s="28"/>
-      <c r="AT43" s="29"/>
-      <c r="AU43" s="30"/>
-      <c r="AV43" s="29"/>
-      <c r="AW43" s="30"/>
-      <c r="AX43" s="31"/>
-      <c r="AY43" s="28"/>
+      <c r="AT43" s="173"/>
+      <c r="AU43" s="173"/>
+      <c r="AV43" s="173"/>
+      <c r="AW43" s="173"/>
+      <c r="AX43" s="173"/>
+      <c r="AY43" s="173"/>
       <c r="AZ43" s="29"/>
       <c r="BA43" s="30"/>
       <c r="BB43" s="29"/>
       <c r="BC43" s="30"/>
       <c r="BD43" s="31"/>
-      <c r="BE43" s="139"/>
-      <c r="BF43" s="140"/>
-      <c r="BG43" s="140"/>
-      <c r="BH43" s="140"/>
-      <c r="BI43" s="140"/>
-      <c r="BJ43" s="140"/>
-      <c r="BK43" s="140"/>
-      <c r="BL43" s="140"/>
-      <c r="BM43" s="140"/>
-      <c r="BN43" s="140"/>
-      <c r="BO43" s="140"/>
-      <c r="BP43" s="140"/>
-      <c r="BQ43" s="140"/>
-      <c r="BR43" s="140"/>
-      <c r="BS43" s="140"/>
-      <c r="BT43" s="140"/>
+      <c r="BE43" s="172"/>
+      <c r="BF43" s="171"/>
+      <c r="BG43" s="171"/>
+      <c r="BH43" s="171"/>
+      <c r="BI43" s="171"/>
+      <c r="BJ43" s="171"/>
+      <c r="BK43" s="170"/>
+      <c r="BL43" s="170"/>
+      <c r="BM43" s="170"/>
+      <c r="BN43" s="170"/>
+      <c r="BO43" s="170"/>
+      <c r="BP43" s="170"/>
+      <c r="BQ43" s="170"/>
+      <c r="BR43" s="170"/>
+      <c r="BS43" s="171"/>
+      <c r="BT43" s="171"/>
       <c r="BU43" s="30"/>
       <c r="BV43" s="31"/>
       <c r="BW43" s="28"/>
@@ -6241,19 +6240,19 @@
       <c r="CS43" s="30"/>
       <c r="CT43" s="31"/>
       <c r="CU43" s="32"/>
-      <c r="CV43" s="112"/>
-      <c r="CW43" s="111"/>
-      <c r="CX43" s="112"/>
-      <c r="CY43" s="111"/>
-      <c r="CZ43" s="112"/>
-      <c r="DA43" s="111"/>
-      <c r="DB43" s="116"/>
-      <c r="DC43" s="112"/>
-      <c r="DD43" s="111"/>
-      <c r="DE43" s="112"/>
-      <c r="DF43" s="111"/>
-      <c r="DG43" s="112"/>
-      <c r="DH43" s="111"/>
+      <c r="CV43" s="95"/>
+      <c r="CW43" s="94"/>
+      <c r="CX43" s="95"/>
+      <c r="CY43" s="94"/>
+      <c r="CZ43" s="95"/>
+      <c r="DA43" s="94"/>
+      <c r="DB43" s="99"/>
+      <c r="DC43" s="95"/>
+      <c r="DD43" s="94"/>
+      <c r="DE43" s="95"/>
+      <c r="DF43" s="94"/>
+      <c r="DG43" s="95"/>
+      <c r="DH43" s="94"/>
     </row>
     <row r="44" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
@@ -6355,138 +6354,138 @@
       <c r="CS44" s="30"/>
       <c r="CT44" s="31"/>
       <c r="CU44" s="32"/>
-      <c r="CV44" s="112"/>
-      <c r="CW44" s="111"/>
-      <c r="CX44" s="112"/>
-      <c r="CY44" s="111"/>
-      <c r="CZ44" s="112"/>
-      <c r="DA44" s="111"/>
-      <c r="DB44" s="116"/>
-      <c r="DC44" s="112"/>
-      <c r="DD44" s="111"/>
-      <c r="DE44" s="112"/>
-      <c r="DF44" s="111"/>
-      <c r="DG44" s="112"/>
-      <c r="DH44" s="111"/>
+      <c r="CV44" s="95"/>
+      <c r="CW44" s="94"/>
+      <c r="CX44" s="95"/>
+      <c r="CY44" s="94"/>
+      <c r="CZ44" s="95"/>
+      <c r="DA44" s="94"/>
+      <c r="DB44" s="99"/>
+      <c r="DC44" s="95"/>
+      <c r="DD44" s="94"/>
+      <c r="DE44" s="95"/>
+      <c r="DF44" s="94"/>
+      <c r="DG44" s="95"/>
+      <c r="DH44" s="94"/>
     </row>
     <row r="45" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="53"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="109"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="107"/>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="109"/>
-      <c r="R45" s="108"/>
-      <c r="S45" s="109"/>
-      <c r="T45" s="110"/>
-      <c r="U45" s="107"/>
-      <c r="V45" s="108"/>
-      <c r="W45" s="109"/>
-      <c r="X45" s="108"/>
-      <c r="Y45" s="109"/>
-      <c r="Z45" s="110"/>
-      <c r="AA45" s="107"/>
-      <c r="AB45" s="108"/>
-      <c r="AC45" s="109"/>
-      <c r="AD45" s="108"/>
-      <c r="AE45" s="109"/>
-      <c r="AF45" s="110"/>
-      <c r="AG45" s="107"/>
-      <c r="AH45" s="108"/>
-      <c r="AI45" s="109"/>
-      <c r="AJ45" s="108"/>
-      <c r="AK45" s="109"/>
-      <c r="AL45" s="110"/>
-      <c r="AM45" s="107"/>
-      <c r="AN45" s="108"/>
-      <c r="AO45" s="109"/>
-      <c r="AP45" s="108"/>
-      <c r="AQ45" s="109"/>
-      <c r="AR45" s="110"/>
-      <c r="AS45" s="107"/>
-      <c r="AT45" s="108"/>
-      <c r="AU45" s="109"/>
-      <c r="AV45" s="108"/>
-      <c r="AW45" s="109"/>
-      <c r="AX45" s="110"/>
-      <c r="AY45" s="107"/>
-      <c r="AZ45" s="108"/>
-      <c r="BA45" s="109"/>
-      <c r="BB45" s="108"/>
-      <c r="BC45" s="109"/>
-      <c r="BD45" s="110"/>
-      <c r="BE45" s="107"/>
-      <c r="BF45" s="108"/>
-      <c r="BG45" s="109"/>
-      <c r="BH45" s="108"/>
-      <c r="BI45" s="109"/>
-      <c r="BJ45" s="110"/>
-      <c r="BK45" s="107"/>
-      <c r="BL45" s="108"/>
-      <c r="BM45" s="109"/>
-      <c r="BN45" s="108"/>
-      <c r="BO45" s="109"/>
-      <c r="BP45" s="110"/>
-      <c r="BQ45" s="107"/>
-      <c r="BR45" s="108"/>
-      <c r="BS45" s="109"/>
-      <c r="BT45" s="108"/>
-      <c r="BU45" s="109"/>
-      <c r="BV45" s="110"/>
-      <c r="BW45" s="107"/>
-      <c r="BX45" s="108"/>
-      <c r="BY45" s="109"/>
-      <c r="BZ45" s="108"/>
-      <c r="CA45" s="109"/>
-      <c r="CB45" s="110"/>
-      <c r="CC45" s="107"/>
-      <c r="CD45" s="108"/>
-      <c r="CE45" s="109"/>
-      <c r="CF45" s="108"/>
-      <c r="CG45" s="109"/>
-      <c r="CH45" s="110"/>
-      <c r="CI45" s="107"/>
-      <c r="CJ45" s="108"/>
-      <c r="CK45" s="109"/>
-      <c r="CL45" s="108"/>
-      <c r="CM45" s="109"/>
-      <c r="CN45" s="110"/>
-      <c r="CO45" s="107"/>
-      <c r="CP45" s="108"/>
-      <c r="CQ45" s="109"/>
-      <c r="CR45" s="108"/>
-      <c r="CS45" s="109"/>
-      <c r="CT45" s="110"/>
-      <c r="CV45" s="109"/>
-      <c r="CW45" s="108"/>
-      <c r="CX45" s="109"/>
-      <c r="CY45" s="108"/>
-      <c r="CZ45" s="109"/>
-      <c r="DA45" s="108"/>
-      <c r="DB45" s="113"/>
-      <c r="DC45" s="109"/>
-      <c r="DD45" s="108"/>
-      <c r="DE45" s="109"/>
-      <c r="DF45" s="108"/>
-      <c r="DG45" s="109"/>
-      <c r="DH45" s="108"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="91"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="91"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="93"/>
+      <c r="U45" s="90"/>
+      <c r="V45" s="91"/>
+      <c r="W45" s="92"/>
+      <c r="X45" s="91"/>
+      <c r="Y45" s="92"/>
+      <c r="Z45" s="93"/>
+      <c r="AA45" s="90"/>
+      <c r="AB45" s="91"/>
+      <c r="AC45" s="92"/>
+      <c r="AD45" s="91"/>
+      <c r="AE45" s="92"/>
+      <c r="AF45" s="93"/>
+      <c r="AG45" s="90"/>
+      <c r="AH45" s="91"/>
+      <c r="AI45" s="92"/>
+      <c r="AJ45" s="91"/>
+      <c r="AK45" s="92"/>
+      <c r="AL45" s="93"/>
+      <c r="AM45" s="90"/>
+      <c r="AN45" s="91"/>
+      <c r="AO45" s="92"/>
+      <c r="AP45" s="91"/>
+      <c r="AQ45" s="92"/>
+      <c r="AR45" s="93"/>
+      <c r="AS45" s="90"/>
+      <c r="AT45" s="91"/>
+      <c r="AU45" s="92"/>
+      <c r="AV45" s="91"/>
+      <c r="AW45" s="92"/>
+      <c r="AX45" s="93"/>
+      <c r="AY45" s="90"/>
+      <c r="AZ45" s="91"/>
+      <c r="BA45" s="92"/>
+      <c r="BB45" s="91"/>
+      <c r="BC45" s="92"/>
+      <c r="BD45" s="93"/>
+      <c r="BE45" s="90"/>
+      <c r="BF45" s="91"/>
+      <c r="BG45" s="92"/>
+      <c r="BH45" s="91"/>
+      <c r="BI45" s="92"/>
+      <c r="BJ45" s="93"/>
+      <c r="BK45" s="90"/>
+      <c r="BL45" s="91"/>
+      <c r="BM45" s="92"/>
+      <c r="BN45" s="91"/>
+      <c r="BO45" s="92"/>
+      <c r="BP45" s="93"/>
+      <c r="BQ45" s="90"/>
+      <c r="BR45" s="91"/>
+      <c r="BS45" s="92"/>
+      <c r="BT45" s="91"/>
+      <c r="BU45" s="92"/>
+      <c r="BV45" s="93"/>
+      <c r="BW45" s="90"/>
+      <c r="BX45" s="91"/>
+      <c r="BY45" s="92"/>
+      <c r="BZ45" s="91"/>
+      <c r="CA45" s="92"/>
+      <c r="CB45" s="93"/>
+      <c r="CC45" s="90"/>
+      <c r="CD45" s="91"/>
+      <c r="CE45" s="92"/>
+      <c r="CF45" s="91"/>
+      <c r="CG45" s="92"/>
+      <c r="CH45" s="93"/>
+      <c r="CI45" s="90"/>
+      <c r="CJ45" s="91"/>
+      <c r="CK45" s="92"/>
+      <c r="CL45" s="91"/>
+      <c r="CM45" s="92"/>
+      <c r="CN45" s="93"/>
+      <c r="CO45" s="90"/>
+      <c r="CP45" s="91"/>
+      <c r="CQ45" s="92"/>
+      <c r="CR45" s="91"/>
+      <c r="CS45" s="92"/>
+      <c r="CT45" s="93"/>
+      <c r="CV45" s="92"/>
+      <c r="CW45" s="91"/>
+      <c r="CX45" s="92"/>
+      <c r="CY45" s="91"/>
+      <c r="CZ45" s="92"/>
+      <c r="DA45" s="91"/>
+      <c r="DB45" s="96"/>
+      <c r="DC45" s="92"/>
+      <c r="DD45" s="91"/>
+      <c r="DE45" s="92"/>
+      <c r="DF45" s="91"/>
+      <c r="DG45" s="92"/>
+      <c r="DH45" s="91"/>
     </row>
     <row r="46" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A46" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="52"/>
       <c r="C46" s="28"/>
@@ -6558,8 +6557,8 @@
       <c r="BQ46" s="28"/>
       <c r="BR46" s="29"/>
       <c r="BS46" s="30"/>
-      <c r="BT46" s="148"/>
-      <c r="BU46" s="148"/>
+      <c r="BT46" s="155"/>
+      <c r="BU46" s="155"/>
       <c r="BV46" s="31"/>
       <c r="BW46" s="28"/>
       <c r="BX46" s="29"/>
@@ -6586,23 +6585,23 @@
       <c r="CS46" s="30"/>
       <c r="CT46" s="31"/>
       <c r="CU46" s="32"/>
-      <c r="CV46" s="112"/>
-      <c r="CW46" s="111"/>
-      <c r="CX46" s="112"/>
-      <c r="CY46" s="111"/>
-      <c r="CZ46" s="112"/>
-      <c r="DA46" s="111"/>
-      <c r="DB46" s="116"/>
-      <c r="DC46" s="112"/>
-      <c r="DD46" s="111"/>
-      <c r="DE46" s="112"/>
-      <c r="DF46" s="111"/>
-      <c r="DG46" s="112"/>
-      <c r="DH46" s="111"/>
+      <c r="CV46" s="95"/>
+      <c r="CW46" s="94"/>
+      <c r="CX46" s="95"/>
+      <c r="CY46" s="94"/>
+      <c r="CZ46" s="95"/>
+      <c r="DA46" s="94"/>
+      <c r="DB46" s="99"/>
+      <c r="DC46" s="95"/>
+      <c r="DD46" s="94"/>
+      <c r="DE46" s="95"/>
+      <c r="DF46" s="94"/>
+      <c r="DG46" s="95"/>
+      <c r="DH46" s="94"/>
     </row>
     <row r="47" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="52"/>
       <c r="C47" s="28"/>
@@ -6675,20 +6674,20 @@
       <c r="BR47" s="29"/>
       <c r="BS47" s="30"/>
       <c r="BT47" s="29"/>
-      <c r="BU47" s="130"/>
-      <c r="BV47" s="130"/>
-      <c r="BW47" s="130"/>
-      <c r="BX47" s="130"/>
-      <c r="BY47" s="130"/>
-      <c r="BZ47" s="130"/>
-      <c r="CA47" s="130"/>
-      <c r="CB47" s="130"/>
-      <c r="CC47" s="130"/>
-      <c r="CD47" s="130"/>
-      <c r="CE47" s="130"/>
-      <c r="CF47" s="130"/>
-      <c r="CG47" s="130"/>
-      <c r="CH47" s="151"/>
+      <c r="BU47" s="132"/>
+      <c r="BV47" s="132"/>
+      <c r="BW47" s="132"/>
+      <c r="BX47" s="132"/>
+      <c r="BY47" s="132"/>
+      <c r="BZ47" s="132"/>
+      <c r="CA47" s="132"/>
+      <c r="CB47" s="132"/>
+      <c r="CC47" s="132"/>
+      <c r="CD47" s="132"/>
+      <c r="CE47" s="132"/>
+      <c r="CF47" s="132"/>
+      <c r="CG47" s="132"/>
+      <c r="CH47" s="156"/>
       <c r="CI47" s="28"/>
       <c r="CJ47" s="29"/>
       <c r="CK47" s="30"/>
@@ -6702,23 +6701,23 @@
       <c r="CS47" s="30"/>
       <c r="CT47" s="31"/>
       <c r="CU47" s="32"/>
-      <c r="CV47" s="112"/>
-      <c r="CW47" s="111"/>
-      <c r="CX47" s="112"/>
-      <c r="CY47" s="111"/>
-      <c r="CZ47" s="112"/>
-      <c r="DA47" s="111"/>
-      <c r="DB47" s="116"/>
-      <c r="DC47" s="112"/>
-      <c r="DD47" s="111"/>
-      <c r="DE47" s="112"/>
-      <c r="DF47" s="111"/>
-      <c r="DG47" s="112"/>
-      <c r="DH47" s="111"/>
+      <c r="CV47" s="95"/>
+      <c r="CW47" s="94"/>
+      <c r="CX47" s="95"/>
+      <c r="CY47" s="94"/>
+      <c r="CZ47" s="95"/>
+      <c r="DA47" s="94"/>
+      <c r="DB47" s="99"/>
+      <c r="DC47" s="95"/>
+      <c r="DD47" s="94"/>
+      <c r="DE47" s="95"/>
+      <c r="DF47" s="94"/>
+      <c r="DG47" s="95"/>
+      <c r="DH47" s="94"/>
     </row>
     <row r="48" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A48" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="52"/>
       <c r="C48" s="28"/>
@@ -6795,16 +6794,16 @@
       <c r="BV48" s="31"/>
       <c r="BW48" s="28"/>
       <c r="BX48" s="29"/>
-      <c r="BY48" s="149"/>
-      <c r="BZ48" s="128"/>
-      <c r="CA48" s="149"/>
-      <c r="CB48" s="128"/>
-      <c r="CC48" s="149"/>
-      <c r="CD48" s="128"/>
-      <c r="CE48" s="149"/>
-      <c r="CF48" s="128"/>
-      <c r="CG48" s="149"/>
-      <c r="CH48" s="150"/>
+      <c r="BY48" s="114"/>
+      <c r="BZ48" s="107"/>
+      <c r="CA48" s="114"/>
+      <c r="CB48" s="107"/>
+      <c r="CC48" s="114"/>
+      <c r="CD48" s="107"/>
+      <c r="CE48" s="114"/>
+      <c r="CF48" s="107"/>
+      <c r="CG48" s="114"/>
+      <c r="CH48" s="115"/>
       <c r="CI48" s="28"/>
       <c r="CJ48" s="29"/>
       <c r="CK48" s="30"/>
@@ -6818,19 +6817,19 @@
       <c r="CS48" s="30"/>
       <c r="CT48" s="31"/>
       <c r="CU48" s="32"/>
-      <c r="CV48" s="112"/>
-      <c r="CW48" s="111"/>
-      <c r="CX48" s="112"/>
-      <c r="CY48" s="111"/>
-      <c r="CZ48" s="112"/>
-      <c r="DA48" s="111"/>
-      <c r="DB48" s="116"/>
-      <c r="DC48" s="112"/>
-      <c r="DD48" s="111"/>
-      <c r="DE48" s="112"/>
-      <c r="DF48" s="111"/>
-      <c r="DG48" s="112"/>
-      <c r="DH48" s="111"/>
+      <c r="CV48" s="95"/>
+      <c r="CW48" s="94"/>
+      <c r="CX48" s="95"/>
+      <c r="CY48" s="94"/>
+      <c r="CZ48" s="95"/>
+      <c r="DA48" s="94"/>
+      <c r="DB48" s="99"/>
+      <c r="DC48" s="95"/>
+      <c r="DD48" s="94"/>
+      <c r="DE48" s="95"/>
+      <c r="DF48" s="94"/>
+      <c r="DG48" s="95"/>
+      <c r="DH48" s="94"/>
     </row>
     <row r="49" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
@@ -6932,134 +6931,134 @@
       <c r="CS49" s="30"/>
       <c r="CT49" s="31"/>
       <c r="CU49" s="32"/>
-      <c r="CV49" s="112"/>
-      <c r="CW49" s="111"/>
-      <c r="CX49" s="112"/>
-      <c r="CY49" s="111"/>
-      <c r="CZ49" s="112"/>
-      <c r="DA49" s="111"/>
-      <c r="DB49" s="116"/>
-      <c r="DC49" s="112"/>
-      <c r="DD49" s="111"/>
-      <c r="DE49" s="112"/>
-      <c r="DF49" s="111"/>
-      <c r="DG49" s="112"/>
-      <c r="DH49" s="111"/>
+      <c r="CV49" s="95"/>
+      <c r="CW49" s="94"/>
+      <c r="CX49" s="95"/>
+      <c r="CY49" s="94"/>
+      <c r="CZ49" s="95"/>
+      <c r="DA49" s="94"/>
+      <c r="DB49" s="99"/>
+      <c r="DC49" s="95"/>
+      <c r="DD49" s="94"/>
+      <c r="DE49" s="95"/>
+      <c r="DF49" s="94"/>
+      <c r="DG49" s="95"/>
+      <c r="DH49" s="94"/>
     </row>
     <row r="50" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="53"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="108"/>
-      <c r="K50" s="109"/>
-      <c r="L50" s="108"/>
-      <c r="M50" s="109"/>
-      <c r="N50" s="110"/>
-      <c r="O50" s="107"/>
-      <c r="P50" s="108"/>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="108"/>
-      <c r="S50" s="109"/>
-      <c r="T50" s="110"/>
-      <c r="U50" s="107"/>
-      <c r="V50" s="108"/>
-      <c r="W50" s="109"/>
-      <c r="X50" s="108"/>
-      <c r="Y50" s="109"/>
-      <c r="Z50" s="110"/>
-      <c r="AA50" s="107"/>
-      <c r="AB50" s="108"/>
-      <c r="AC50" s="109"/>
-      <c r="AD50" s="108"/>
-      <c r="AE50" s="109"/>
-      <c r="AF50" s="110"/>
-      <c r="AG50" s="107"/>
-      <c r="AH50" s="108"/>
-      <c r="AI50" s="109"/>
-      <c r="AJ50" s="108"/>
-      <c r="AK50" s="109"/>
-      <c r="AL50" s="110"/>
-      <c r="AM50" s="107"/>
-      <c r="AN50" s="108"/>
-      <c r="AO50" s="109"/>
-      <c r="AP50" s="108"/>
-      <c r="AQ50" s="109"/>
-      <c r="AR50" s="110"/>
-      <c r="AS50" s="107"/>
-      <c r="AT50" s="108"/>
-      <c r="AU50" s="109"/>
-      <c r="AV50" s="108"/>
-      <c r="AW50" s="109"/>
-      <c r="AX50" s="110"/>
-      <c r="AY50" s="107"/>
-      <c r="AZ50" s="108"/>
-      <c r="BA50" s="109"/>
-      <c r="BB50" s="108"/>
-      <c r="BC50" s="109"/>
-      <c r="BD50" s="110"/>
-      <c r="BE50" s="107"/>
-      <c r="BF50" s="108"/>
-      <c r="BG50" s="109"/>
-      <c r="BH50" s="108"/>
-      <c r="BI50" s="109"/>
-      <c r="BJ50" s="110"/>
-      <c r="BK50" s="107"/>
-      <c r="BL50" s="108"/>
-      <c r="BM50" s="109"/>
-      <c r="BN50" s="108"/>
-      <c r="BO50" s="109"/>
-      <c r="BP50" s="110"/>
-      <c r="BQ50" s="107"/>
-      <c r="BR50" s="108"/>
-      <c r="BS50" s="109"/>
-      <c r="BT50" s="108"/>
-      <c r="BU50" s="109"/>
-      <c r="BV50" s="110"/>
-      <c r="BW50" s="107"/>
-      <c r="BX50" s="108"/>
-      <c r="BY50" s="109"/>
-      <c r="BZ50" s="108"/>
-      <c r="CA50" s="109"/>
-      <c r="CB50" s="110"/>
-      <c r="CC50" s="107"/>
-      <c r="CD50" s="108"/>
-      <c r="CE50" s="109"/>
-      <c r="CF50" s="108"/>
-      <c r="CG50" s="109"/>
-      <c r="CH50" s="110"/>
-      <c r="CI50" s="107"/>
-      <c r="CJ50" s="108"/>
-      <c r="CK50" s="109"/>
-      <c r="CL50" s="108"/>
-      <c r="CM50" s="109"/>
-      <c r="CN50" s="110"/>
-      <c r="CO50" s="107"/>
-      <c r="CP50" s="108"/>
-      <c r="CQ50" s="109"/>
-      <c r="CR50" s="108"/>
-      <c r="CS50" s="109"/>
-      <c r="CT50" s="110"/>
-      <c r="CV50" s="109"/>
-      <c r="CW50" s="108"/>
-      <c r="CX50" s="109"/>
-      <c r="CY50" s="108"/>
-      <c r="CZ50" s="109"/>
-      <c r="DA50" s="108"/>
-      <c r="DB50" s="113"/>
-      <c r="DC50" s="109"/>
-      <c r="DD50" s="108"/>
-      <c r="DE50" s="109"/>
-      <c r="DF50" s="108"/>
-      <c r="DG50" s="109"/>
-      <c r="DH50" s="108"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="92"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="91"/>
+      <c r="Q50" s="92"/>
+      <c r="R50" s="91"/>
+      <c r="S50" s="92"/>
+      <c r="T50" s="93"/>
+      <c r="U50" s="90"/>
+      <c r="V50" s="91"/>
+      <c r="W50" s="92"/>
+      <c r="X50" s="91"/>
+      <c r="Y50" s="92"/>
+      <c r="Z50" s="93"/>
+      <c r="AA50" s="90"/>
+      <c r="AB50" s="91"/>
+      <c r="AC50" s="92"/>
+      <c r="AD50" s="91"/>
+      <c r="AE50" s="92"/>
+      <c r="AF50" s="93"/>
+      <c r="AG50" s="90"/>
+      <c r="AH50" s="91"/>
+      <c r="AI50" s="92"/>
+      <c r="AJ50" s="91"/>
+      <c r="AK50" s="92"/>
+      <c r="AL50" s="93"/>
+      <c r="AM50" s="90"/>
+      <c r="AN50" s="91"/>
+      <c r="AO50" s="92"/>
+      <c r="AP50" s="91"/>
+      <c r="AQ50" s="92"/>
+      <c r="AR50" s="93"/>
+      <c r="AS50" s="90"/>
+      <c r="AT50" s="91"/>
+      <c r="AU50" s="92"/>
+      <c r="AV50" s="91"/>
+      <c r="AW50" s="92"/>
+      <c r="AX50" s="93"/>
+      <c r="AY50" s="90"/>
+      <c r="AZ50" s="91"/>
+      <c r="BA50" s="92"/>
+      <c r="BB50" s="91"/>
+      <c r="BC50" s="92"/>
+      <c r="BD50" s="93"/>
+      <c r="BE50" s="90"/>
+      <c r="BF50" s="91"/>
+      <c r="BG50" s="92"/>
+      <c r="BH50" s="91"/>
+      <c r="BI50" s="92"/>
+      <c r="BJ50" s="93"/>
+      <c r="BK50" s="90"/>
+      <c r="BL50" s="91"/>
+      <c r="BM50" s="92"/>
+      <c r="BN50" s="91"/>
+      <c r="BO50" s="92"/>
+      <c r="BP50" s="93"/>
+      <c r="BQ50" s="90"/>
+      <c r="BR50" s="91"/>
+      <c r="BS50" s="92"/>
+      <c r="BT50" s="91"/>
+      <c r="BU50" s="92"/>
+      <c r="BV50" s="93"/>
+      <c r="BW50" s="90"/>
+      <c r="BX50" s="91"/>
+      <c r="BY50" s="92"/>
+      <c r="BZ50" s="91"/>
+      <c r="CA50" s="92"/>
+      <c r="CB50" s="93"/>
+      <c r="CC50" s="90"/>
+      <c r="CD50" s="91"/>
+      <c r="CE50" s="92"/>
+      <c r="CF50" s="91"/>
+      <c r="CG50" s="92"/>
+      <c r="CH50" s="93"/>
+      <c r="CI50" s="90"/>
+      <c r="CJ50" s="91"/>
+      <c r="CK50" s="92"/>
+      <c r="CL50" s="91"/>
+      <c r="CM50" s="92"/>
+      <c r="CN50" s="93"/>
+      <c r="CO50" s="90"/>
+      <c r="CP50" s="91"/>
+      <c r="CQ50" s="92"/>
+      <c r="CR50" s="91"/>
+      <c r="CS50" s="92"/>
+      <c r="CT50" s="93"/>
+      <c r="CV50" s="92"/>
+      <c r="CW50" s="91"/>
+      <c r="CX50" s="92"/>
+      <c r="CY50" s="91"/>
+      <c r="CZ50" s="92"/>
+      <c r="DA50" s="91"/>
+      <c r="DB50" s="96"/>
+      <c r="DC50" s="92"/>
+      <c r="DD50" s="91"/>
+      <c r="DE50" s="92"/>
+      <c r="DF50" s="91"/>
+      <c r="DG50" s="92"/>
+      <c r="DH50" s="91"/>
     </row>
     <row r="51" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A51" s="63" t="s">
@@ -7120,62 +7119,62 @@
       <c r="BB51" s="29"/>
       <c r="BC51" s="30"/>
       <c r="BD51" s="31"/>
-      <c r="BE51" s="152"/>
-      <c r="BF51" s="153"/>
-      <c r="BG51" s="153"/>
-      <c r="BH51" s="153"/>
-      <c r="BI51" s="153"/>
-      <c r="BJ51" s="153"/>
-      <c r="BK51" s="153"/>
-      <c r="BL51" s="153"/>
-      <c r="BM51" s="153"/>
-      <c r="BN51" s="153"/>
-      <c r="BO51" s="153"/>
-      <c r="BP51" s="153"/>
-      <c r="BQ51" s="153"/>
-      <c r="BR51" s="153"/>
-      <c r="BS51" s="153"/>
-      <c r="BT51" s="153"/>
-      <c r="BU51" s="153"/>
-      <c r="BV51" s="153"/>
-      <c r="BW51" s="153"/>
-      <c r="BX51" s="153"/>
-      <c r="BY51" s="153"/>
-      <c r="BZ51" s="153"/>
-      <c r="CA51" s="153"/>
-      <c r="CB51" s="153"/>
-      <c r="CC51" s="153"/>
-      <c r="CD51" s="153"/>
-      <c r="CE51" s="153"/>
-      <c r="CF51" s="153"/>
-      <c r="CG51" s="153"/>
-      <c r="CH51" s="153"/>
-      <c r="CI51" s="153"/>
-      <c r="CJ51" s="153"/>
-      <c r="CK51" s="153"/>
-      <c r="CL51" s="153"/>
-      <c r="CM51" s="153"/>
-      <c r="CN51" s="153"/>
-      <c r="CO51" s="153"/>
-      <c r="CP51" s="153"/>
-      <c r="CQ51" s="153"/>
-      <c r="CR51" s="153"/>
+      <c r="BE51" s="167"/>
+      <c r="BF51" s="168"/>
+      <c r="BG51" s="168"/>
+      <c r="BH51" s="168"/>
+      <c r="BI51" s="168"/>
+      <c r="BJ51" s="168"/>
+      <c r="BK51" s="168"/>
+      <c r="BL51" s="168"/>
+      <c r="BM51" s="168"/>
+      <c r="BN51" s="168"/>
+      <c r="BO51" s="168"/>
+      <c r="BP51" s="168"/>
+      <c r="BQ51" s="168"/>
+      <c r="BR51" s="168"/>
+      <c r="BS51" s="168"/>
+      <c r="BT51" s="168"/>
+      <c r="BU51" s="168"/>
+      <c r="BV51" s="168"/>
+      <c r="BW51" s="168"/>
+      <c r="BX51" s="168"/>
+      <c r="BY51" s="168"/>
+      <c r="BZ51" s="168"/>
+      <c r="CA51" s="168"/>
+      <c r="CB51" s="168"/>
+      <c r="CC51" s="168"/>
+      <c r="CD51" s="168"/>
+      <c r="CE51" s="168"/>
+      <c r="CF51" s="168"/>
+      <c r="CG51" s="168"/>
+      <c r="CH51" s="168"/>
+      <c r="CI51" s="168"/>
+      <c r="CJ51" s="168"/>
+      <c r="CK51" s="168"/>
+      <c r="CL51" s="168"/>
+      <c r="CM51" s="168"/>
+      <c r="CN51" s="168"/>
+      <c r="CO51" s="168"/>
+      <c r="CP51" s="168"/>
+      <c r="CQ51" s="168"/>
+      <c r="CR51" s="168"/>
       <c r="CS51" s="30"/>
       <c r="CT51" s="31"/>
       <c r="CU51" s="32"/>
-      <c r="CV51" s="112"/>
-      <c r="CW51" s="111"/>
-      <c r="CX51" s="112"/>
-      <c r="CY51" s="111"/>
-      <c r="CZ51" s="112"/>
-      <c r="DA51" s="111"/>
-      <c r="DB51" s="116"/>
-      <c r="DC51" s="112"/>
-      <c r="DD51" s="111"/>
-      <c r="DE51" s="112"/>
-      <c r="DF51" s="111"/>
-      <c r="DG51" s="112"/>
-      <c r="DH51" s="111"/>
+      <c r="CV51" s="95"/>
+      <c r="CW51" s="94"/>
+      <c r="CX51" s="95"/>
+      <c r="CY51" s="94"/>
+      <c r="CZ51" s="95"/>
+      <c r="DA51" s="94"/>
+      <c r="DB51" s="99"/>
+      <c r="DC51" s="95"/>
+      <c r="DD51" s="94"/>
+      <c r="DE51" s="95"/>
+      <c r="DF51" s="94"/>
+      <c r="DG51" s="95"/>
+      <c r="DH51" s="94"/>
     </row>
     <row r="52" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
@@ -7277,134 +7276,134 @@
       <c r="CS52" s="30"/>
       <c r="CT52" s="31"/>
       <c r="CU52" s="32"/>
-      <c r="CV52" s="112"/>
-      <c r="CW52" s="111"/>
-      <c r="CX52" s="112"/>
-      <c r="CY52" s="111"/>
-      <c r="CZ52" s="112"/>
-      <c r="DA52" s="111"/>
-      <c r="DB52" s="116"/>
-      <c r="DC52" s="112"/>
-      <c r="DD52" s="111"/>
-      <c r="DE52" s="112"/>
-      <c r="DF52" s="111"/>
-      <c r="DG52" s="112"/>
-      <c r="DH52" s="111"/>
+      <c r="CV52" s="95"/>
+      <c r="CW52" s="94"/>
+      <c r="CX52" s="95"/>
+      <c r="CY52" s="94"/>
+      <c r="CZ52" s="95"/>
+      <c r="DA52" s="94"/>
+      <c r="DB52" s="99"/>
+      <c r="DC52" s="95"/>
+      <c r="DD52" s="94"/>
+      <c r="DE52" s="95"/>
+      <c r="DF52" s="94"/>
+      <c r="DG52" s="95"/>
+      <c r="DH52" s="94"/>
     </row>
     <row r="53" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="51"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="110"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="108"/>
-      <c r="K53" s="109"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="109"/>
-      <c r="N53" s="110"/>
-      <c r="O53" s="107"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="108"/>
-      <c r="S53" s="109"/>
-      <c r="T53" s="110"/>
-      <c r="U53" s="107"/>
-      <c r="V53" s="108"/>
-      <c r="W53" s="109"/>
-      <c r="X53" s="108"/>
-      <c r="Y53" s="109"/>
-      <c r="Z53" s="110"/>
-      <c r="AA53" s="107"/>
-      <c r="AB53" s="108"/>
-      <c r="AC53" s="109"/>
-      <c r="AD53" s="108"/>
-      <c r="AE53" s="109"/>
-      <c r="AF53" s="110"/>
-      <c r="AG53" s="107"/>
-      <c r="AH53" s="108"/>
-      <c r="AI53" s="109"/>
-      <c r="AJ53" s="108"/>
-      <c r="AK53" s="109"/>
-      <c r="AL53" s="110"/>
-      <c r="AM53" s="107"/>
-      <c r="AN53" s="108"/>
-      <c r="AO53" s="109"/>
-      <c r="AP53" s="108"/>
-      <c r="AQ53" s="109"/>
-      <c r="AR53" s="110"/>
-      <c r="AS53" s="107"/>
-      <c r="AT53" s="108"/>
-      <c r="AU53" s="109"/>
-      <c r="AV53" s="108"/>
-      <c r="AW53" s="109"/>
-      <c r="AX53" s="110"/>
-      <c r="AY53" s="107"/>
-      <c r="AZ53" s="108"/>
-      <c r="BA53" s="109"/>
-      <c r="BB53" s="108"/>
-      <c r="BC53" s="109"/>
-      <c r="BD53" s="110"/>
-      <c r="BE53" s="107"/>
-      <c r="BF53" s="108"/>
-      <c r="BG53" s="109"/>
-      <c r="BH53" s="108"/>
-      <c r="BI53" s="109"/>
-      <c r="BJ53" s="110"/>
-      <c r="BK53" s="107"/>
-      <c r="BL53" s="108"/>
-      <c r="BM53" s="109"/>
-      <c r="BN53" s="108"/>
-      <c r="BO53" s="109"/>
-      <c r="BP53" s="110"/>
-      <c r="BQ53" s="107"/>
-      <c r="BR53" s="108"/>
-      <c r="BS53" s="109"/>
-      <c r="BT53" s="108"/>
-      <c r="BU53" s="109"/>
-      <c r="BV53" s="110"/>
-      <c r="BW53" s="107"/>
-      <c r="BX53" s="108"/>
-      <c r="BY53" s="109"/>
-      <c r="BZ53" s="108"/>
-      <c r="CA53" s="109"/>
-      <c r="CB53" s="110"/>
-      <c r="CC53" s="107"/>
-      <c r="CD53" s="108"/>
-      <c r="CE53" s="109"/>
-      <c r="CF53" s="108"/>
-      <c r="CG53" s="109"/>
-      <c r="CH53" s="110"/>
-      <c r="CI53" s="107"/>
-      <c r="CJ53" s="108"/>
-      <c r="CK53" s="109"/>
-      <c r="CL53" s="108"/>
-      <c r="CM53" s="109"/>
-      <c r="CN53" s="110"/>
-      <c r="CO53" s="107"/>
-      <c r="CP53" s="108"/>
-      <c r="CQ53" s="109"/>
-      <c r="CR53" s="108"/>
-      <c r="CS53" s="109"/>
-      <c r="CT53" s="110"/>
-      <c r="CV53" s="109"/>
-      <c r="CW53" s="108"/>
-      <c r="CX53" s="109"/>
-      <c r="CY53" s="108"/>
-      <c r="CZ53" s="109"/>
-      <c r="DA53" s="108"/>
-      <c r="DB53" s="113"/>
-      <c r="DC53" s="109"/>
-      <c r="DD53" s="108"/>
-      <c r="DE53" s="109"/>
-      <c r="DF53" s="108"/>
-      <c r="DG53" s="109"/>
-      <c r="DH53" s="108"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="92"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="92"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="91"/>
+      <c r="Q53" s="92"/>
+      <c r="R53" s="91"/>
+      <c r="S53" s="92"/>
+      <c r="T53" s="93"/>
+      <c r="U53" s="90"/>
+      <c r="V53" s="91"/>
+      <c r="W53" s="92"/>
+      <c r="X53" s="91"/>
+      <c r="Y53" s="92"/>
+      <c r="Z53" s="93"/>
+      <c r="AA53" s="90"/>
+      <c r="AB53" s="91"/>
+      <c r="AC53" s="92"/>
+      <c r="AD53" s="91"/>
+      <c r="AE53" s="92"/>
+      <c r="AF53" s="93"/>
+      <c r="AG53" s="90"/>
+      <c r="AH53" s="91"/>
+      <c r="AI53" s="92"/>
+      <c r="AJ53" s="91"/>
+      <c r="AK53" s="92"/>
+      <c r="AL53" s="93"/>
+      <c r="AM53" s="90"/>
+      <c r="AN53" s="91"/>
+      <c r="AO53" s="92"/>
+      <c r="AP53" s="91"/>
+      <c r="AQ53" s="92"/>
+      <c r="AR53" s="93"/>
+      <c r="AS53" s="90"/>
+      <c r="AT53" s="91"/>
+      <c r="AU53" s="92"/>
+      <c r="AV53" s="91"/>
+      <c r="AW53" s="92"/>
+      <c r="AX53" s="93"/>
+      <c r="AY53" s="90"/>
+      <c r="AZ53" s="91"/>
+      <c r="BA53" s="92"/>
+      <c r="BB53" s="91"/>
+      <c r="BC53" s="92"/>
+      <c r="BD53" s="93"/>
+      <c r="BE53" s="90"/>
+      <c r="BF53" s="91"/>
+      <c r="BG53" s="92"/>
+      <c r="BH53" s="91"/>
+      <c r="BI53" s="92"/>
+      <c r="BJ53" s="93"/>
+      <c r="BK53" s="90"/>
+      <c r="BL53" s="91"/>
+      <c r="BM53" s="92"/>
+      <c r="BN53" s="91"/>
+      <c r="BO53" s="92"/>
+      <c r="BP53" s="93"/>
+      <c r="BQ53" s="90"/>
+      <c r="BR53" s="91"/>
+      <c r="BS53" s="92"/>
+      <c r="BT53" s="91"/>
+      <c r="BU53" s="92"/>
+      <c r="BV53" s="93"/>
+      <c r="BW53" s="90"/>
+      <c r="BX53" s="91"/>
+      <c r="BY53" s="92"/>
+      <c r="BZ53" s="91"/>
+      <c r="CA53" s="92"/>
+      <c r="CB53" s="93"/>
+      <c r="CC53" s="90"/>
+      <c r="CD53" s="91"/>
+      <c r="CE53" s="92"/>
+      <c r="CF53" s="91"/>
+      <c r="CG53" s="92"/>
+      <c r="CH53" s="93"/>
+      <c r="CI53" s="90"/>
+      <c r="CJ53" s="91"/>
+      <c r="CK53" s="92"/>
+      <c r="CL53" s="91"/>
+      <c r="CM53" s="92"/>
+      <c r="CN53" s="93"/>
+      <c r="CO53" s="90"/>
+      <c r="CP53" s="91"/>
+      <c r="CQ53" s="92"/>
+      <c r="CR53" s="91"/>
+      <c r="CS53" s="92"/>
+      <c r="CT53" s="93"/>
+      <c r="CV53" s="92"/>
+      <c r="CW53" s="91"/>
+      <c r="CX53" s="92"/>
+      <c r="CY53" s="91"/>
+      <c r="CZ53" s="92"/>
+      <c r="DA53" s="91"/>
+      <c r="DB53" s="96"/>
+      <c r="DC53" s="92"/>
+      <c r="DD53" s="91"/>
+      <c r="DE53" s="92"/>
+      <c r="DF53" s="91"/>
+      <c r="DG53" s="92"/>
+      <c r="DH53" s="91"/>
     </row>
     <row r="54" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
@@ -7414,7 +7413,7 @@
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
-      <c r="F54" s="146"/>
+      <c r="F54" s="112"/>
       <c r="G54" s="30"/>
       <c r="H54" s="31"/>
       <c r="I54" s="28"/>
@@ -7432,13 +7431,13 @@
       <c r="U54" s="28"/>
       <c r="V54" s="29"/>
       <c r="W54" s="29"/>
-      <c r="X54" s="146"/>
+      <c r="X54" s="112"/>
       <c r="Y54" s="30"/>
       <c r="Z54" s="31"/>
       <c r="AA54" s="28"/>
       <c r="AB54" s="29"/>
       <c r="AC54" s="30"/>
-      <c r="AD54" s="146"/>
+      <c r="AD54" s="112"/>
       <c r="AE54" s="30"/>
       <c r="AF54" s="31"/>
       <c r="AG54" s="28"/>
@@ -7456,7 +7455,7 @@
       <c r="AS54" s="28"/>
       <c r="AT54" s="29"/>
       <c r="AU54" s="30"/>
-      <c r="AV54" s="146"/>
+      <c r="AV54" s="112"/>
       <c r="AW54" s="30"/>
       <c r="AX54" s="31"/>
       <c r="AY54" s="28"/>
@@ -7468,7 +7467,7 @@
       <c r="BE54" s="28"/>
       <c r="BF54" s="29"/>
       <c r="BG54" s="30"/>
-      <c r="BH54" s="146"/>
+      <c r="BH54" s="112"/>
       <c r="BI54" s="30"/>
       <c r="BJ54" s="31"/>
       <c r="BK54" s="28"/>
@@ -7480,7 +7479,7 @@
       <c r="BQ54" s="28"/>
       <c r="BR54" s="29"/>
       <c r="BS54" s="30"/>
-      <c r="BT54" s="146"/>
+      <c r="BT54" s="112"/>
       <c r="BU54" s="30"/>
       <c r="BV54" s="31"/>
       <c r="BW54" s="28"/>
@@ -7491,7 +7490,7 @@
       <c r="CB54" s="31"/>
       <c r="CC54" s="28"/>
       <c r="CD54" s="29"/>
-      <c r="CE54" s="147"/>
+      <c r="CE54" s="113"/>
       <c r="CF54" s="29"/>
       <c r="CG54" s="30"/>
       <c r="CH54" s="31"/>
@@ -7508,19 +7507,19 @@
       <c r="CS54" s="30"/>
       <c r="CT54" s="31"/>
       <c r="CU54" s="32"/>
-      <c r="CV54" s="112"/>
-      <c r="CW54" s="111"/>
-      <c r="CX54" s="112"/>
-      <c r="CY54" s="111"/>
-      <c r="CZ54" s="112"/>
-      <c r="DA54" s="111"/>
-      <c r="DB54" s="116"/>
-      <c r="DC54" s="112"/>
-      <c r="DD54" s="111"/>
-      <c r="DE54" s="112"/>
-      <c r="DF54" s="111"/>
-      <c r="DG54" s="112"/>
-      <c r="DH54" s="111"/>
+      <c r="CV54" s="95"/>
+      <c r="CW54" s="94"/>
+      <c r="CX54" s="95"/>
+      <c r="CY54" s="94"/>
+      <c r="CZ54" s="95"/>
+      <c r="DA54" s="94"/>
+      <c r="DB54" s="99"/>
+      <c r="DC54" s="95"/>
+      <c r="DD54" s="94"/>
+      <c r="DE54" s="95"/>
+      <c r="DF54" s="94"/>
+      <c r="DG54" s="95"/>
+      <c r="DH54" s="94"/>
     </row>
     <row r="55" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
@@ -7530,7 +7529,7 @@
       <c r="C55" s="28"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
-      <c r="F55" s="128"/>
+      <c r="F55" s="107"/>
       <c r="G55" s="30"/>
       <c r="H55" s="31"/>
       <c r="I55" s="28"/>
@@ -7548,13 +7547,13 @@
       <c r="U55" s="28"/>
       <c r="V55" s="29"/>
       <c r="W55" s="29"/>
-      <c r="X55" s="128"/>
+      <c r="X55" s="107"/>
       <c r="Y55" s="30"/>
       <c r="Z55" s="31"/>
       <c r="AA55" s="28"/>
       <c r="AB55" s="29"/>
       <c r="AC55" s="30"/>
-      <c r="AD55" s="128"/>
+      <c r="AD55" s="107"/>
       <c r="AE55" s="30"/>
       <c r="AF55" s="31"/>
       <c r="AG55" s="28"/>
@@ -7572,7 +7571,7 @@
       <c r="AS55" s="28"/>
       <c r="AT55" s="29"/>
       <c r="AU55" s="30"/>
-      <c r="AV55" s="128"/>
+      <c r="AV55" s="107"/>
       <c r="AW55" s="30"/>
       <c r="AX55" s="31"/>
       <c r="AY55" s="28"/>
@@ -7584,7 +7583,7 @@
       <c r="BE55" s="28"/>
       <c r="BF55" s="29"/>
       <c r="BG55" s="30"/>
-      <c r="BH55" s="128"/>
+      <c r="BH55" s="107"/>
       <c r="BI55" s="30"/>
       <c r="BJ55" s="31"/>
       <c r="BK55" s="28"/>
@@ -7596,7 +7595,7 @@
       <c r="BQ55" s="28"/>
       <c r="BR55" s="29"/>
       <c r="BS55" s="30"/>
-      <c r="BT55" s="128"/>
+      <c r="BT55" s="107"/>
       <c r="BU55" s="30"/>
       <c r="BV55" s="31"/>
       <c r="BW55" s="28"/>
@@ -7607,7 +7606,7 @@
       <c r="CB55" s="31"/>
       <c r="CC55" s="28"/>
       <c r="CD55" s="29"/>
-      <c r="CE55" s="149"/>
+      <c r="CE55" s="114"/>
       <c r="CF55" s="29"/>
       <c r="CG55" s="30"/>
       <c r="CH55" s="31"/>
@@ -7624,148 +7623,148 @@
       <c r="CS55" s="30"/>
       <c r="CT55" s="31"/>
       <c r="CU55" s="32"/>
-      <c r="CV55" s="112"/>
-      <c r="CW55" s="111"/>
-      <c r="CX55" s="112"/>
-      <c r="CY55" s="111"/>
-      <c r="CZ55" s="112"/>
-      <c r="DA55" s="111"/>
-      <c r="DB55" s="116"/>
-      <c r="DC55" s="112"/>
-      <c r="DD55" s="111"/>
-      <c r="DE55" s="112"/>
-      <c r="DF55" s="111"/>
-      <c r="DG55" s="112"/>
-      <c r="DH55" s="111"/>
+      <c r="CV55" s="95"/>
+      <c r="CW55" s="94"/>
+      <c r="CX55" s="95"/>
+      <c r="CY55" s="94"/>
+      <c r="CZ55" s="95"/>
+      <c r="DA55" s="94"/>
+      <c r="DB55" s="99"/>
+      <c r="DC55" s="95"/>
+      <c r="DD55" s="94"/>
+      <c r="DE55" s="95"/>
+      <c r="DF55" s="94"/>
+      <c r="DG55" s="95"/>
+      <c r="DH55" s="94"/>
     </row>
     <row r="56" spans="1:112" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="72"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="123"/>
-      <c r="N56" s="124"/>
-      <c r="O56" s="121"/>
-      <c r="P56" s="122"/>
-      <c r="Q56" s="122"/>
-      <c r="R56" s="122"/>
-      <c r="S56" s="123"/>
-      <c r="T56" s="124"/>
-      <c r="U56" s="121"/>
-      <c r="V56" s="122"/>
-      <c r="W56" s="122"/>
-      <c r="X56" s="122"/>
-      <c r="Y56" s="123"/>
-      <c r="Z56" s="124"/>
-      <c r="AA56" s="121"/>
-      <c r="AB56" s="122"/>
-      <c r="AC56" s="123"/>
-      <c r="AD56" s="122"/>
-      <c r="AE56" s="123"/>
-      <c r="AF56" s="124"/>
-      <c r="AG56" s="121"/>
-      <c r="AH56" s="122"/>
-      <c r="AI56" s="123"/>
-      <c r="AJ56" s="122"/>
-      <c r="AK56" s="123"/>
-      <c r="AL56" s="124"/>
-      <c r="AM56" s="121"/>
-      <c r="AN56" s="122"/>
-      <c r="AO56" s="123"/>
-      <c r="AP56" s="122"/>
-      <c r="AQ56" s="123"/>
-      <c r="AR56" s="124"/>
-      <c r="AS56" s="121"/>
-      <c r="AT56" s="122"/>
-      <c r="AU56" s="123"/>
-      <c r="AV56" s="122"/>
-      <c r="AW56" s="123"/>
-      <c r="AX56" s="124"/>
-      <c r="AY56" s="121"/>
-      <c r="AZ56" s="122"/>
-      <c r="BA56" s="123"/>
-      <c r="BB56" s="122"/>
-      <c r="BC56" s="123"/>
-      <c r="BD56" s="124"/>
-      <c r="BE56" s="121"/>
-      <c r="BF56" s="122"/>
-      <c r="BG56" s="123"/>
-      <c r="BH56" s="122"/>
-      <c r="BI56" s="123"/>
-      <c r="BJ56" s="124"/>
-      <c r="BK56" s="121"/>
-      <c r="BL56" s="122"/>
-      <c r="BM56" s="123"/>
-      <c r="BN56" s="122"/>
-      <c r="BO56" s="123"/>
-      <c r="BP56" s="124"/>
-      <c r="BQ56" s="121"/>
-      <c r="BR56" s="122"/>
-      <c r="BS56" s="123"/>
-      <c r="BT56" s="122"/>
-      <c r="BU56" s="123"/>
-      <c r="BV56" s="124"/>
-      <c r="BW56" s="121"/>
-      <c r="BX56" s="122"/>
-      <c r="BY56" s="123"/>
-      <c r="BZ56" s="122"/>
-      <c r="CA56" s="123"/>
-      <c r="CB56" s="124"/>
-      <c r="CC56" s="121"/>
-      <c r="CD56" s="122"/>
-      <c r="CE56" s="123"/>
-      <c r="CF56" s="122"/>
-      <c r="CG56" s="123"/>
-      <c r="CH56" s="124"/>
-      <c r="CI56" s="121"/>
-      <c r="CJ56" s="122"/>
-      <c r="CK56" s="123"/>
-      <c r="CL56" s="122"/>
-      <c r="CM56" s="123"/>
-      <c r="CN56" s="124"/>
-      <c r="CO56" s="121"/>
-      <c r="CP56" s="122"/>
-      <c r="CQ56" s="123"/>
-      <c r="CR56" s="122"/>
-      <c r="CS56" s="123"/>
-      <c r="CT56" s="124"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="106"/>
+      <c r="O56" s="103"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="105"/>
+      <c r="T56" s="106"/>
+      <c r="U56" s="103"/>
+      <c r="V56" s="104"/>
+      <c r="W56" s="104"/>
+      <c r="X56" s="104"/>
+      <c r="Y56" s="105"/>
+      <c r="Z56" s="106"/>
+      <c r="AA56" s="103"/>
+      <c r="AB56" s="104"/>
+      <c r="AC56" s="105"/>
+      <c r="AD56" s="104"/>
+      <c r="AE56" s="105"/>
+      <c r="AF56" s="106"/>
+      <c r="AG56" s="103"/>
+      <c r="AH56" s="104"/>
+      <c r="AI56" s="105"/>
+      <c r="AJ56" s="104"/>
+      <c r="AK56" s="105"/>
+      <c r="AL56" s="106"/>
+      <c r="AM56" s="103"/>
+      <c r="AN56" s="104"/>
+      <c r="AO56" s="105"/>
+      <c r="AP56" s="104"/>
+      <c r="AQ56" s="105"/>
+      <c r="AR56" s="106"/>
+      <c r="AS56" s="103"/>
+      <c r="AT56" s="104"/>
+      <c r="AU56" s="105"/>
+      <c r="AV56" s="104"/>
+      <c r="AW56" s="105"/>
+      <c r="AX56" s="106"/>
+      <c r="AY56" s="103"/>
+      <c r="AZ56" s="104"/>
+      <c r="BA56" s="105"/>
+      <c r="BB56" s="104"/>
+      <c r="BC56" s="105"/>
+      <c r="BD56" s="106"/>
+      <c r="BE56" s="103"/>
+      <c r="BF56" s="104"/>
+      <c r="BG56" s="105"/>
+      <c r="BH56" s="104"/>
+      <c r="BI56" s="105"/>
+      <c r="BJ56" s="106"/>
+      <c r="BK56" s="103"/>
+      <c r="BL56" s="104"/>
+      <c r="BM56" s="105"/>
+      <c r="BN56" s="104"/>
+      <c r="BO56" s="105"/>
+      <c r="BP56" s="106"/>
+      <c r="BQ56" s="103"/>
+      <c r="BR56" s="104"/>
+      <c r="BS56" s="105"/>
+      <c r="BT56" s="104"/>
+      <c r="BU56" s="105"/>
+      <c r="BV56" s="106"/>
+      <c r="BW56" s="103"/>
+      <c r="BX56" s="104"/>
+      <c r="BY56" s="105"/>
+      <c r="BZ56" s="104"/>
+      <c r="CA56" s="105"/>
+      <c r="CB56" s="106"/>
+      <c r="CC56" s="103"/>
+      <c r="CD56" s="104"/>
+      <c r="CE56" s="105"/>
+      <c r="CF56" s="104"/>
+      <c r="CG56" s="105"/>
+      <c r="CH56" s="106"/>
+      <c r="CI56" s="103"/>
+      <c r="CJ56" s="104"/>
+      <c r="CK56" s="105"/>
+      <c r="CL56" s="104"/>
+      <c r="CM56" s="105"/>
+      <c r="CN56" s="106"/>
+      <c r="CO56" s="103"/>
+      <c r="CP56" s="104"/>
+      <c r="CQ56" s="105"/>
+      <c r="CR56" s="104"/>
+      <c r="CS56" s="105"/>
+      <c r="CT56" s="106"/>
       <c r="CU56" s="32"/>
-      <c r="CV56" s="112"/>
-      <c r="CW56" s="111"/>
-      <c r="CX56" s="112"/>
-      <c r="CY56" s="111"/>
-      <c r="CZ56" s="112"/>
-      <c r="DA56" s="111"/>
-      <c r="DB56" s="116"/>
-      <c r="DC56" s="112"/>
-      <c r="DD56" s="111"/>
-      <c r="DE56" s="112"/>
-      <c r="DF56" s="111"/>
-      <c r="DG56" s="112"/>
-      <c r="DH56" s="111"/>
+      <c r="CV56" s="95"/>
+      <c r="CW56" s="94"/>
+      <c r="CX56" s="95"/>
+      <c r="CY56" s="94"/>
+      <c r="CZ56" s="95"/>
+      <c r="DA56" s="94"/>
+      <c r="DB56" s="99"/>
+      <c r="DC56" s="95"/>
+      <c r="DD56" s="94"/>
+      <c r="DE56" s="95"/>
+      <c r="DF56" s="94"/>
+      <c r="DG56" s="95"/>
+      <c r="DH56" s="94"/>
     </row>
     <row r="57" spans="1:112" x14ac:dyDescent="0.2">
       <c r="B57" s="73"/>
       <c r="C57" s="32"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="111"/>
-      <c r="L57" s="112"/>
-      <c r="M57" s="111"/>
-      <c r="N57" s="112"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="95"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
@@ -7782,31 +7781,31 @@
       <c r="A58" s="1"/>
       <c r="B58" s="80"/>
       <c r="D58" s="22"/>
-      <c r="E58" s="117"/>
+      <c r="E58" s="100"/>
       <c r="F58" s="22"/>
-      <c r="G58" s="117"/>
+      <c r="G58" s="100"/>
       <c r="H58" s="22"/>
-      <c r="I58" s="115"/>
+      <c r="I58" s="98"/>
       <c r="J58" s="22"/>
-      <c r="K58" s="117"/>
+      <c r="K58" s="100"/>
       <c r="L58" s="22"/>
-      <c r="M58" s="117"/>
+      <c r="M58" s="100"/>
       <c r="N58" s="22"/>
     </row>
     <row r="59" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="80"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="118"/>
-      <c r="I59" s="115"/>
-      <c r="J59" s="118"/>
-      <c r="K59" s="118"/>
-      <c r="L59" s="118"/>
-      <c r="M59" s="118"/>
-      <c r="N59" s="118"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="101"/>
+      <c r="L59" s="101"/>
+      <c r="M59" s="101"/>
+      <c r="N59" s="101"/>
     </row>
     <row r="60" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
@@ -7865,10 +7864,12 @@
       <c r="Z61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="75">
+    <mergeCell ref="CR11:DE11"/>
+    <mergeCell ref="BK43:BR43"/>
+    <mergeCell ref="AT43:AY43"/>
     <mergeCell ref="BT46:BU46"/>
     <mergeCell ref="BU47:CH47"/>
-    <mergeCell ref="BE51:CR51"/>
     <mergeCell ref="I6:V6"/>
     <mergeCell ref="W6:AH6"/>
     <mergeCell ref="AI6:BP6"/>
@@ -7879,8 +7880,6 @@
     <mergeCell ref="AI31:AK31"/>
     <mergeCell ref="AI33:AK33"/>
     <mergeCell ref="AW32:AY32"/>
-    <mergeCell ref="CR11:CV11"/>
-    <mergeCell ref="I20:P20"/>
     <mergeCell ref="AW10:AZ10"/>
     <mergeCell ref="AJ39:AZ39"/>
     <mergeCell ref="Q23:Y23"/>
@@ -7896,11 +7895,6 @@
     <mergeCell ref="CG14:CH14"/>
     <mergeCell ref="CI14:CJ14"/>
     <mergeCell ref="CM14:CN14"/>
-    <mergeCell ref="BE14:BF14"/>
-    <mergeCell ref="BI14:BJ14"/>
-    <mergeCell ref="BK14:BL14"/>
-    <mergeCell ref="BO14:BP14"/>
-    <mergeCell ref="BQ14:BR14"/>
     <mergeCell ref="BU14:BV14"/>
     <mergeCell ref="AM14:AN14"/>
     <mergeCell ref="AQ14:AR14"/>
@@ -7908,11 +7902,11 @@
     <mergeCell ref="AW14:AX14"/>
     <mergeCell ref="AY14:AZ14"/>
     <mergeCell ref="BC14:BD14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="BE14:BF14"/>
+    <mergeCell ref="BI14:BJ14"/>
+    <mergeCell ref="BK14:BL14"/>
+    <mergeCell ref="BO14:BP14"/>
+    <mergeCell ref="BQ14:BR14"/>
     <mergeCell ref="AK14:AL14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G14:H14"/>
@@ -7920,26 +7914,32 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AS13:AX13"/>
+    <mergeCell ref="AY13:BD13"/>
+    <mergeCell ref="BE13:BJ13"/>
+    <mergeCell ref="BK13:BP13"/>
+    <mergeCell ref="BQ13:BV13"/>
+    <mergeCell ref="G20:P20"/>
+    <mergeCell ref="AG13:AL13"/>
+    <mergeCell ref="AW11:BD11"/>
+    <mergeCell ref="AA11:AF11"/>
+    <mergeCell ref="CI6:CT6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="U13:Z13"/>
+    <mergeCell ref="AA13:AF13"/>
     <mergeCell ref="BW13:CB13"/>
     <mergeCell ref="CC13:CH13"/>
     <mergeCell ref="CI13:CN13"/>
     <mergeCell ref="CO13:CT13"/>
     <mergeCell ref="AM13:AR13"/>
-    <mergeCell ref="AS13:AX13"/>
-    <mergeCell ref="AY13:BD13"/>
-    <mergeCell ref="BE13:BJ13"/>
-    <mergeCell ref="BK13:BP13"/>
-    <mergeCell ref="BQ13:BV13"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="U13:Z13"/>
-    <mergeCell ref="AA13:AF13"/>
-    <mergeCell ref="AG13:AL13"/>
-    <mergeCell ref="AW11:BD11"/>
-    <mergeCell ref="AA11:AF11"/>
-    <mergeCell ref="CI6:CT6"/>
-    <mergeCell ref="C6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/SoftwareManagement/Projektplan.xlsx
+++ b/doc/SoftwareManagement/Projektplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22221"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="10820" windowHeight="10100" tabRatio="676" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10815" windowHeight="10095" tabRatio="676"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
+    <sheet name="Projektplan" sheetId="13" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>Task</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Object Caching</t>
   </si>
   <si>
-    <t>Semesterarbeit</t>
-  </si>
-  <si>
     <t>Lukas Hofmaier</t>
   </si>
   <si>
@@ -284,6 +281,12 @@
   </si>
   <si>
     <t>Semesterdaten</t>
+  </si>
+  <si>
+    <t>Studienarbeit</t>
+  </si>
+  <si>
+    <t>Korrekturen am Zeitplan</t>
   </si>
 </sst>
 </file>
@@ -1045,85 +1048,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1140,28 +1093,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1539,24 +1542,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A3:F29"/>
+  <dimension ref="A3:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="40.1640625" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="28">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.4">
       <c r="A3" s="123" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B3" s="123"/>
       <c r="C3" s="123"/>
@@ -1564,7 +1567,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1572,7 +1575,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="31">
+    <row r="5" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A5" s="122" t="s">
         <v>49</v>
       </c>
@@ -1582,15 +1585,15 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="126"/>
       <c r="B6" s="127"/>
       <c r="C6" s="127"/>
       <c r="D6" s="127"/>
     </row>
-    <row r="7" spans="1:6" s="30" customFormat="1"/>
-    <row r="8" spans="1:6" ht="13" thickBot="1"/>
-    <row r="9" spans="1:6" ht="19" thickBot="1">
+    <row r="7" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="52" t="s">
         <v>9</v>
       </c>
@@ -1602,27 +1605,27 @@
       </c>
       <c r="F9" s="124"/>
     </row>
-    <row r="10" spans="1:6" ht="18">
+    <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B10" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="125">
         <v>40959</v>
       </c>
       <c r="F10" s="125"/>
     </row>
-    <row r="11" spans="1:6" ht="18">
+    <row r="11" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B11" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19" thickBot="1">
+    <row r="12" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="56" t="s">
         <v>29</v>
       </c>
@@ -1630,8 +1633,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13" thickBot="1"/>
-    <row r="15" spans="1:6" ht="24">
+    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
         <v>33</v>
       </c>
@@ -1639,10 +1642,10 @@
         <v>40959</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13" thickBot="1">
+    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>34</v>
       </c>
@@ -1650,15 +1653,15 @@
         <v>40959</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="29" customFormat="1" ht="13" thickBot="1">
+    <row r="18" spans="2:6" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="29" customFormat="1">
+    <row r="19" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="42" t="s">
         <v>36</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="29" customFormat="1">
+    <row r="20" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="38">
         <v>1</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="40">
-        <v>40965</v>
+        <v>40964</v>
       </c>
       <c r="E20" s="39" t="s">
         <v>30</v>
@@ -1692,7 +1695,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="29" customFormat="1">
+    <row r="21" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="38">
         <v>1.1000000000000001</v>
       </c>
@@ -1700,7 +1703,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="40">
-        <v>40970</v>
+        <v>40964</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>30</v>
@@ -1709,30 +1712,47 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="29" customFormat="1" ht="13" thickBot="1">
-      <c r="B22" s="45">
+    <row r="22" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="38">
         <v>1.2</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="40">
+        <v>40984</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="45">
+        <v>1.3</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="65">
         <v>41052</v>
       </c>
-      <c r="E22" s="111" t="s">
+      <c r="E23" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="112" t="s">
-        <v>84</v>
+      <c r="F23" s="112" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="29" customFormat="1"/>
-    <row r="24" spans="2:6" s="29" customFormat="1"/>
-    <row r="25" spans="2:6" s="29" customFormat="1"/>
-    <row r="26" spans="2:6" s="29" customFormat="1"/>
-    <row r="27" spans="2:6" s="29" customFormat="1"/>
-    <row r="28" spans="2:6" s="29" customFormat="1"/>
-    <row r="29" spans="2:6" s="29" customFormat="1"/>
+    <row r="24" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A5:D5"/>
@@ -1757,45 +1777,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.83203125" style="69" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="69" customWidth="1"/>
-    <col min="3" max="12" width="4.5" style="69" customWidth="1"/>
-    <col min="13" max="14" width="5.6640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.5" style="69" customWidth="1"/>
-    <col min="19" max="19" width="5.33203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" style="69" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="69" customWidth="1"/>
+    <col min="3" max="12" width="4.42578125" style="69" customWidth="1"/>
+    <col min="13" max="14" width="5.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.42578125" style="69" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" style="69" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" style="69" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.6640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.5" style="69" customWidth="1"/>
-    <col min="24" max="24" width="4.83203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.83203125" style="69" customWidth="1"/>
-    <col min="26" max="26" width="4.5" style="6" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="4.5" style="6" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.42578125" style="69" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="69" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="4.42578125" style="6" customWidth="1"/>
     <col min="31" max="31" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="36" width="4.5" style="6" customWidth="1"/>
+    <col min="32" max="36" width="4.42578125" style="6" customWidth="1"/>
     <col min="37" max="37" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="42" width="4.5" style="6" customWidth="1"/>
+    <col min="38" max="42" width="4.42578125" style="6" customWidth="1"/>
     <col min="43" max="43" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="44" max="92" width="4.5" style="6" customWidth="1"/>
-    <col min="93" max="112" width="4.6640625" style="6" customWidth="1"/>
-    <col min="113" max="113" width="4.5" style="6" customWidth="1"/>
-    <col min="114" max="16384" width="9.1640625" style="6"/>
+    <col min="44" max="92" width="4.42578125" style="6" customWidth="1"/>
+    <col min="93" max="112" width="4.7109375" style="6" customWidth="1"/>
+    <col min="113" max="113" width="4.42578125" style="6" customWidth="1"/>
+    <col min="114" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="17">
+    <row r="1" spans="1:119" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:119" ht="13.5" customHeight="1">
+    <row r="2" spans="1:119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="108"/>
       <c r="C2" s="64"/>
@@ -1807,117 +1827,117 @@
       <c r="CS2" s="64"/>
       <c r="CT2" s="64"/>
     </row>
-    <row r="3" spans="1:119" ht="13">
+    <row r="3" spans="1:119" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="135" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="136" t="s">
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="137" t="s">
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="AJ3" s="137"/>
-      <c r="AK3" s="137"/>
-      <c r="AL3" s="137"/>
-      <c r="AM3" s="137"/>
-      <c r="AN3" s="137"/>
-      <c r="AO3" s="137"/>
-      <c r="AP3" s="137"/>
-      <c r="AQ3" s="137"/>
-      <c r="AR3" s="137"/>
-      <c r="AS3" s="137"/>
-      <c r="AT3" s="137"/>
-      <c r="AU3" s="137"/>
-      <c r="AV3" s="137"/>
-      <c r="AW3" s="137"/>
-      <c r="AX3" s="137"/>
-      <c r="AY3" s="137"/>
-      <c r="AZ3" s="137"/>
-      <c r="BA3" s="137"/>
-      <c r="BB3" s="137"/>
-      <c r="BC3" s="137"/>
-      <c r="BD3" s="137"/>
-      <c r="BE3" s="137"/>
-      <c r="BF3" s="137"/>
-      <c r="BG3" s="137"/>
-      <c r="BH3" s="137"/>
-      <c r="BI3" s="137"/>
-      <c r="BJ3" s="137"/>
-      <c r="BK3" s="137"/>
-      <c r="BL3" s="137"/>
-      <c r="BM3" s="137"/>
-      <c r="BN3" s="137"/>
-      <c r="BO3" s="137"/>
-      <c r="BP3" s="137"/>
-      <c r="BQ3" s="136" t="s">
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="146"/>
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="146"/>
+      <c r="AE3" s="146"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="146"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="BR3" s="136"/>
-      <c r="BS3" s="136"/>
-      <c r="BT3" s="136"/>
-      <c r="BU3" s="136"/>
-      <c r="BV3" s="136"/>
-      <c r="BW3" s="136"/>
-      <c r="BX3" s="136"/>
-      <c r="BY3" s="136"/>
-      <c r="BZ3" s="136"/>
-      <c r="CA3" s="136"/>
-      <c r="CB3" s="136"/>
-      <c r="CC3" s="136"/>
-      <c r="CD3" s="136"/>
-      <c r="CE3" s="136"/>
-      <c r="CF3" s="136"/>
-      <c r="CG3" s="136"/>
-      <c r="CH3" s="136"/>
-      <c r="CI3" s="137" t="s">
-        <v>83</v>
-      </c>
-      <c r="CJ3" s="137"/>
-      <c r="CK3" s="137"/>
-      <c r="CL3" s="137"/>
-      <c r="CM3" s="137"/>
-      <c r="CN3" s="137"/>
-      <c r="CO3" s="137"/>
-      <c r="CP3" s="137"/>
-      <c r="CQ3" s="137"/>
-      <c r="CR3" s="137"/>
-      <c r="CS3" s="137"/>
-      <c r="CT3" s="137"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136"/>
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136"/>
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136"/>
+      <c r="BA3" s="136"/>
+      <c r="BB3" s="136"/>
+      <c r="BC3" s="136"/>
+      <c r="BD3" s="136"/>
+      <c r="BE3" s="136"/>
+      <c r="BF3" s="136"/>
+      <c r="BG3" s="136"/>
+      <c r="BH3" s="136"/>
+      <c r="BI3" s="136"/>
+      <c r="BJ3" s="136"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="146" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR3" s="146"/>
+      <c r="BS3" s="146"/>
+      <c r="BT3" s="146"/>
+      <c r="BU3" s="146"/>
+      <c r="BV3" s="146"/>
+      <c r="BW3" s="146"/>
+      <c r="BX3" s="146"/>
+      <c r="BY3" s="146"/>
+      <c r="BZ3" s="146"/>
+      <c r="CA3" s="146"/>
+      <c r="CB3" s="146"/>
+      <c r="CC3" s="146"/>
+      <c r="CD3" s="146"/>
+      <c r="CE3" s="146"/>
+      <c r="CF3" s="146"/>
+      <c r="CG3" s="146"/>
+      <c r="CH3" s="146"/>
+      <c r="CI3" s="136" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ3" s="136"/>
+      <c r="CK3" s="136"/>
+      <c r="CL3" s="136"/>
+      <c r="CM3" s="136"/>
+      <c r="CN3" s="136"/>
+      <c r="CO3" s="136"/>
+      <c r="CP3" s="136"/>
+      <c r="CQ3" s="136"/>
+      <c r="CR3" s="136"/>
+      <c r="CS3" s="136"/>
+      <c r="CT3" s="136"/>
       <c r="CU3" s="60"/>
       <c r="CV3" s="60"/>
       <c r="CW3" s="60"/>
@@ -1940,7 +1960,7 @@
       <c r="DN3" s="60"/>
       <c r="DO3" s="60"/>
     </row>
-    <row r="4" spans="1:119" s="17" customFormat="1">
+    <row r="4" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="109"/>
       <c r="B4" s="61"/>
       <c r="C4" s="21"/>
@@ -2039,9 +2059,9 @@
       <c r="DG4" s="23"/>
       <c r="DH4" s="23"/>
     </row>
-    <row r="5" spans="1:119" s="17" customFormat="1" ht="13">
+    <row r="5" spans="1:119" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="21"/>
@@ -2086,12 +2106,12 @@
       <c r="AT5" s="23"/>
       <c r="AU5" s="23"/>
       <c r="AV5" s="23"/>
-      <c r="AW5" s="145" t="s">
+      <c r="AW5" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="AX5" s="145"/>
-      <c r="AY5" s="145"/>
-      <c r="AZ5" s="145"/>
+      <c r="AX5" s="154"/>
+      <c r="AY5" s="154"/>
+      <c r="AZ5" s="154"/>
       <c r="BA5" s="23"/>
       <c r="BB5" s="23"/>
       <c r="BD5" s="23"/>
@@ -2139,9 +2159,9 @@
       <c r="DG5" s="23"/>
       <c r="DH5" s="23"/>
     </row>
-    <row r="6" spans="1:119" s="17" customFormat="1" ht="13">
+    <row r="6" spans="1:119" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="21"/>
@@ -2161,14 +2181,14 @@
       <c r="Q6" s="22"/>
       <c r="T6" s="62"/>
       <c r="V6" s="23"/>
-      <c r="AA6" s="162" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB6" s="163"/>
-      <c r="AC6" s="163"/>
-      <c r="AD6" s="163"/>
-      <c r="AE6" s="163"/>
-      <c r="AF6" s="163"/>
+      <c r="AA6" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135"/>
+      <c r="AF6" s="135"/>
       <c r="AH6" s="23"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="62"/>
@@ -2181,16 +2201,16 @@
       <c r="AT6" s="23"/>
       <c r="AU6" s="62"/>
       <c r="AV6" s="62"/>
-      <c r="AW6" s="160" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX6" s="161"/>
-      <c r="AY6" s="161"/>
-      <c r="AZ6" s="161"/>
-      <c r="BA6" s="161"/>
-      <c r="BB6" s="161"/>
-      <c r="BC6" s="161"/>
-      <c r="BD6" s="161"/>
+      <c r="AW6" s="132" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX6" s="133"/>
+      <c r="AY6" s="133"/>
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="133"/>
+      <c r="BC6" s="133"/>
+      <c r="BD6" s="133"/>
       <c r="BF6" s="23"/>
       <c r="BG6" s="23"/>
       <c r="BH6" s="23"/>
@@ -2214,7 +2234,7 @@
       <c r="CB6" s="23"/>
       <c r="CD6" s="23"/>
       <c r="CE6" s="116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CF6" s="110"/>
       <c r="CG6" s="110"/>
@@ -2225,27 +2245,27 @@
       <c r="CL6" s="23"/>
       <c r="CP6" s="23"/>
       <c r="CQ6" s="23"/>
-      <c r="CR6" s="128" t="s">
-        <v>86</v>
-      </c>
-      <c r="CS6" s="129"/>
-      <c r="CT6" s="129"/>
-      <c r="CU6" s="129"/>
-      <c r="CV6" s="129"/>
-      <c r="CW6" s="129"/>
-      <c r="CX6" s="129"/>
-      <c r="CY6" s="129"/>
-      <c r="CZ6" s="129"/>
-      <c r="DA6" s="129"/>
-      <c r="DB6" s="129"/>
-      <c r="DC6" s="129"/>
-      <c r="DD6" s="129"/>
-      <c r="DE6" s="129"/>
+      <c r="CR6" s="158" t="s">
+        <v>85</v>
+      </c>
+      <c r="CS6" s="159"/>
+      <c r="CT6" s="159"/>
+      <c r="CU6" s="159"/>
+      <c r="CV6" s="159"/>
+      <c r="CW6" s="159"/>
+      <c r="CX6" s="159"/>
+      <c r="CY6" s="159"/>
+      <c r="CZ6" s="159"/>
+      <c r="DA6" s="159"/>
+      <c r="DB6" s="159"/>
+      <c r="DC6" s="159"/>
+      <c r="DD6" s="159"/>
+      <c r="DE6" s="159"/>
       <c r="DF6" s="23"/>
       <c r="DG6" s="23"/>
       <c r="DH6" s="23"/>
     </row>
-    <row r="7" spans="1:119" s="17" customFormat="1" ht="13" thickBot="1">
+    <row r="7" spans="1:119" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -2337,135 +2357,135 @@
       <c r="DG7" s="23"/>
       <c r="DH7" s="23"/>
     </row>
-    <row r="8" spans="1:119">
-      <c r="C8" s="157" t="s">
+    <row r="8" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="C8" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="157" t="s">
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="157" t="s">
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="158"/>
-      <c r="S8" s="158"/>
-      <c r="T8" s="159"/>
-      <c r="U8" s="157" t="s">
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="158"/>
-      <c r="W8" s="158"/>
-      <c r="X8" s="158"/>
-      <c r="Y8" s="158"/>
-      <c r="Z8" s="159"/>
-      <c r="AA8" s="157" t="s">
+      <c r="V8" s="130"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="131"/>
+      <c r="AA8" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="AB8" s="158"/>
-      <c r="AC8" s="158"/>
-      <c r="AD8" s="158"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="159"/>
-      <c r="AG8" s="157" t="s">
+      <c r="AB8" s="130"/>
+      <c r="AC8" s="130"/>
+      <c r="AD8" s="130"/>
+      <c r="AE8" s="130"/>
+      <c r="AF8" s="131"/>
+      <c r="AG8" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="AH8" s="158"/>
-      <c r="AI8" s="158"/>
-      <c r="AJ8" s="158"/>
-      <c r="AK8" s="158"/>
-      <c r="AL8" s="159"/>
-      <c r="AM8" s="157" t="s">
+      <c r="AH8" s="130"/>
+      <c r="AI8" s="130"/>
+      <c r="AJ8" s="130"/>
+      <c r="AK8" s="130"/>
+      <c r="AL8" s="131"/>
+      <c r="AM8" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="AN8" s="158"/>
-      <c r="AO8" s="158"/>
-      <c r="AP8" s="158"/>
-      <c r="AQ8" s="158"/>
-      <c r="AR8" s="159"/>
-      <c r="AS8" s="157" t="s">
+      <c r="AN8" s="130"/>
+      <c r="AO8" s="130"/>
+      <c r="AP8" s="130"/>
+      <c r="AQ8" s="130"/>
+      <c r="AR8" s="131"/>
+      <c r="AS8" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="AT8" s="158"/>
-      <c r="AU8" s="158"/>
-      <c r="AV8" s="158"/>
-      <c r="AW8" s="158"/>
-      <c r="AX8" s="159"/>
-      <c r="AY8" s="157" t="s">
+      <c r="AT8" s="130"/>
+      <c r="AU8" s="130"/>
+      <c r="AV8" s="130"/>
+      <c r="AW8" s="130"/>
+      <c r="AX8" s="131"/>
+      <c r="AY8" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="AZ8" s="158"/>
-      <c r="BA8" s="158"/>
-      <c r="BB8" s="158"/>
-      <c r="BC8" s="158"/>
-      <c r="BD8" s="159"/>
-      <c r="BE8" s="157" t="s">
+      <c r="AZ8" s="130"/>
+      <c r="BA8" s="130"/>
+      <c r="BB8" s="130"/>
+      <c r="BC8" s="130"/>
+      <c r="BD8" s="131"/>
+      <c r="BE8" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="BF8" s="158"/>
-      <c r="BG8" s="158"/>
-      <c r="BH8" s="158"/>
-      <c r="BI8" s="158"/>
-      <c r="BJ8" s="159"/>
-      <c r="BK8" s="157" t="s">
+      <c r="BF8" s="130"/>
+      <c r="BG8" s="130"/>
+      <c r="BH8" s="130"/>
+      <c r="BI8" s="130"/>
+      <c r="BJ8" s="131"/>
+      <c r="BK8" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="BL8" s="158"/>
-      <c r="BM8" s="158"/>
-      <c r="BN8" s="158"/>
-      <c r="BO8" s="158"/>
-      <c r="BP8" s="159"/>
-      <c r="BQ8" s="157" t="s">
+      <c r="BL8" s="130"/>
+      <c r="BM8" s="130"/>
+      <c r="BN8" s="130"/>
+      <c r="BO8" s="130"/>
+      <c r="BP8" s="131"/>
+      <c r="BQ8" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="BR8" s="158"/>
-      <c r="BS8" s="158"/>
-      <c r="BT8" s="158"/>
-      <c r="BU8" s="158"/>
-      <c r="BV8" s="159"/>
-      <c r="BW8" s="157" t="s">
+      <c r="BR8" s="130"/>
+      <c r="BS8" s="130"/>
+      <c r="BT8" s="130"/>
+      <c r="BU8" s="130"/>
+      <c r="BV8" s="131"/>
+      <c r="BW8" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="BX8" s="158"/>
-      <c r="BY8" s="158"/>
-      <c r="BZ8" s="158"/>
-      <c r="CA8" s="158"/>
-      <c r="CB8" s="159"/>
-      <c r="CC8" s="157" t="s">
+      <c r="BX8" s="130"/>
+      <c r="BY8" s="130"/>
+      <c r="BZ8" s="130"/>
+      <c r="CA8" s="130"/>
+      <c r="CB8" s="131"/>
+      <c r="CC8" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="CD8" s="158"/>
-      <c r="CE8" s="158"/>
-      <c r="CF8" s="158"/>
-      <c r="CG8" s="158"/>
-      <c r="CH8" s="159"/>
-      <c r="CI8" s="157" t="s">
+      <c r="CD8" s="130"/>
+      <c r="CE8" s="130"/>
+      <c r="CF8" s="130"/>
+      <c r="CG8" s="130"/>
+      <c r="CH8" s="131"/>
+      <c r="CI8" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="CJ8" s="158"/>
-      <c r="CK8" s="158"/>
-      <c r="CL8" s="158"/>
-      <c r="CM8" s="158"/>
-      <c r="CN8" s="159"/>
-      <c r="CO8" s="157" t="s">
+      <c r="CJ8" s="130"/>
+      <c r="CK8" s="130"/>
+      <c r="CL8" s="130"/>
+      <c r="CM8" s="130"/>
+      <c r="CN8" s="131"/>
+      <c r="CO8" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="CP8" s="158"/>
-      <c r="CQ8" s="158"/>
-      <c r="CR8" s="158"/>
-      <c r="CS8" s="158"/>
-      <c r="CT8" s="159"/>
+      <c r="CP8" s="130"/>
+      <c r="CQ8" s="130"/>
+      <c r="CR8" s="130"/>
+      <c r="CS8" s="130"/>
+      <c r="CT8" s="131"/>
       <c r="CV8" s="80"/>
       <c r="CW8" s="80"/>
       <c r="CX8" s="80"/>
@@ -2480,200 +2500,200 @@
       <c r="DG8" s="80"/>
       <c r="DH8" s="80"/>
     </row>
-    <row r="9" spans="1:119" s="16" customFormat="1">
+    <row r="9" spans="1:119" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="153" t="s">
+      <c r="C9" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="154"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="69"/>
       <c r="F9" s="69"/>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="150">
+      <c r="H9" s="143"/>
+      <c r="I9" s="144">
         <v>40959</v>
       </c>
-      <c r="J9" s="154"/>
+      <c r="J9" s="141"/>
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
-      <c r="M9" s="151">
+      <c r="M9" s="138">
         <f>SUM(I9+6)</f>
         <v>40965</v>
       </c>
-      <c r="N9" s="152"/>
-      <c r="O9" s="150">
+      <c r="N9" s="139"/>
+      <c r="O9" s="144">
         <f>SUM(M9+1)</f>
         <v>40966</v>
       </c>
-      <c r="P9" s="151"/>
+      <c r="P9" s="138"/>
       <c r="Q9" s="70"/>
       <c r="R9" s="70"/>
-      <c r="S9" s="151">
+      <c r="S9" s="138">
         <f>SUM(O9+6)</f>
         <v>40972</v>
       </c>
-      <c r="T9" s="152"/>
-      <c r="U9" s="150">
+      <c r="T9" s="139"/>
+      <c r="U9" s="144">
         <f>SUM(S9+1)</f>
         <v>40973</v>
       </c>
-      <c r="V9" s="151"/>
+      <c r="V9" s="138"/>
       <c r="W9" s="70"/>
       <c r="X9" s="70"/>
-      <c r="Y9" s="151">
+      <c r="Y9" s="138">
         <f>SUM(U9+6)</f>
         <v>40979</v>
       </c>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="150">
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="144">
         <f>SUM(Y9+1)</f>
         <v>40980</v>
       </c>
-      <c r="AB9" s="151"/>
+      <c r="AB9" s="138"/>
       <c r="AC9" s="70"/>
       <c r="AD9" s="70"/>
-      <c r="AE9" s="151">
+      <c r="AE9" s="138">
         <f>SUM(AA9+6)</f>
         <v>40986</v>
       </c>
-      <c r="AF9" s="152"/>
-      <c r="AG9" s="150">
+      <c r="AF9" s="139"/>
+      <c r="AG9" s="144">
         <f>SUM(AE9+1)</f>
         <v>40987</v>
       </c>
-      <c r="AH9" s="151"/>
+      <c r="AH9" s="138"/>
       <c r="AI9" s="70"/>
       <c r="AJ9" s="70"/>
-      <c r="AK9" s="151">
+      <c r="AK9" s="138">
         <f>SUM(AG9+6)</f>
         <v>40993</v>
       </c>
-      <c r="AL9" s="152"/>
-      <c r="AM9" s="150">
+      <c r="AL9" s="139"/>
+      <c r="AM9" s="144">
         <f>SUM(AK9+1)</f>
         <v>40994</v>
       </c>
-      <c r="AN9" s="151"/>
+      <c r="AN9" s="138"/>
       <c r="AO9" s="70"/>
       <c r="AP9" s="70"/>
-      <c r="AQ9" s="151">
+      <c r="AQ9" s="138">
         <f>SUM(AM9+6)</f>
         <v>41000</v>
       </c>
-      <c r="AR9" s="152"/>
-      <c r="AS9" s="150">
+      <c r="AR9" s="139"/>
+      <c r="AS9" s="144">
         <f>SUM(AQ9+1)</f>
         <v>41001</v>
       </c>
-      <c r="AT9" s="151"/>
+      <c r="AT9" s="138"/>
       <c r="AU9" s="70"/>
       <c r="AV9" s="70"/>
-      <c r="AW9" s="151">
+      <c r="AW9" s="138">
         <f>SUM(AS9+6)</f>
         <v>41007</v>
       </c>
-      <c r="AX9" s="152"/>
-      <c r="AY9" s="150">
+      <c r="AX9" s="139"/>
+      <c r="AY9" s="144">
         <f>SUM(AW9+1)</f>
         <v>41008</v>
       </c>
-      <c r="AZ9" s="151"/>
+      <c r="AZ9" s="138"/>
       <c r="BA9" s="70"/>
       <c r="BB9" s="70"/>
-      <c r="BC9" s="151">
+      <c r="BC9" s="138">
         <f>SUM(AY9+6)</f>
         <v>41014</v>
       </c>
-      <c r="BD9" s="152"/>
-      <c r="BE9" s="150">
+      <c r="BD9" s="139"/>
+      <c r="BE9" s="144">
         <f>SUM(BC9+1)</f>
         <v>41015</v>
       </c>
-      <c r="BF9" s="151"/>
+      <c r="BF9" s="138"/>
       <c r="BG9" s="70"/>
       <c r="BH9" s="70"/>
-      <c r="BI9" s="151">
+      <c r="BI9" s="138">
         <f>SUM(BE9+6)</f>
         <v>41021</v>
       </c>
-      <c r="BJ9" s="152"/>
-      <c r="BK9" s="150">
+      <c r="BJ9" s="139"/>
+      <c r="BK9" s="144">
         <f>SUM(BI9+1)</f>
         <v>41022</v>
       </c>
-      <c r="BL9" s="151"/>
+      <c r="BL9" s="138"/>
       <c r="BM9" s="70"/>
       <c r="BN9" s="70"/>
-      <c r="BO9" s="151">
+      <c r="BO9" s="138">
         <f>SUM(BK9+6)</f>
         <v>41028</v>
       </c>
-      <c r="BP9" s="152"/>
-      <c r="BQ9" s="150">
+      <c r="BP9" s="139"/>
+      <c r="BQ9" s="144">
         <f>SUM(BO9+1)</f>
         <v>41029</v>
       </c>
-      <c r="BR9" s="151"/>
+      <c r="BR9" s="138"/>
       <c r="BS9" s="70"/>
       <c r="BT9" s="70"/>
-      <c r="BU9" s="151">
+      <c r="BU9" s="138">
         <f>SUM(BQ9+6)</f>
         <v>41035</v>
       </c>
-      <c r="BV9" s="152"/>
-      <c r="BW9" s="150">
+      <c r="BV9" s="139"/>
+      <c r="BW9" s="144">
         <f>SUM(BU9+1)</f>
         <v>41036</v>
       </c>
-      <c r="BX9" s="151"/>
+      <c r="BX9" s="138"/>
       <c r="BY9" s="70"/>
       <c r="BZ9" s="70"/>
-      <c r="CA9" s="151">
+      <c r="CA9" s="138">
         <f>SUM(BW9+6)</f>
         <v>41042</v>
       </c>
-      <c r="CB9" s="152"/>
-      <c r="CC9" s="150">
+      <c r="CB9" s="139"/>
+      <c r="CC9" s="144">
         <f>SUM(CA9+1)</f>
         <v>41043</v>
       </c>
-      <c r="CD9" s="151"/>
+      <c r="CD9" s="138"/>
       <c r="CE9" s="70"/>
       <c r="CF9" s="70"/>
-      <c r="CG9" s="151">
+      <c r="CG9" s="138">
         <f>SUM(CC9+6)</f>
         <v>41049</v>
       </c>
-      <c r="CH9" s="152"/>
-      <c r="CI9" s="150">
+      <c r="CH9" s="139"/>
+      <c r="CI9" s="144">
         <f>SUM(CG9+1)</f>
         <v>41050</v>
       </c>
-      <c r="CJ9" s="151"/>
+      <c r="CJ9" s="138"/>
       <c r="CK9" s="70"/>
       <c r="CL9" s="70"/>
-      <c r="CM9" s="151">
+      <c r="CM9" s="138">
         <f>SUM(CI9+6)</f>
         <v>41056</v>
       </c>
-      <c r="CN9" s="152"/>
-      <c r="CO9" s="150">
+      <c r="CN9" s="139"/>
+      <c r="CO9" s="144">
         <f>SUM(CM9+1)</f>
         <v>41057</v>
       </c>
-      <c r="CP9" s="151"/>
+      <c r="CP9" s="138"/>
       <c r="CQ9" s="70"/>
       <c r="CR9" s="70"/>
-      <c r="CS9" s="151">
+      <c r="CS9" s="138">
         <f>SUM(CO9+6)</f>
         <v>41063</v>
       </c>
-      <c r="CT9" s="152"/>
+      <c r="CT9" s="139"/>
       <c r="CV9" s="62"/>
       <c r="CW9" s="62"/>
       <c r="CX9" s="68"/>
@@ -2688,7 +2708,7 @@
       <c r="DG9" s="62"/>
       <c r="DH9" s="62"/>
     </row>
-    <row r="10" spans="1:119" s="8" customFormat="1">
+    <row r="10" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="77"/>
@@ -2801,7 +2821,7 @@
       <c r="DG10" s="80"/>
       <c r="DH10" s="80"/>
     </row>
-    <row r="11" spans="1:119" s="8" customFormat="1">
+    <row r="11" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="73"/>
@@ -2914,7 +2934,7 @@
       <c r="DG11" s="81"/>
       <c r="DH11" s="81"/>
     </row>
-    <row r="12" spans="1:119" s="8" customFormat="1">
+    <row r="12" spans="1:119" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3029,9 +3049,9 @@
       <c r="DG12" s="81"/>
       <c r="DH12" s="82"/>
     </row>
-    <row r="13" spans="1:119">
+    <row r="13" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="83"/>
@@ -3144,9 +3164,9 @@
       <c r="DG13" s="85"/>
       <c r="DH13" s="84"/>
     </row>
-    <row r="14" spans="1:119">
+    <row r="14" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="24"/>
@@ -3260,25 +3280,25 @@
       <c r="DG14" s="88"/>
       <c r="DH14" s="87"/>
     </row>
-    <row r="15" spans="1:119">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="133"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="128"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="26"/>
@@ -3376,7 +3396,7 @@
       <c r="DG15" s="88"/>
       <c r="DH15" s="87"/>
     </row>
-    <row r="16" spans="1:119">
+    <row r="16" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="48"/>
       <c r="C16" s="24"/>
@@ -3490,7 +3510,7 @@
       <c r="DG16" s="88"/>
       <c r="DH16" s="87"/>
     </row>
-    <row r="17" spans="1:112">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -3605,9 +3625,9 @@
       <c r="DG17" s="85"/>
       <c r="DH17" s="84"/>
     </row>
-    <row r="18" spans="1:112">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="24"/>
@@ -3624,15 +3644,15 @@
       <c r="N18" s="27"/>
       <c r="O18" s="24"/>
       <c r="P18" s="25"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="147"/>
-      <c r="W18" s="147"/>
-      <c r="X18" s="147"/>
-      <c r="Y18" s="147"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="156"/>
       <c r="Z18" s="27"/>
       <c r="AA18" s="24"/>
       <c r="AB18" s="25"/>
@@ -3721,7 +3741,7 @@
       <c r="DG18" s="88"/>
       <c r="DH18" s="87"/>
     </row>
-    <row r="19" spans="1:112">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -3837,9 +3857,9 @@
       <c r="DG19" s="88"/>
       <c r="DH19" s="87"/>
     </row>
-    <row r="20" spans="1:112">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="24"/>
@@ -3866,9 +3886,9 @@
       <c r="X20" s="25"/>
       <c r="Y20" s="26"/>
       <c r="Z20" s="27"/>
-      <c r="AA20" s="148"/>
-      <c r="AB20" s="147"/>
-      <c r="AC20" s="147"/>
+      <c r="AA20" s="157"/>
+      <c r="AB20" s="156"/>
+      <c r="AC20" s="156"/>
       <c r="AD20" s="25"/>
       <c r="AE20" s="26"/>
       <c r="AF20" s="27"/>
@@ -3953,7 +3973,7 @@
       <c r="DG20" s="88"/>
       <c r="DH20" s="87"/>
     </row>
-    <row r="21" spans="1:112">
+    <row r="21" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="66"/>
       <c r="C21" s="24"/>
@@ -4067,7 +4087,7 @@
       <c r="DG21" s="88"/>
       <c r="DH21" s="87"/>
     </row>
-    <row r="22" spans="1:112">
+    <row r="22" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -4182,9 +4202,9 @@
       <c r="DG22" s="85"/>
       <c r="DH22" s="84"/>
     </row>
-    <row r="23" spans="1:112">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="24"/>
@@ -4209,18 +4229,18 @@
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
       <c r="X23" s="25"/>
-      <c r="Y23" s="141"/>
-      <c r="Z23" s="141"/>
-      <c r="AA23" s="141"/>
-      <c r="AB23" s="141"/>
-      <c r="AC23" s="141"/>
-      <c r="AD23" s="141"/>
-      <c r="AE23" s="141"/>
-      <c r="AF23" s="141"/>
-      <c r="AG23" s="141"/>
-      <c r="AH23" s="141"/>
-      <c r="AI23" s="143"/>
-      <c r="AJ23" s="143"/>
+      <c r="Y23" s="150"/>
+      <c r="Z23" s="150"/>
+      <c r="AA23" s="150"/>
+      <c r="AB23" s="150"/>
+      <c r="AC23" s="150"/>
+      <c r="AD23" s="150"/>
+      <c r="AE23" s="150"/>
+      <c r="AF23" s="150"/>
+      <c r="AG23" s="150"/>
+      <c r="AH23" s="150"/>
+      <c r="AI23" s="152"/>
+      <c r="AJ23" s="152"/>
       <c r="AK23" s="26"/>
       <c r="AL23" s="27"/>
       <c r="AM23" s="24"/>
@@ -4298,9 +4318,9 @@
       <c r="DG23" s="88"/>
       <c r="DH23" s="87"/>
     </row>
-    <row r="24" spans="1:112">
+    <row r="24" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="24"/>
@@ -4339,12 +4359,12 @@
       <c r="AJ24" s="25"/>
       <c r="AK24" s="26"/>
       <c r="AL24" s="27"/>
-      <c r="AS24" s="140"/>
-      <c r="AT24" s="141"/>
-      <c r="AU24" s="141"/>
-      <c r="AV24" s="141"/>
-      <c r="AW24" s="141"/>
-      <c r="AX24" s="142"/>
+      <c r="AS24" s="149"/>
+      <c r="AT24" s="150"/>
+      <c r="AU24" s="150"/>
+      <c r="AV24" s="150"/>
+      <c r="AW24" s="150"/>
+      <c r="AX24" s="151"/>
       <c r="AY24" s="24"/>
       <c r="AZ24" s="25"/>
       <c r="BA24" s="26"/>
@@ -4408,9 +4428,9 @@
       <c r="DG24" s="88"/>
       <c r="DH24" s="87"/>
     </row>
-    <row r="25" spans="1:112">
+    <row r="25" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="24"/>
@@ -4437,14 +4457,14 @@
       <c r="X25" s="25"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="27"/>
-      <c r="AA25" s="140"/>
-      <c r="AB25" s="141"/>
-      <c r="AC25" s="141"/>
-      <c r="AD25" s="141"/>
-      <c r="AE25" s="141"/>
-      <c r="AF25" s="141"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="141"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="150"/>
+      <c r="AC25" s="150"/>
+      <c r="AD25" s="150"/>
+      <c r="AE25" s="150"/>
+      <c r="AF25" s="150"/>
+      <c r="AG25" s="150"/>
+      <c r="AH25" s="150"/>
       <c r="AI25" s="26"/>
       <c r="AJ25" s="25"/>
       <c r="AK25" s="26"/>
@@ -4524,9 +4544,9 @@
       <c r="DG25" s="88"/>
       <c r="DH25" s="87"/>
     </row>
-    <row r="26" spans="1:112">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="24"/>
@@ -4561,9 +4581,9 @@
       <c r="AF26" s="27"/>
       <c r="AG26" s="24"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="141"/>
-      <c r="AJ26" s="141"/>
-      <c r="AK26" s="141"/>
+      <c r="AI26" s="150"/>
+      <c r="AJ26" s="150"/>
+      <c r="AK26" s="150"/>
       <c r="AL26" s="27"/>
       <c r="AM26" s="24"/>
       <c r="AN26" s="25"/>
@@ -4640,9 +4660,9 @@
       <c r="DG26" s="88"/>
       <c r="DH26" s="87"/>
     </row>
-    <row r="27" spans="1:112">
+    <row r="27" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="24"/>
@@ -4680,9 +4700,9 @@
       <c r="AI27" s="26"/>
       <c r="AM27" s="113"/>
       <c r="AS27" s="113"/>
-      <c r="AW27" s="144"/>
-      <c r="AX27" s="144"/>
-      <c r="AY27" s="144"/>
+      <c r="AW27" s="153"/>
+      <c r="AX27" s="153"/>
+      <c r="AY27" s="153"/>
       <c r="BA27" s="26"/>
       <c r="BB27" s="25"/>
       <c r="BC27" s="26"/>
@@ -4744,9 +4764,9 @@
       <c r="DG27" s="88"/>
       <c r="DH27" s="87"/>
     </row>
-    <row r="28" spans="1:112">
+    <row r="28" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="24"/>
@@ -4781,9 +4801,9 @@
       <c r="AF28" s="27"/>
       <c r="AG28" s="24"/>
       <c r="AH28" s="25"/>
-      <c r="AI28" s="141"/>
-      <c r="AJ28" s="141"/>
-      <c r="AK28" s="141"/>
+      <c r="AI28" s="150"/>
+      <c r="AJ28" s="150"/>
+      <c r="AK28" s="150"/>
       <c r="AL28" s="27"/>
       <c r="AM28" s="24"/>
       <c r="AN28" s="25"/>
@@ -4860,7 +4880,7 @@
       <c r="DG28" s="88"/>
       <c r="DH28" s="87"/>
     </row>
-    <row r="29" spans="1:112">
+    <row r="29" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>44</v>
       </c>
@@ -4976,7 +4996,7 @@
       <c r="DG29" s="88"/>
       <c r="DH29" s="87"/>
     </row>
-    <row r="30" spans="1:112">
+    <row r="30" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="67"/>
       <c r="C30" s="24"/>
@@ -5090,7 +5110,7 @@
       <c r="DG30" s="88"/>
       <c r="DH30" s="87"/>
     </row>
-    <row r="31" spans="1:112">
+    <row r="31" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -5193,9 +5213,9 @@
       <c r="DG31" s="85"/>
       <c r="DH31" s="84"/>
     </row>
-    <row r="32" spans="1:112">
+    <row r="32" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="24"/>
@@ -5231,20 +5251,20 @@
       <c r="AG32" s="24"/>
       <c r="AH32" s="25"/>
       <c r="AI32" s="26"/>
-      <c r="AJ32" s="149"/>
-      <c r="AK32" s="149"/>
-      <c r="AL32" s="149"/>
-      <c r="AM32" s="149"/>
-      <c r="AN32" s="149"/>
-      <c r="AO32" s="149"/>
-      <c r="AP32" s="149"/>
-      <c r="AQ32" s="149"/>
-      <c r="AR32" s="149"/>
-      <c r="AS32" s="149"/>
-      <c r="AT32" s="149"/>
-      <c r="AU32" s="149"/>
-      <c r="AV32" s="149"/>
-      <c r="AW32" s="149"/>
+      <c r="AJ32" s="164"/>
+      <c r="AK32" s="164"/>
+      <c r="AL32" s="164"/>
+      <c r="AM32" s="164"/>
+      <c r="AN32" s="164"/>
+      <c r="AO32" s="164"/>
+      <c r="AP32" s="164"/>
+      <c r="AQ32" s="164"/>
+      <c r="AR32" s="164"/>
+      <c r="AS32" s="164"/>
+      <c r="AT32" s="164"/>
+      <c r="AU32" s="164"/>
+      <c r="AV32" s="164"/>
+      <c r="AW32" s="164"/>
       <c r="AX32" s="27"/>
       <c r="AY32" s="24"/>
       <c r="AZ32" s="25"/>
@@ -5309,9 +5329,9 @@
       <c r="DG32" s="88"/>
       <c r="DH32" s="87"/>
     </row>
-    <row r="33" spans="1:112">
+    <row r="33" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="24"/>
@@ -5425,9 +5445,9 @@
       <c r="DG33" s="88"/>
       <c r="DH33" s="87"/>
     </row>
-    <row r="34" spans="1:112">
+    <row r="34" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="24"/>
@@ -5463,23 +5483,23 @@
       <c r="AG34" s="24"/>
       <c r="AH34" s="25"/>
       <c r="AI34" s="26"/>
-      <c r="AJ34" s="146"/>
-      <c r="AK34" s="146"/>
-      <c r="AL34" s="146"/>
-      <c r="AM34" s="146"/>
-      <c r="AN34" s="146"/>
-      <c r="AO34" s="146"/>
-      <c r="AP34" s="146"/>
-      <c r="AQ34" s="146"/>
-      <c r="AR34" s="146"/>
-      <c r="AS34" s="146"/>
-      <c r="AT34" s="146"/>
-      <c r="AU34" s="146"/>
-      <c r="AV34" s="146"/>
-      <c r="AW34" s="146"/>
-      <c r="AX34" s="146"/>
-      <c r="AY34" s="146"/>
-      <c r="AZ34" s="146"/>
+      <c r="AJ34" s="155"/>
+      <c r="AK34" s="155"/>
+      <c r="AL34" s="155"/>
+      <c r="AM34" s="155"/>
+      <c r="AN34" s="155"/>
+      <c r="AO34" s="155"/>
+      <c r="AP34" s="155"/>
+      <c r="AQ34" s="155"/>
+      <c r="AR34" s="155"/>
+      <c r="AS34" s="155"/>
+      <c r="AT34" s="155"/>
+      <c r="AU34" s="155"/>
+      <c r="AV34" s="155"/>
+      <c r="AW34" s="155"/>
+      <c r="AX34" s="155"/>
+      <c r="AY34" s="155"/>
+      <c r="AZ34" s="155"/>
       <c r="BA34" s="26"/>
       <c r="BB34" s="25"/>
       <c r="BC34" s="26"/>
@@ -5541,7 +5561,7 @@
       <c r="DG34" s="88"/>
       <c r="DH34" s="87"/>
     </row>
-    <row r="35" spans="1:112">
+    <row r="35" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="67"/>
       <c r="C35" s="24"/>
@@ -5655,7 +5675,7 @@
       <c r="DG35" s="88"/>
       <c r="DH35" s="87"/>
     </row>
-    <row r="36" spans="1:112">
+    <row r="36" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>4</v>
       </c>
@@ -5739,9 +5759,9 @@
       <c r="DG36" s="85"/>
       <c r="DH36" s="84"/>
     </row>
-    <row r="37" spans="1:112">
+    <row r="37" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="24"/>
@@ -5777,39 +5797,39 @@
       <c r="AG37" s="24"/>
       <c r="AH37" s="25"/>
       <c r="AI37" s="26"/>
-      <c r="AJ37" s="138"/>
-      <c r="AK37" s="138"/>
-      <c r="AL37" s="138"/>
-      <c r="AM37" s="138"/>
-      <c r="AN37" s="138"/>
-      <c r="AO37" s="138"/>
-      <c r="AP37" s="138"/>
-      <c r="AQ37" s="138"/>
-      <c r="AR37" s="138"/>
-      <c r="AS37" s="138"/>
-      <c r="AT37" s="138"/>
-      <c r="AU37" s="138"/>
-      <c r="AV37" s="138"/>
-      <c r="AW37" s="138"/>
-      <c r="AX37" s="138"/>
-      <c r="AY37" s="138"/>
-      <c r="AZ37" s="138"/>
-      <c r="BA37" s="138"/>
-      <c r="BB37" s="138"/>
-      <c r="BC37" s="138"/>
-      <c r="BD37" s="138"/>
-      <c r="BE37" s="138"/>
-      <c r="BF37" s="138"/>
-      <c r="BG37" s="138"/>
-      <c r="BH37" s="138"/>
-      <c r="BI37" s="138"/>
-      <c r="BJ37" s="138"/>
-      <c r="BK37" s="138"/>
-      <c r="BL37" s="138"/>
-      <c r="BM37" s="138"/>
-      <c r="BN37" s="138"/>
-      <c r="BO37" s="138"/>
-      <c r="BP37" s="139"/>
+      <c r="AJ37" s="147"/>
+      <c r="AK37" s="147"/>
+      <c r="AL37" s="147"/>
+      <c r="AM37" s="147"/>
+      <c r="AN37" s="147"/>
+      <c r="AO37" s="147"/>
+      <c r="AP37" s="147"/>
+      <c r="AQ37" s="147"/>
+      <c r="AR37" s="147"/>
+      <c r="AS37" s="147"/>
+      <c r="AT37" s="147"/>
+      <c r="AU37" s="147"/>
+      <c r="AV37" s="147"/>
+      <c r="AW37" s="147"/>
+      <c r="AX37" s="147"/>
+      <c r="AY37" s="147"/>
+      <c r="AZ37" s="147"/>
+      <c r="BA37" s="147"/>
+      <c r="BB37" s="147"/>
+      <c r="BC37" s="147"/>
+      <c r="BD37" s="147"/>
+      <c r="BE37" s="147"/>
+      <c r="BF37" s="147"/>
+      <c r="BG37" s="147"/>
+      <c r="BH37" s="147"/>
+      <c r="BI37" s="147"/>
+      <c r="BJ37" s="147"/>
+      <c r="BK37" s="147"/>
+      <c r="BL37" s="147"/>
+      <c r="BM37" s="147"/>
+      <c r="BN37" s="147"/>
+      <c r="BO37" s="147"/>
+      <c r="BP37" s="148"/>
       <c r="BQ37" s="83"/>
       <c r="BR37" s="84"/>
       <c r="BS37" s="85"/>
@@ -5855,7 +5875,7 @@
       <c r="DG37" s="88"/>
       <c r="DH37" s="87"/>
     </row>
-    <row r="38" spans="1:112">
+    <row r="38" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>45</v>
       </c>
@@ -5903,12 +5923,12 @@
       <c r="AQ38" s="26"/>
       <c r="AR38" s="27"/>
       <c r="AS38" s="24"/>
-      <c r="AT38" s="131"/>
-      <c r="AU38" s="131"/>
-      <c r="AV38" s="131"/>
-      <c r="AW38" s="131"/>
-      <c r="AX38" s="131"/>
-      <c r="AY38" s="131"/>
+      <c r="AT38" s="161"/>
+      <c r="AU38" s="161"/>
+      <c r="AV38" s="161"/>
+      <c r="AW38" s="161"/>
+      <c r="AX38" s="161"/>
+      <c r="AY38" s="161"/>
       <c r="AZ38" s="25"/>
       <c r="BA38" s="26"/>
       <c r="BB38" s="25"/>
@@ -5920,14 +5940,14 @@
       <c r="BH38" s="120"/>
       <c r="BI38" s="120"/>
       <c r="BJ38" s="120"/>
-      <c r="BK38" s="130"/>
-      <c r="BL38" s="130"/>
-      <c r="BM38" s="130"/>
-      <c r="BN38" s="130"/>
-      <c r="BO38" s="130"/>
-      <c r="BP38" s="130"/>
-      <c r="BQ38" s="130"/>
-      <c r="BR38" s="130"/>
+      <c r="BK38" s="160"/>
+      <c r="BL38" s="160"/>
+      <c r="BM38" s="160"/>
+      <c r="BN38" s="160"/>
+      <c r="BO38" s="160"/>
+      <c r="BP38" s="160"/>
+      <c r="BQ38" s="160"/>
+      <c r="BR38" s="160"/>
       <c r="BS38" s="120"/>
       <c r="BT38" s="120"/>
       <c r="BU38" s="26"/>
@@ -5971,7 +5991,7 @@
       <c r="DG38" s="88"/>
       <c r="DH38" s="87"/>
     </row>
-    <row r="39" spans="1:112">
+    <row r="39" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="48"/>
       <c r="C39" s="24"/>
@@ -6085,9 +6105,9 @@
       <c r="DG39" s="88"/>
       <c r="DH39" s="87"/>
     </row>
-    <row r="40" spans="1:112">
+    <row r="40" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="83"/>
@@ -6200,9 +6220,9 @@
       <c r="DG40" s="85"/>
       <c r="DH40" s="84"/>
     </row>
-    <row r="41" spans="1:112">
+    <row r="41" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A41" s="59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="24"/>
@@ -6274,8 +6294,8 @@
       <c r="BQ41" s="24"/>
       <c r="BR41" s="25"/>
       <c r="BS41" s="26"/>
-      <c r="BT41" s="132"/>
-      <c r="BU41" s="132"/>
+      <c r="BT41" s="162"/>
+      <c r="BU41" s="162"/>
       <c r="BV41" s="27"/>
       <c r="BW41" s="24"/>
       <c r="BX41" s="25"/>
@@ -6316,9 +6336,9 @@
       <c r="DG41" s="88"/>
       <c r="DH41" s="87"/>
     </row>
-    <row r="42" spans="1:112">
+    <row r="42" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A42" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="24"/>
@@ -6391,20 +6411,20 @@
       <c r="BR42" s="25"/>
       <c r="BS42" s="26"/>
       <c r="BT42" s="25"/>
-      <c r="BU42" s="133"/>
-      <c r="BV42" s="133"/>
-      <c r="BW42" s="133"/>
-      <c r="BX42" s="133"/>
-      <c r="BY42" s="133"/>
-      <c r="BZ42" s="133"/>
-      <c r="CA42" s="133"/>
-      <c r="CB42" s="133"/>
-      <c r="CC42" s="133"/>
-      <c r="CD42" s="133"/>
-      <c r="CE42" s="133"/>
-      <c r="CF42" s="133"/>
-      <c r="CG42" s="133"/>
-      <c r="CH42" s="134"/>
+      <c r="BU42" s="128"/>
+      <c r="BV42" s="128"/>
+      <c r="BW42" s="128"/>
+      <c r="BX42" s="128"/>
+      <c r="BY42" s="128"/>
+      <c r="BZ42" s="128"/>
+      <c r="CA42" s="128"/>
+      <c r="CB42" s="128"/>
+      <c r="CC42" s="128"/>
+      <c r="CD42" s="128"/>
+      <c r="CE42" s="128"/>
+      <c r="CF42" s="128"/>
+      <c r="CG42" s="128"/>
+      <c r="CH42" s="163"/>
       <c r="CI42" s="24"/>
       <c r="CJ42" s="25"/>
       <c r="CK42" s="26"/>
@@ -6432,9 +6452,9 @@
       <c r="DG42" s="88"/>
       <c r="DH42" s="87"/>
     </row>
-    <row r="43" spans="1:112">
+    <row r="43" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A43" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="48"/>
       <c r="C43" s="24"/>
@@ -6548,7 +6568,7 @@
       <c r="DG43" s="88"/>
       <c r="DH43" s="87"/>
     </row>
-    <row r="44" spans="1:112">
+    <row r="44" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="50"/>
       <c r="C44" s="24"/>
@@ -6662,7 +6682,7 @@
       <c r="DG44" s="88"/>
       <c r="DH44" s="87"/>
     </row>
-    <row r="45" spans="1:112">
+    <row r="45" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>12</v>
       </c>
@@ -6777,7 +6797,7 @@
       <c r="DG45" s="85"/>
       <c r="DH45" s="84"/>
     </row>
-    <row r="46" spans="1:112">
+    <row r="46" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A46" s="59" t="s">
         <v>12</v>
       </c>
@@ -6893,7 +6913,7 @@
       <c r="DG46" s="88"/>
       <c r="DH46" s="87"/>
     </row>
-    <row r="47" spans="1:112">
+    <row r="47" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="50"/>
       <c r="C47" s="24"/>
@@ -7007,7 +7027,7 @@
       <c r="DG47" s="88"/>
       <c r="DH47" s="87"/>
     </row>
-    <row r="48" spans="1:112">
+    <row r="48" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
@@ -7122,7 +7142,7 @@
       <c r="DG48" s="85"/>
       <c r="DH48" s="84"/>
     </row>
-    <row r="49" spans="1:112">
+    <row r="49" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>31</v>
       </c>
@@ -7238,7 +7258,7 @@
       <c r="DG49" s="88"/>
       <c r="DH49" s="87"/>
     </row>
-    <row r="50" spans="1:112">
+    <row r="50" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>32</v>
       </c>
@@ -7354,7 +7374,7 @@
       <c r="DG50" s="88"/>
       <c r="DH50" s="87"/>
     </row>
-    <row r="51" spans="1:112" ht="13" thickBot="1">
+    <row r="51" spans="1:112" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="66"/>
       <c r="C51" s="95"/>
@@ -7468,7 +7488,7 @@
       <c r="DG51" s="88"/>
       <c r="DH51" s="87"/>
     </row>
-    <row r="52" spans="1:112">
+    <row r="52" spans="1:112" x14ac:dyDescent="0.2">
       <c r="B52" s="67"/>
       <c r="C52" s="28"/>
       <c r="D52" s="88"/>
@@ -7494,7 +7514,7 @@
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
     </row>
-    <row r="53" spans="1:112" s="8" customFormat="1">
+    <row r="53" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="74"/>
       <c r="D53" s="18"/>
@@ -7509,7 +7529,7 @@
       <c r="M53" s="93"/>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="1:112" s="8" customFormat="1">
+    <row r="54" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="74"/>
       <c r="D54" s="94"/>
@@ -7524,7 +7544,7 @@
       <c r="M54" s="94"/>
       <c r="N54" s="94"/>
     </row>
-    <row r="55" spans="1:112" s="8" customFormat="1">
+    <row r="55" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -7552,7 +7572,7 @@
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
     </row>
-    <row r="56" spans="1:112" s="8" customFormat="1">
+    <row r="56" spans="1:112" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -7582,6 +7602,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="CR6:DE6"/>
+    <mergeCell ref="BK38:BR38"/>
+    <mergeCell ref="AT38:AY38"/>
+    <mergeCell ref="BT41:BU41"/>
+    <mergeCell ref="BU42:CH42"/>
+    <mergeCell ref="AJ32:AW32"/>
+    <mergeCell ref="CO9:CP9"/>
+    <mergeCell ref="CS9:CT9"/>
+    <mergeCell ref="BW9:BX9"/>
+    <mergeCell ref="CA9:CB9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="CG9:CH9"/>
+    <mergeCell ref="CI9:CJ9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="I3:V3"/>
+    <mergeCell ref="W3:AH3"/>
+    <mergeCell ref="AI3:BP3"/>
+    <mergeCell ref="BQ3:CH3"/>
+    <mergeCell ref="AJ37:BP37"/>
+    <mergeCell ref="AS24:AX24"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AI26:AK26"/>
+    <mergeCell ref="AI28:AK28"/>
+    <mergeCell ref="AW27:AY27"/>
+    <mergeCell ref="AW5:AZ5"/>
+    <mergeCell ref="AJ34:AZ34"/>
+    <mergeCell ref="Q18:Y18"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="Y23:AH23"/>
+    <mergeCell ref="AA25:AH25"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BE9:BF9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AS8:AX8"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="BE8:BJ8"/>
+    <mergeCell ref="BK8:BP8"/>
+    <mergeCell ref="BQ8:BV8"/>
     <mergeCell ref="G15:P15"/>
     <mergeCell ref="AG8:AL8"/>
     <mergeCell ref="AW6:BD6"/>
@@ -7598,65 +7677,6 @@
     <mergeCell ref="CI8:CN8"/>
     <mergeCell ref="CO8:CT8"/>
     <mergeCell ref="AM8:AR8"/>
-    <mergeCell ref="AS8:AX8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="BE8:BJ8"/>
-    <mergeCell ref="BK8:BP8"/>
-    <mergeCell ref="BQ8:BV8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="BE9:BF9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="I3:V3"/>
-    <mergeCell ref="W3:AH3"/>
-    <mergeCell ref="AI3:BP3"/>
-    <mergeCell ref="BQ3:CH3"/>
-    <mergeCell ref="AJ37:BP37"/>
-    <mergeCell ref="AS24:AX24"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AI26:AK26"/>
-    <mergeCell ref="AI28:AK28"/>
-    <mergeCell ref="AW27:AY27"/>
-    <mergeCell ref="AW5:AZ5"/>
-    <mergeCell ref="AJ34:AZ34"/>
-    <mergeCell ref="Q18:Y18"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="Y23:AH23"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="CR6:DE6"/>
-    <mergeCell ref="BK38:BR38"/>
-    <mergeCell ref="AT38:AY38"/>
-    <mergeCell ref="BT41:BU41"/>
-    <mergeCell ref="BU42:CH42"/>
-    <mergeCell ref="AJ32:AW32"/>
-    <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="CS9:CT9"/>
-    <mergeCell ref="BW9:BX9"/>
-    <mergeCell ref="CA9:CB9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CG9:CH9"/>
-    <mergeCell ref="CI9:CJ9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="AM9:AN9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/SoftwareManagement/Projektplan.xlsx
+++ b/doc/SoftwareManagement/Projektplan.xlsx
@@ -1048,42 +1048,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="22" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1093,78 +1143,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1775,6 +1775,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:DO56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
@@ -1830,114 +1833,114 @@
     <row r="3" spans="1:119" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="145" t="s">
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="145"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145"/>
-      <c r="W3" s="146" t="s">
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
-      <c r="Z3" s="146"/>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="146"/>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="136" t="s">
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136"/>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136"/>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
-      <c r="AX3" s="136"/>
-      <c r="AY3" s="136"/>
-      <c r="AZ3" s="136"/>
-      <c r="BA3" s="136"/>
-      <c r="BB3" s="136"/>
-      <c r="BC3" s="136"/>
-      <c r="BD3" s="136"/>
-      <c r="BE3" s="136"/>
-      <c r="BF3" s="136"/>
-      <c r="BG3" s="136"/>
-      <c r="BH3" s="136"/>
-      <c r="BI3" s="136"/>
-      <c r="BJ3" s="136"/>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="136"/>
-      <c r="BQ3" s="146" t="s">
+      <c r="AJ3" s="141"/>
+      <c r="AK3" s="141"/>
+      <c r="AL3" s="141"/>
+      <c r="AM3" s="141"/>
+      <c r="AN3" s="141"/>
+      <c r="AO3" s="141"/>
+      <c r="AP3" s="141"/>
+      <c r="AQ3" s="141"/>
+      <c r="AR3" s="141"/>
+      <c r="AS3" s="141"/>
+      <c r="AT3" s="141"/>
+      <c r="AU3" s="141"/>
+      <c r="AV3" s="141"/>
+      <c r="AW3" s="141"/>
+      <c r="AX3" s="141"/>
+      <c r="AY3" s="141"/>
+      <c r="AZ3" s="141"/>
+      <c r="BA3" s="141"/>
+      <c r="BB3" s="141"/>
+      <c r="BC3" s="141"/>
+      <c r="BD3" s="141"/>
+      <c r="BE3" s="141"/>
+      <c r="BF3" s="141"/>
+      <c r="BG3" s="141"/>
+      <c r="BH3" s="141"/>
+      <c r="BI3" s="141"/>
+      <c r="BJ3" s="141"/>
+      <c r="BK3" s="141"/>
+      <c r="BL3" s="141"/>
+      <c r="BM3" s="141"/>
+      <c r="BN3" s="141"/>
+      <c r="BO3" s="141"/>
+      <c r="BP3" s="141"/>
+      <c r="BQ3" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="BR3" s="146"/>
-      <c r="BS3" s="146"/>
-      <c r="BT3" s="146"/>
-      <c r="BU3" s="146"/>
-      <c r="BV3" s="146"/>
-      <c r="BW3" s="146"/>
-      <c r="BX3" s="146"/>
-      <c r="BY3" s="146"/>
-      <c r="BZ3" s="146"/>
-      <c r="CA3" s="146"/>
-      <c r="CB3" s="146"/>
-      <c r="CC3" s="146"/>
-      <c r="CD3" s="146"/>
-      <c r="CE3" s="146"/>
-      <c r="CF3" s="146"/>
-      <c r="CG3" s="146"/>
-      <c r="CH3" s="146"/>
-      <c r="CI3" s="136" t="s">
+      <c r="BR3" s="140"/>
+      <c r="BS3" s="140"/>
+      <c r="BT3" s="140"/>
+      <c r="BU3" s="140"/>
+      <c r="BV3" s="140"/>
+      <c r="BW3" s="140"/>
+      <c r="BX3" s="140"/>
+      <c r="BY3" s="140"/>
+      <c r="BZ3" s="140"/>
+      <c r="CA3" s="140"/>
+      <c r="CB3" s="140"/>
+      <c r="CC3" s="140"/>
+      <c r="CD3" s="140"/>
+      <c r="CE3" s="140"/>
+      <c r="CF3" s="140"/>
+      <c r="CG3" s="140"/>
+      <c r="CH3" s="140"/>
+      <c r="CI3" s="141" t="s">
         <v>82</v>
       </c>
-      <c r="CJ3" s="136"/>
-      <c r="CK3" s="136"/>
-      <c r="CL3" s="136"/>
-      <c r="CM3" s="136"/>
-      <c r="CN3" s="136"/>
-      <c r="CO3" s="136"/>
-      <c r="CP3" s="136"/>
-      <c r="CQ3" s="136"/>
-      <c r="CR3" s="136"/>
-      <c r="CS3" s="136"/>
-      <c r="CT3" s="136"/>
+      <c r="CJ3" s="141"/>
+      <c r="CK3" s="141"/>
+      <c r="CL3" s="141"/>
+      <c r="CM3" s="141"/>
+      <c r="CN3" s="141"/>
+      <c r="CO3" s="141"/>
+      <c r="CP3" s="141"/>
+      <c r="CQ3" s="141"/>
+      <c r="CR3" s="141"/>
+      <c r="CS3" s="141"/>
+      <c r="CT3" s="141"/>
       <c r="CU3" s="60"/>
       <c r="CV3" s="60"/>
       <c r="CW3" s="60"/>
@@ -2106,12 +2109,12 @@
       <c r="AT5" s="23"/>
       <c r="AU5" s="23"/>
       <c r="AV5" s="23"/>
-      <c r="AW5" s="154" t="s">
+      <c r="AW5" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="AX5" s="154"/>
-      <c r="AY5" s="154"/>
-      <c r="AZ5" s="154"/>
+      <c r="AX5" s="149"/>
+      <c r="AY5" s="149"/>
+      <c r="AZ5" s="149"/>
       <c r="BA5" s="23"/>
       <c r="BB5" s="23"/>
       <c r="BD5" s="23"/>
@@ -2181,14 +2184,14 @@
       <c r="Q6" s="22"/>
       <c r="T6" s="62"/>
       <c r="V6" s="23"/>
-      <c r="AA6" s="134" t="s">
+      <c r="AA6" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="135"/>
-      <c r="AE6" s="135"/>
-      <c r="AF6" s="135"/>
+      <c r="AB6" s="163"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="163"/>
+      <c r="AF6" s="163"/>
       <c r="AH6" s="23"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="62"/>
@@ -2201,16 +2204,16 @@
       <c r="AT6" s="23"/>
       <c r="AU6" s="62"/>
       <c r="AV6" s="62"/>
-      <c r="AW6" s="132" t="s">
+      <c r="AW6" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="AX6" s="133"/>
-      <c r="AY6" s="133"/>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="133"/>
-      <c r="BC6" s="133"/>
-      <c r="BD6" s="133"/>
+      <c r="AX6" s="161"/>
+      <c r="AY6" s="161"/>
+      <c r="AZ6" s="161"/>
+      <c r="BA6" s="161"/>
+      <c r="BB6" s="161"/>
+      <c r="BC6" s="161"/>
+      <c r="BD6" s="161"/>
       <c r="BF6" s="23"/>
       <c r="BG6" s="23"/>
       <c r="BH6" s="23"/>
@@ -2245,22 +2248,22 @@
       <c r="CL6" s="23"/>
       <c r="CP6" s="23"/>
       <c r="CQ6" s="23"/>
-      <c r="CR6" s="158" t="s">
+      <c r="CR6" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="CS6" s="159"/>
-      <c r="CT6" s="159"/>
-      <c r="CU6" s="159"/>
-      <c r="CV6" s="159"/>
-      <c r="CW6" s="159"/>
-      <c r="CX6" s="159"/>
-      <c r="CY6" s="159"/>
-      <c r="CZ6" s="159"/>
-      <c r="DA6" s="159"/>
-      <c r="DB6" s="159"/>
-      <c r="DC6" s="159"/>
-      <c r="DD6" s="159"/>
-      <c r="DE6" s="159"/>
+      <c r="CS6" s="129"/>
+      <c r="CT6" s="129"/>
+      <c r="CU6" s="129"/>
+      <c r="CV6" s="129"/>
+      <c r="CW6" s="129"/>
+      <c r="CX6" s="129"/>
+      <c r="CY6" s="129"/>
+      <c r="CZ6" s="129"/>
+      <c r="DA6" s="129"/>
+      <c r="DB6" s="129"/>
+      <c r="DC6" s="129"/>
+      <c r="DD6" s="129"/>
+      <c r="DE6" s="129"/>
       <c r="DF6" s="23"/>
       <c r="DG6" s="23"/>
       <c r="DH6" s="23"/>
@@ -2358,134 +2361,134 @@
       <c r="DH7" s="23"/>
     </row>
     <row r="8" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="129" t="s">
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="129" t="s">
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="131"/>
-      <c r="U8" s="129" t="s">
+      <c r="P8" s="158"/>
+      <c r="Q8" s="158"/>
+      <c r="R8" s="158"/>
+      <c r="S8" s="158"/>
+      <c r="T8" s="159"/>
+      <c r="U8" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="130"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="130"/>
-      <c r="Y8" s="130"/>
-      <c r="Z8" s="131"/>
-      <c r="AA8" s="129" t="s">
+      <c r="V8" s="158"/>
+      <c r="W8" s="158"/>
+      <c r="X8" s="158"/>
+      <c r="Y8" s="158"/>
+      <c r="Z8" s="159"/>
+      <c r="AA8" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="AB8" s="130"/>
-      <c r="AC8" s="130"/>
-      <c r="AD8" s="130"/>
-      <c r="AE8" s="130"/>
-      <c r="AF8" s="131"/>
-      <c r="AG8" s="129" t="s">
+      <c r="AB8" s="158"/>
+      <c r="AC8" s="158"/>
+      <c r="AD8" s="158"/>
+      <c r="AE8" s="158"/>
+      <c r="AF8" s="159"/>
+      <c r="AG8" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="AH8" s="130"/>
-      <c r="AI8" s="130"/>
-      <c r="AJ8" s="130"/>
-      <c r="AK8" s="130"/>
-      <c r="AL8" s="131"/>
-      <c r="AM8" s="129" t="s">
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="158"/>
+      <c r="AJ8" s="158"/>
+      <c r="AK8" s="158"/>
+      <c r="AL8" s="159"/>
+      <c r="AM8" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="AN8" s="130"/>
-      <c r="AO8" s="130"/>
-      <c r="AP8" s="130"/>
-      <c r="AQ8" s="130"/>
-      <c r="AR8" s="131"/>
-      <c r="AS8" s="129" t="s">
+      <c r="AN8" s="158"/>
+      <c r="AO8" s="158"/>
+      <c r="AP8" s="158"/>
+      <c r="AQ8" s="158"/>
+      <c r="AR8" s="159"/>
+      <c r="AS8" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="AT8" s="130"/>
-      <c r="AU8" s="130"/>
-      <c r="AV8" s="130"/>
-      <c r="AW8" s="130"/>
-      <c r="AX8" s="131"/>
-      <c r="AY8" s="129" t="s">
+      <c r="AT8" s="158"/>
+      <c r="AU8" s="158"/>
+      <c r="AV8" s="158"/>
+      <c r="AW8" s="158"/>
+      <c r="AX8" s="159"/>
+      <c r="AY8" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="AZ8" s="130"/>
-      <c r="BA8" s="130"/>
-      <c r="BB8" s="130"/>
-      <c r="BC8" s="130"/>
-      <c r="BD8" s="131"/>
-      <c r="BE8" s="129" t="s">
+      <c r="AZ8" s="158"/>
+      <c r="BA8" s="158"/>
+      <c r="BB8" s="158"/>
+      <c r="BC8" s="158"/>
+      <c r="BD8" s="159"/>
+      <c r="BE8" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="BF8" s="130"/>
-      <c r="BG8" s="130"/>
-      <c r="BH8" s="130"/>
-      <c r="BI8" s="130"/>
-      <c r="BJ8" s="131"/>
-      <c r="BK8" s="129" t="s">
+      <c r="BF8" s="158"/>
+      <c r="BG8" s="158"/>
+      <c r="BH8" s="158"/>
+      <c r="BI8" s="158"/>
+      <c r="BJ8" s="159"/>
+      <c r="BK8" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="BL8" s="130"/>
-      <c r="BM8" s="130"/>
-      <c r="BN8" s="130"/>
-      <c r="BO8" s="130"/>
-      <c r="BP8" s="131"/>
-      <c r="BQ8" s="129" t="s">
+      <c r="BL8" s="158"/>
+      <c r="BM8" s="158"/>
+      <c r="BN8" s="158"/>
+      <c r="BO8" s="158"/>
+      <c r="BP8" s="159"/>
+      <c r="BQ8" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="BR8" s="130"/>
-      <c r="BS8" s="130"/>
-      <c r="BT8" s="130"/>
-      <c r="BU8" s="130"/>
-      <c r="BV8" s="131"/>
-      <c r="BW8" s="129" t="s">
+      <c r="BR8" s="158"/>
+      <c r="BS8" s="158"/>
+      <c r="BT8" s="158"/>
+      <c r="BU8" s="158"/>
+      <c r="BV8" s="159"/>
+      <c r="BW8" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="BX8" s="130"/>
-      <c r="BY8" s="130"/>
-      <c r="BZ8" s="130"/>
-      <c r="CA8" s="130"/>
-      <c r="CB8" s="131"/>
-      <c r="CC8" s="129" t="s">
+      <c r="BX8" s="158"/>
+      <c r="BY8" s="158"/>
+      <c r="BZ8" s="158"/>
+      <c r="CA8" s="158"/>
+      <c r="CB8" s="159"/>
+      <c r="CC8" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="CD8" s="130"/>
-      <c r="CE8" s="130"/>
-      <c r="CF8" s="130"/>
-      <c r="CG8" s="130"/>
-      <c r="CH8" s="131"/>
-      <c r="CI8" s="129" t="s">
+      <c r="CD8" s="158"/>
+      <c r="CE8" s="158"/>
+      <c r="CF8" s="158"/>
+      <c r="CG8" s="158"/>
+      <c r="CH8" s="159"/>
+      <c r="CI8" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="CJ8" s="130"/>
-      <c r="CK8" s="130"/>
-      <c r="CL8" s="130"/>
-      <c r="CM8" s="130"/>
-      <c r="CN8" s="131"/>
-      <c r="CO8" s="129" t="s">
+      <c r="CJ8" s="158"/>
+      <c r="CK8" s="158"/>
+      <c r="CL8" s="158"/>
+      <c r="CM8" s="158"/>
+      <c r="CN8" s="159"/>
+      <c r="CO8" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="CP8" s="130"/>
-      <c r="CQ8" s="130"/>
-      <c r="CR8" s="130"/>
-      <c r="CS8" s="130"/>
-      <c r="CT8" s="131"/>
+      <c r="CP8" s="158"/>
+      <c r="CQ8" s="158"/>
+      <c r="CR8" s="158"/>
+      <c r="CS8" s="158"/>
+      <c r="CT8" s="159"/>
       <c r="CV8" s="80"/>
       <c r="CW8" s="80"/>
       <c r="CX8" s="80"/>
@@ -2505,195 +2508,195 @@
         <v>27</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="141"/>
+      <c r="D9" s="154"/>
       <c r="E9" s="69"/>
       <c r="F9" s="69"/>
-      <c r="G9" s="142" t="s">
+      <c r="G9" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="143"/>
-      <c r="I9" s="144">
+      <c r="H9" s="156"/>
+      <c r="I9" s="136">
         <v>40959</v>
       </c>
-      <c r="J9" s="141"/>
+      <c r="J9" s="154"/>
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
-      <c r="M9" s="138">
+      <c r="M9" s="137">
         <f>SUM(I9+6)</f>
         <v>40965</v>
       </c>
-      <c r="N9" s="139"/>
-      <c r="O9" s="144">
+      <c r="N9" s="138"/>
+      <c r="O9" s="136">
         <f>SUM(M9+1)</f>
         <v>40966</v>
       </c>
-      <c r="P9" s="138"/>
+      <c r="P9" s="137"/>
       <c r="Q9" s="70"/>
       <c r="R9" s="70"/>
-      <c r="S9" s="138">
+      <c r="S9" s="137">
         <f>SUM(O9+6)</f>
         <v>40972</v>
       </c>
-      <c r="T9" s="139"/>
-      <c r="U9" s="144">
+      <c r="T9" s="138"/>
+      <c r="U9" s="136">
         <f>SUM(S9+1)</f>
         <v>40973</v>
       </c>
-      <c r="V9" s="138"/>
+      <c r="V9" s="137"/>
       <c r="W9" s="70"/>
       <c r="X9" s="70"/>
-      <c r="Y9" s="138">
+      <c r="Y9" s="137">
         <f>SUM(U9+6)</f>
         <v>40979</v>
       </c>
-      <c r="Z9" s="139"/>
-      <c r="AA9" s="144">
+      <c r="Z9" s="138"/>
+      <c r="AA9" s="136">
         <f>SUM(Y9+1)</f>
         <v>40980</v>
       </c>
-      <c r="AB9" s="138"/>
+      <c r="AB9" s="137"/>
       <c r="AC9" s="70"/>
       <c r="AD9" s="70"/>
-      <c r="AE9" s="138">
+      <c r="AE9" s="137">
         <f>SUM(AA9+6)</f>
         <v>40986</v>
       </c>
-      <c r="AF9" s="139"/>
-      <c r="AG9" s="144">
+      <c r="AF9" s="138"/>
+      <c r="AG9" s="136">
         <f>SUM(AE9+1)</f>
         <v>40987</v>
       </c>
-      <c r="AH9" s="138"/>
+      <c r="AH9" s="137"/>
       <c r="AI9" s="70"/>
       <c r="AJ9" s="70"/>
-      <c r="AK9" s="138">
+      <c r="AK9" s="137">
         <f>SUM(AG9+6)</f>
         <v>40993</v>
       </c>
-      <c r="AL9" s="139"/>
-      <c r="AM9" s="144">
+      <c r="AL9" s="138"/>
+      <c r="AM9" s="136">
         <f>SUM(AK9+1)</f>
         <v>40994</v>
       </c>
-      <c r="AN9" s="138"/>
+      <c r="AN9" s="137"/>
       <c r="AO9" s="70"/>
       <c r="AP9" s="70"/>
-      <c r="AQ9" s="138">
+      <c r="AQ9" s="137">
         <f>SUM(AM9+6)</f>
         <v>41000</v>
       </c>
-      <c r="AR9" s="139"/>
-      <c r="AS9" s="144">
+      <c r="AR9" s="138"/>
+      <c r="AS9" s="136">
         <f>SUM(AQ9+1)</f>
         <v>41001</v>
       </c>
-      <c r="AT9" s="138"/>
+      <c r="AT9" s="137"/>
       <c r="AU9" s="70"/>
       <c r="AV9" s="70"/>
-      <c r="AW9" s="138">
+      <c r="AW9" s="137">
         <f>SUM(AS9+6)</f>
         <v>41007</v>
       </c>
-      <c r="AX9" s="139"/>
-      <c r="AY9" s="144">
+      <c r="AX9" s="138"/>
+      <c r="AY9" s="136">
         <f>SUM(AW9+1)</f>
         <v>41008</v>
       </c>
-      <c r="AZ9" s="138"/>
+      <c r="AZ9" s="137"/>
       <c r="BA9" s="70"/>
       <c r="BB9" s="70"/>
-      <c r="BC9" s="138">
+      <c r="BC9" s="137">
         <f>SUM(AY9+6)</f>
         <v>41014</v>
       </c>
-      <c r="BD9" s="139"/>
-      <c r="BE9" s="144">
+      <c r="BD9" s="138"/>
+      <c r="BE9" s="136">
         <f>SUM(BC9+1)</f>
         <v>41015</v>
       </c>
-      <c r="BF9" s="138"/>
+      <c r="BF9" s="137"/>
       <c r="BG9" s="70"/>
       <c r="BH9" s="70"/>
-      <c r="BI9" s="138">
+      <c r="BI9" s="137">
         <f>SUM(BE9+6)</f>
         <v>41021</v>
       </c>
-      <c r="BJ9" s="139"/>
-      <c r="BK9" s="144">
+      <c r="BJ9" s="138"/>
+      <c r="BK9" s="136">
         <f>SUM(BI9+1)</f>
         <v>41022</v>
       </c>
-      <c r="BL9" s="138"/>
+      <c r="BL9" s="137"/>
       <c r="BM9" s="70"/>
       <c r="BN9" s="70"/>
-      <c r="BO9" s="138">
+      <c r="BO9" s="137">
         <f>SUM(BK9+6)</f>
         <v>41028</v>
       </c>
-      <c r="BP9" s="139"/>
-      <c r="BQ9" s="144">
+      <c r="BP9" s="138"/>
+      <c r="BQ9" s="136">
         <f>SUM(BO9+1)</f>
         <v>41029</v>
       </c>
-      <c r="BR9" s="138"/>
+      <c r="BR9" s="137"/>
       <c r="BS9" s="70"/>
       <c r="BT9" s="70"/>
-      <c r="BU9" s="138">
+      <c r="BU9" s="137">
         <f>SUM(BQ9+6)</f>
         <v>41035</v>
       </c>
-      <c r="BV9" s="139"/>
-      <c r="BW9" s="144">
+      <c r="BV9" s="138"/>
+      <c r="BW9" s="136">
         <f>SUM(BU9+1)</f>
         <v>41036</v>
       </c>
-      <c r="BX9" s="138"/>
+      <c r="BX9" s="137"/>
       <c r="BY9" s="70"/>
       <c r="BZ9" s="70"/>
-      <c r="CA9" s="138">
+      <c r="CA9" s="137">
         <f>SUM(BW9+6)</f>
         <v>41042</v>
       </c>
-      <c r="CB9" s="139"/>
-      <c r="CC9" s="144">
+      <c r="CB9" s="138"/>
+      <c r="CC9" s="136">
         <f>SUM(CA9+1)</f>
         <v>41043</v>
       </c>
-      <c r="CD9" s="138"/>
+      <c r="CD9" s="137"/>
       <c r="CE9" s="70"/>
       <c r="CF9" s="70"/>
-      <c r="CG9" s="138">
+      <c r="CG9" s="137">
         <f>SUM(CC9+6)</f>
         <v>41049</v>
       </c>
-      <c r="CH9" s="139"/>
-      <c r="CI9" s="144">
+      <c r="CH9" s="138"/>
+      <c r="CI9" s="136">
         <f>SUM(CG9+1)</f>
         <v>41050</v>
       </c>
-      <c r="CJ9" s="138"/>
+      <c r="CJ9" s="137"/>
       <c r="CK9" s="70"/>
       <c r="CL9" s="70"/>
-      <c r="CM9" s="138">
+      <c r="CM9" s="137">
         <f>SUM(CI9+6)</f>
         <v>41056</v>
       </c>
-      <c r="CN9" s="139"/>
-      <c r="CO9" s="144">
+      <c r="CN9" s="138"/>
+      <c r="CO9" s="136">
         <f>SUM(CM9+1)</f>
         <v>41057</v>
       </c>
-      <c r="CP9" s="138"/>
+      <c r="CP9" s="137"/>
       <c r="CQ9" s="70"/>
       <c r="CR9" s="70"/>
-      <c r="CS9" s="138">
+      <c r="CS9" s="137">
         <f>SUM(CO9+6)</f>
         <v>41063</v>
       </c>
-      <c r="CT9" s="139"/>
+      <c r="CT9" s="138"/>
       <c r="CV9" s="62"/>
       <c r="CW9" s="62"/>
       <c r="CX9" s="68"/>
@@ -3289,16 +3292,16 @@
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="133"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="26"/>
@@ -3644,15 +3647,15 @@
       <c r="N18" s="27"/>
       <c r="O18" s="24"/>
       <c r="P18" s="25"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="156"/>
-      <c r="Y18" s="156"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="151"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="151"/>
+      <c r="Y18" s="151"/>
       <c r="Z18" s="27"/>
       <c r="AA18" s="24"/>
       <c r="AB18" s="25"/>
@@ -3886,9 +3889,9 @@
       <c r="X20" s="25"/>
       <c r="Y20" s="26"/>
       <c r="Z20" s="27"/>
-      <c r="AA20" s="157"/>
-      <c r="AB20" s="156"/>
-      <c r="AC20" s="156"/>
+      <c r="AA20" s="152"/>
+      <c r="AB20" s="151"/>
+      <c r="AC20" s="151"/>
       <c r="AD20" s="25"/>
       <c r="AE20" s="26"/>
       <c r="AF20" s="27"/>
@@ -4229,18 +4232,18 @@
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
       <c r="X23" s="25"/>
-      <c r="Y23" s="150"/>
-      <c r="Z23" s="150"/>
-      <c r="AA23" s="150"/>
-      <c r="AB23" s="150"/>
-      <c r="AC23" s="150"/>
-      <c r="AD23" s="150"/>
-      <c r="AE23" s="150"/>
-      <c r="AF23" s="150"/>
-      <c r="AG23" s="150"/>
-      <c r="AH23" s="150"/>
-      <c r="AI23" s="152"/>
-      <c r="AJ23" s="152"/>
+      <c r="Y23" s="145"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="145"/>
+      <c r="AB23" s="145"/>
+      <c r="AC23" s="145"/>
+      <c r="AD23" s="145"/>
+      <c r="AE23" s="145"/>
+      <c r="AF23" s="145"/>
+      <c r="AG23" s="145"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="147"/>
+      <c r="AJ23" s="147"/>
       <c r="AK23" s="26"/>
       <c r="AL23" s="27"/>
       <c r="AM23" s="24"/>
@@ -4359,12 +4362,12 @@
       <c r="AJ24" s="25"/>
       <c r="AK24" s="26"/>
       <c r="AL24" s="27"/>
-      <c r="AS24" s="149"/>
-      <c r="AT24" s="150"/>
-      <c r="AU24" s="150"/>
-      <c r="AV24" s="150"/>
-      <c r="AW24" s="150"/>
-      <c r="AX24" s="151"/>
+      <c r="AS24" s="144"/>
+      <c r="AT24" s="145"/>
+      <c r="AU24" s="145"/>
+      <c r="AV24" s="145"/>
+      <c r="AW24" s="145"/>
+      <c r="AX24" s="146"/>
       <c r="AY24" s="24"/>
       <c r="AZ24" s="25"/>
       <c r="BA24" s="26"/>
@@ -4457,14 +4460,14 @@
       <c r="X25" s="25"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="27"/>
-      <c r="AA25" s="149"/>
-      <c r="AB25" s="150"/>
-      <c r="AC25" s="150"/>
-      <c r="AD25" s="150"/>
-      <c r="AE25" s="150"/>
-      <c r="AF25" s="150"/>
-      <c r="AG25" s="150"/>
-      <c r="AH25" s="150"/>
+      <c r="AA25" s="144"/>
+      <c r="AB25" s="145"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="145"/>
+      <c r="AE25" s="145"/>
+      <c r="AF25" s="145"/>
+      <c r="AG25" s="145"/>
+      <c r="AH25" s="145"/>
       <c r="AI25" s="26"/>
       <c r="AJ25" s="25"/>
       <c r="AK25" s="26"/>
@@ -4581,9 +4584,9 @@
       <c r="AF26" s="27"/>
       <c r="AG26" s="24"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="150"/>
-      <c r="AJ26" s="150"/>
-      <c r="AK26" s="150"/>
+      <c r="AI26" s="145"/>
+      <c r="AJ26" s="145"/>
+      <c r="AK26" s="145"/>
       <c r="AL26" s="27"/>
       <c r="AM26" s="24"/>
       <c r="AN26" s="25"/>
@@ -4700,9 +4703,9 @@
       <c r="AI27" s="26"/>
       <c r="AM27" s="113"/>
       <c r="AS27" s="113"/>
-      <c r="AW27" s="153"/>
-      <c r="AX27" s="153"/>
-      <c r="AY27" s="153"/>
+      <c r="AW27" s="148"/>
+      <c r="AX27" s="148"/>
+      <c r="AY27" s="148"/>
       <c r="BA27" s="26"/>
       <c r="BB27" s="25"/>
       <c r="BC27" s="26"/>
@@ -4801,9 +4804,9 @@
       <c r="AF28" s="27"/>
       <c r="AG28" s="24"/>
       <c r="AH28" s="25"/>
-      <c r="AI28" s="150"/>
-      <c r="AJ28" s="150"/>
-      <c r="AK28" s="150"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="145"/>
+      <c r="AK28" s="145"/>
       <c r="AL28" s="27"/>
       <c r="AM28" s="24"/>
       <c r="AN28" s="25"/>
@@ -5251,20 +5254,20 @@
       <c r="AG32" s="24"/>
       <c r="AH32" s="25"/>
       <c r="AI32" s="26"/>
-      <c r="AJ32" s="164"/>
-      <c r="AK32" s="164"/>
-      <c r="AL32" s="164"/>
-      <c r="AM32" s="164"/>
-      <c r="AN32" s="164"/>
-      <c r="AO32" s="164"/>
-      <c r="AP32" s="164"/>
-      <c r="AQ32" s="164"/>
-      <c r="AR32" s="164"/>
-      <c r="AS32" s="164"/>
-      <c r="AT32" s="164"/>
-      <c r="AU32" s="164"/>
-      <c r="AV32" s="164"/>
-      <c r="AW32" s="164"/>
+      <c r="AJ32" s="135"/>
+      <c r="AK32" s="135"/>
+      <c r="AL32" s="135"/>
+      <c r="AM32" s="135"/>
+      <c r="AN32" s="135"/>
+      <c r="AO32" s="135"/>
+      <c r="AP32" s="135"/>
+      <c r="AQ32" s="135"/>
+      <c r="AR32" s="135"/>
+      <c r="AS32" s="135"/>
+      <c r="AT32" s="135"/>
+      <c r="AU32" s="135"/>
+      <c r="AV32" s="135"/>
+      <c r="AW32" s="135"/>
       <c r="AX32" s="27"/>
       <c r="AY32" s="24"/>
       <c r="AZ32" s="25"/>
@@ -5483,23 +5486,23 @@
       <c r="AG34" s="24"/>
       <c r="AH34" s="25"/>
       <c r="AI34" s="26"/>
-      <c r="AJ34" s="155"/>
-      <c r="AK34" s="155"/>
-      <c r="AL34" s="155"/>
-      <c r="AM34" s="155"/>
-      <c r="AN34" s="155"/>
-      <c r="AO34" s="155"/>
-      <c r="AP34" s="155"/>
-      <c r="AQ34" s="155"/>
-      <c r="AR34" s="155"/>
-      <c r="AS34" s="155"/>
-      <c r="AT34" s="155"/>
-      <c r="AU34" s="155"/>
-      <c r="AV34" s="155"/>
-      <c r="AW34" s="155"/>
-      <c r="AX34" s="155"/>
-      <c r="AY34" s="155"/>
-      <c r="AZ34" s="155"/>
+      <c r="AJ34" s="150"/>
+      <c r="AK34" s="150"/>
+      <c r="AL34" s="150"/>
+      <c r="AM34" s="150"/>
+      <c r="AN34" s="150"/>
+      <c r="AO34" s="150"/>
+      <c r="AP34" s="150"/>
+      <c r="AQ34" s="150"/>
+      <c r="AR34" s="150"/>
+      <c r="AS34" s="150"/>
+      <c r="AT34" s="150"/>
+      <c r="AU34" s="150"/>
+      <c r="AV34" s="150"/>
+      <c r="AW34" s="150"/>
+      <c r="AX34" s="150"/>
+      <c r="AY34" s="150"/>
+      <c r="AZ34" s="150"/>
       <c r="BA34" s="26"/>
       <c r="BB34" s="25"/>
       <c r="BC34" s="26"/>
@@ -5797,39 +5800,39 @@
       <c r="AG37" s="24"/>
       <c r="AH37" s="25"/>
       <c r="AI37" s="26"/>
-      <c r="AJ37" s="147"/>
-      <c r="AK37" s="147"/>
-      <c r="AL37" s="147"/>
-      <c r="AM37" s="147"/>
-      <c r="AN37" s="147"/>
-      <c r="AO37" s="147"/>
-      <c r="AP37" s="147"/>
-      <c r="AQ37" s="147"/>
-      <c r="AR37" s="147"/>
-      <c r="AS37" s="147"/>
-      <c r="AT37" s="147"/>
-      <c r="AU37" s="147"/>
-      <c r="AV37" s="147"/>
-      <c r="AW37" s="147"/>
-      <c r="AX37" s="147"/>
-      <c r="AY37" s="147"/>
-      <c r="AZ37" s="147"/>
-      <c r="BA37" s="147"/>
-      <c r="BB37" s="147"/>
-      <c r="BC37" s="147"/>
-      <c r="BD37" s="147"/>
-      <c r="BE37" s="147"/>
-      <c r="BF37" s="147"/>
-      <c r="BG37" s="147"/>
-      <c r="BH37" s="147"/>
-      <c r="BI37" s="147"/>
-      <c r="BJ37" s="147"/>
-      <c r="BK37" s="147"/>
-      <c r="BL37" s="147"/>
-      <c r="BM37" s="147"/>
-      <c r="BN37" s="147"/>
-      <c r="BO37" s="147"/>
-      <c r="BP37" s="148"/>
+      <c r="AJ37" s="142"/>
+      <c r="AK37" s="142"/>
+      <c r="AL37" s="142"/>
+      <c r="AM37" s="142"/>
+      <c r="AN37" s="142"/>
+      <c r="AO37" s="142"/>
+      <c r="AP37" s="142"/>
+      <c r="AQ37" s="142"/>
+      <c r="AR37" s="142"/>
+      <c r="AS37" s="142"/>
+      <c r="AT37" s="142"/>
+      <c r="AU37" s="142"/>
+      <c r="AV37" s="142"/>
+      <c r="AW37" s="142"/>
+      <c r="AX37" s="142"/>
+      <c r="AY37" s="142"/>
+      <c r="AZ37" s="142"/>
+      <c r="BA37" s="142"/>
+      <c r="BB37" s="142"/>
+      <c r="BC37" s="142"/>
+      <c r="BD37" s="142"/>
+      <c r="BE37" s="142"/>
+      <c r="BF37" s="142"/>
+      <c r="BG37" s="142"/>
+      <c r="BH37" s="142"/>
+      <c r="BI37" s="142"/>
+      <c r="BJ37" s="142"/>
+      <c r="BK37" s="142"/>
+      <c r="BL37" s="142"/>
+      <c r="BM37" s="142"/>
+      <c r="BN37" s="142"/>
+      <c r="BO37" s="142"/>
+      <c r="BP37" s="143"/>
       <c r="BQ37" s="83"/>
       <c r="BR37" s="84"/>
       <c r="BS37" s="85"/>
@@ -5923,12 +5926,12 @@
       <c r="AQ38" s="26"/>
       <c r="AR38" s="27"/>
       <c r="AS38" s="24"/>
-      <c r="AT38" s="161"/>
-      <c r="AU38" s="161"/>
-      <c r="AV38" s="161"/>
-      <c r="AW38" s="161"/>
-      <c r="AX38" s="161"/>
-      <c r="AY38" s="161"/>
+      <c r="AT38" s="131"/>
+      <c r="AU38" s="131"/>
+      <c r="AV38" s="131"/>
+      <c r="AW38" s="131"/>
+      <c r="AX38" s="131"/>
+      <c r="AY38" s="131"/>
       <c r="AZ38" s="25"/>
       <c r="BA38" s="26"/>
       <c r="BB38" s="25"/>
@@ -5940,14 +5943,14 @@
       <c r="BH38" s="120"/>
       <c r="BI38" s="120"/>
       <c r="BJ38" s="120"/>
-      <c r="BK38" s="160"/>
-      <c r="BL38" s="160"/>
-      <c r="BM38" s="160"/>
-      <c r="BN38" s="160"/>
-      <c r="BO38" s="160"/>
-      <c r="BP38" s="160"/>
-      <c r="BQ38" s="160"/>
-      <c r="BR38" s="160"/>
+      <c r="BK38" s="130"/>
+      <c r="BL38" s="130"/>
+      <c r="BM38" s="130"/>
+      <c r="BN38" s="130"/>
+      <c r="BO38" s="130"/>
+      <c r="BP38" s="130"/>
+      <c r="BQ38" s="130"/>
+      <c r="BR38" s="130"/>
       <c r="BS38" s="120"/>
       <c r="BT38" s="120"/>
       <c r="BU38" s="26"/>
@@ -6294,8 +6297,8 @@
       <c r="BQ41" s="24"/>
       <c r="BR41" s="25"/>
       <c r="BS41" s="26"/>
-      <c r="BT41" s="162"/>
-      <c r="BU41" s="162"/>
+      <c r="BT41" s="132"/>
+      <c r="BU41" s="132"/>
       <c r="BV41" s="27"/>
       <c r="BW41" s="24"/>
       <c r="BX41" s="25"/>
@@ -6411,20 +6414,20 @@
       <c r="BR42" s="25"/>
       <c r="BS42" s="26"/>
       <c r="BT42" s="25"/>
-      <c r="BU42" s="128"/>
-      <c r="BV42" s="128"/>
-      <c r="BW42" s="128"/>
-      <c r="BX42" s="128"/>
-      <c r="BY42" s="128"/>
-      <c r="BZ42" s="128"/>
-      <c r="CA42" s="128"/>
-      <c r="CB42" s="128"/>
-      <c r="CC42" s="128"/>
-      <c r="CD42" s="128"/>
-      <c r="CE42" s="128"/>
-      <c r="CF42" s="128"/>
-      <c r="CG42" s="128"/>
-      <c r="CH42" s="163"/>
+      <c r="BU42" s="133"/>
+      <c r="BV42" s="133"/>
+      <c r="BW42" s="133"/>
+      <c r="BX42" s="133"/>
+      <c r="BY42" s="133"/>
+      <c r="BZ42" s="133"/>
+      <c r="CA42" s="133"/>
+      <c r="CB42" s="133"/>
+      <c r="CC42" s="133"/>
+      <c r="CD42" s="133"/>
+      <c r="CE42" s="133"/>
+      <c r="CF42" s="133"/>
+      <c r="CG42" s="133"/>
+      <c r="CH42" s="134"/>
       <c r="CI42" s="24"/>
       <c r="CJ42" s="25"/>
       <c r="CK42" s="26"/>
@@ -7602,6 +7605,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="G15:P15"/>
+    <mergeCell ref="AG8:AL8"/>
+    <mergeCell ref="AW6:BD6"/>
+    <mergeCell ref="AA6:AF6"/>
+    <mergeCell ref="CI3:CT3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="U8:Z8"/>
+    <mergeCell ref="AA8:AF8"/>
+    <mergeCell ref="BW8:CB8"/>
+    <mergeCell ref="CC8:CH8"/>
+    <mergeCell ref="CI8:CN8"/>
+    <mergeCell ref="CO8:CT8"/>
+    <mergeCell ref="AM8:AR8"/>
+    <mergeCell ref="AS8:AX8"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="BE8:BJ8"/>
+    <mergeCell ref="BK8:BP8"/>
+    <mergeCell ref="BQ8:BV8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="BE9:BF9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="I3:V3"/>
+    <mergeCell ref="W3:AH3"/>
+    <mergeCell ref="AI3:BP3"/>
+    <mergeCell ref="BQ3:CH3"/>
+    <mergeCell ref="AJ37:BP37"/>
+    <mergeCell ref="AS24:AX24"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AI26:AK26"/>
+    <mergeCell ref="AI28:AK28"/>
+    <mergeCell ref="AW27:AY27"/>
+    <mergeCell ref="AW5:AZ5"/>
+    <mergeCell ref="AJ34:AZ34"/>
+    <mergeCell ref="Q18:Y18"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="Y23:AH23"/>
+    <mergeCell ref="AA25:AH25"/>
     <mergeCell ref="CR6:DE6"/>
     <mergeCell ref="BK38:BR38"/>
     <mergeCell ref="AT38:AY38"/>
@@ -7618,68 +7680,9 @@
     <mergeCell ref="CM9:CN9"/>
     <mergeCell ref="BU9:BV9"/>
     <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="I3:V3"/>
-    <mergeCell ref="W3:AH3"/>
-    <mergeCell ref="AI3:BP3"/>
-    <mergeCell ref="BQ3:CH3"/>
-    <mergeCell ref="AJ37:BP37"/>
-    <mergeCell ref="AS24:AX24"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AI26:AK26"/>
-    <mergeCell ref="AI28:AK28"/>
-    <mergeCell ref="AW27:AY27"/>
-    <mergeCell ref="AW5:AZ5"/>
-    <mergeCell ref="AJ34:AZ34"/>
-    <mergeCell ref="Q18:Y18"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="Y23:AH23"/>
-    <mergeCell ref="AA25:AH25"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BE9:BF9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AS8:AX8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="BE8:BJ8"/>
-    <mergeCell ref="BK8:BP8"/>
-    <mergeCell ref="BQ8:BV8"/>
-    <mergeCell ref="G15:P15"/>
-    <mergeCell ref="AG8:AL8"/>
-    <mergeCell ref="AW6:BD6"/>
-    <mergeCell ref="AA6:AF6"/>
-    <mergeCell ref="CI3:CT3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="U8:Z8"/>
-    <mergeCell ref="AA8:AF8"/>
-    <mergeCell ref="BW8:CB8"/>
-    <mergeCell ref="CC8:CH8"/>
-    <mergeCell ref="CI8:CN8"/>
-    <mergeCell ref="CO8:CT8"/>
-    <mergeCell ref="AM8:AR8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="74" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
